--- a/TSLA.xlsx
+++ b/TSLA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C189224B-C30F-4A7F-B628-BB679DB16B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE97703-D80E-4710-9DE5-68371876DC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57090" yWindow="3550" windowWidth="14890" windowHeight="15860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50490" yWindow="680" windowWidth="24340" windowHeight="15680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <author>Martin Shkreli</author>
   </authors>
   <commentList>
-    <comment ref="AT42" authorId="0" shapeId="0" xr:uid="{7D7449AA-B6F8-4EBC-88EB-E7879CDB3FAB}">
+    <comment ref="AX42" authorId="0" shapeId="0" xr:uid="{7D7449AA-B6F8-4EBC-88EB-E7879CDB3FAB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -49,7 +49,7 @@
     Q123: 1.8m/year</t>
       </text>
     </comment>
-    <comment ref="AS45" authorId="1" shapeId="0" xr:uid="{967D8758-D7BC-41A6-B5D6-1925877D7989}">
+    <comment ref="AW45" authorId="1" shapeId="0" xr:uid="{967D8758-D7BC-41A6-B5D6-1925877D7989}">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="187">
   <si>
     <t>Price</t>
   </si>
@@ -627,6 +627,18 @@
   </si>
   <si>
     <t>CFFF</t>
+  </si>
+  <si>
+    <t>Q126</t>
+  </si>
+  <si>
+    <t>Q226</t>
+  </si>
+  <si>
+    <t>Q326</t>
+  </si>
+  <si>
+    <t>Q426</t>
   </si>
 </sst>
 </file>
@@ -864,13 +876,13 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -897,16 +909,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>33950</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>78124</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>100264</xdr:rowOff>
+      <xdr:rowOff>22960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>38203</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>82377</xdr:colOff>
       <xdr:row>148</xdr:row>
-      <xdr:rowOff>106833</xdr:rowOff>
+      <xdr:rowOff>29529</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -923,8 +935,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19835924" y="100264"/>
-          <a:ext cx="4253" cy="23748885"/>
+          <a:off x="22027037" y="22960"/>
+          <a:ext cx="4253" cy="23772134"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -949,13 +961,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>46</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>21322</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>21322</xdr:colOff>
       <xdr:row>136</xdr:row>
       <xdr:rowOff>20053</xdr:rowOff>
@@ -1303,7 +1315,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="AT42" dT="2023-04-23T20:32:30.18" personId="{DB2BD1D3-B51E-4CED-BC74-064ACA9A1F13}" id="{7D7449AA-B6F8-4EBC-88EB-E7879CDB3FAB}">
+  <threadedComment ref="AX42" dT="2023-04-23T20:32:30.18" personId="{DB2BD1D3-B51E-4CED-BC74-064ACA9A1F13}" id="{7D7449AA-B6F8-4EBC-88EB-E7879CDB3FAB}">
     <text>Q123: 1.8m/year</text>
   </threadedComment>
 </ThreadedComments>
@@ -1313,16 +1325,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L21"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="16384" width="9.1796875" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>125</v>
       </c>
@@ -1330,11 +1342,11 @@
         <v>0</v>
       </c>
       <c r="K2" s="11">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="43" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="42" t="s">
         <v>169</v>
       </c>
       <c r="C3" s="32"/>
@@ -1342,13 +1354,13 @@
         <v>1</v>
       </c>
       <c r="K3" s="10">
-        <v>3521</v>
-      </c>
-      <c r="L3" s="46" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+        <v>3526</v>
+      </c>
+      <c r="L3" s="45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="33" t="s">
         <v>155</v>
       </c>
@@ -1357,38 +1369,38 @@
       </c>
       <c r="K4" s="10">
         <f>K2*K3</f>
-        <v>1080947</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="43" t="s">
+        <v>1572596</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="42" t="s">
         <v>168</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>3</v>
       </c>
       <c r="K5" s="10">
-        <v>36996</v>
-      </c>
-      <c r="L5" s="46" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="43" t="s">
+        <v>41647</v>
+      </c>
+      <c r="L5" s="45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="42" t="s">
         <v>170</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>4</v>
       </c>
       <c r="K6" s="18">
-        <v>7529</v>
-      </c>
-      <c r="L6" s="46" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+        <v>7702</v>
+      </c>
+      <c r="L6" s="45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="33" t="s">
         <v>107</v>
       </c>
@@ -1397,72 +1409,72 @@
       </c>
       <c r="K7" s="10">
         <f>K4-K5+K6</f>
-        <v>1051480</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+        <v>1538651</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="33" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="33" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="33" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="43" t="s">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="42" t="s">
         <v>171</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="43" t="s">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="42" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="43" t="s">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="42" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="44" t="s">
+    <row r="15" spans="2:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="B15" s="43" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="43" t="s">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="42" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="43" t="s">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="42" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="J19" s="43" t="s">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J19" s="42" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="43" t="s">
+      <c r="J20" s="42" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="J21" s="43" t="s">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J21" s="42" t="s">
         <v>176</v>
       </c>
     </row>
@@ -1473,42 +1485,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E310252-7C49-48D8-9A64-7380C8DB275B}">
-  <dimension ref="A1:DE132"/>
+  <dimension ref="A1:DI132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AB38" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AB102" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AF59" sqref="AF59"/>
+      <selection pane="bottomRight" activeCell="AG121" sqref="AG121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="18" width="9.140625" style="2"/>
-    <col min="19" max="19" width="8.7109375" style="2" customWidth="1"/>
-    <col min="20" max="23" width="9.140625" style="2"/>
-    <col min="24" max="24" width="9.7109375" style="2" customWidth="1"/>
-    <col min="25" max="25" width="9.140625" style="2"/>
-    <col min="26" max="26" width="8.28515625" style="2" customWidth="1"/>
-    <col min="27" max="31" width="9.5703125" style="2" customWidth="1"/>
-    <col min="32" max="34" width="8.42578125" style="2" customWidth="1"/>
-    <col min="35" max="43" width="9.140625" style="1"/>
-    <col min="44" max="46" width="9.7109375" style="1" customWidth="1"/>
-    <col min="47" max="47" width="10.7109375" style="1" customWidth="1"/>
-    <col min="48" max="58" width="9.7109375" style="1" customWidth="1"/>
-    <col min="59" max="59" width="9.140625" style="1"/>
-    <col min="60" max="60" width="9.5703125" style="1" customWidth="1"/>
-    <col min="61" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="18" width="9.1796875" style="2"/>
+    <col min="19" max="19" width="8.7265625" style="2" customWidth="1"/>
+    <col min="20" max="23" width="9.1796875" style="2"/>
+    <col min="24" max="24" width="9.7265625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="9.1796875" style="2"/>
+    <col min="26" max="26" width="8.26953125" style="2" customWidth="1"/>
+    <col min="27" max="31" width="9.54296875" style="2" customWidth="1"/>
+    <col min="32" max="38" width="8.453125" style="2" customWidth="1"/>
+    <col min="39" max="47" width="9.1796875" style="1"/>
+    <col min="48" max="50" width="9.7265625" style="1" customWidth="1"/>
+    <col min="51" max="51" width="10.7265625" style="1" customWidth="1"/>
+    <col min="52" max="62" width="9.7265625" style="1" customWidth="1"/>
+    <col min="63" max="63" width="9.1796875" style="1"/>
+    <col min="64" max="64" width="9.54296875" style="1" customWidth="1"/>
+    <col min="65" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="C2" s="27" t="s">
         <v>94</v>
@@ -1606,92 +1618,104 @@
       <c r="AH2" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="AJ2" s="1">
+      <c r="AI2" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ2" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK2" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="AL2" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="AN2" s="1">
         <v>2013</v>
       </c>
-      <c r="AK2" s="1">
+      <c r="AO2" s="1">
         <v>2014</v>
       </c>
-      <c r="AL2" s="1">
+      <c r="AP2" s="1">
         <v>2015</v>
       </c>
-      <c r="AM2" s="1">
+      <c r="AQ2" s="1">
         <v>2016</v>
       </c>
-      <c r="AN2" s="1">
+      <c r="AR2" s="1">
         <v>2017</v>
       </c>
-      <c r="AO2" s="1">
+      <c r="AS2" s="1">
         <v>2018</v>
       </c>
-      <c r="AP2" s="1">
+      <c r="AT2" s="1">
         <v>2019</v>
       </c>
-      <c r="AQ2" s="1">
+      <c r="AU2" s="1">
         <v>2020</v>
       </c>
-      <c r="AR2" s="1">
-        <f>+AQ2+1</f>
+      <c r="AV2" s="1">
+        <f>+AU2+1</f>
         <v>2021</v>
       </c>
-      <c r="AS2" s="1">
-        <f t="shared" ref="AS2" si="0">+AR2+1</f>
+      <c r="AW2" s="1">
+        <f t="shared" ref="AW2" si="0">+AV2+1</f>
         <v>2022</v>
       </c>
-      <c r="AT2" s="1">
-        <f t="shared" ref="AT2" si="1">+AS2+1</f>
+      <c r="AX2" s="1">
+        <f t="shared" ref="AX2" si="1">+AW2+1</f>
         <v>2023</v>
       </c>
-      <c r="AU2" s="1">
-        <f>+AT2+1</f>
+      <c r="AY2" s="1">
+        <f>+AX2+1</f>
         <v>2024</v>
       </c>
-      <c r="AV2" s="1">
-        <f t="shared" ref="AV2" si="2">+AU2+1</f>
+      <c r="AZ2" s="1">
+        <f t="shared" ref="AZ2" si="2">+AY2+1</f>
         <v>2025</v>
       </c>
-      <c r="AW2" s="1">
-        <f t="shared" ref="AW2" si="3">+AV2+1</f>
+      <c r="BA2" s="1">
+        <f t="shared" ref="BA2" si="3">+AZ2+1</f>
         <v>2026</v>
       </c>
-      <c r="AX2" s="1">
-        <f t="shared" ref="AX2" si="4">+AW2+1</f>
+      <c r="BB2" s="1">
+        <f t="shared" ref="BB2" si="4">+BA2+1</f>
         <v>2027</v>
       </c>
-      <c r="AY2" s="1">
-        <f t="shared" ref="AY2" si="5">+AX2+1</f>
+      <c r="BC2" s="1">
+        <f t="shared" ref="BC2" si="5">+BB2+1</f>
         <v>2028</v>
       </c>
-      <c r="AZ2" s="1">
-        <f t="shared" ref="AZ2" si="6">+AY2+1</f>
+      <c r="BD2" s="1">
+        <f t="shared" ref="BD2" si="6">+BC2+1</f>
         <v>2029</v>
       </c>
-      <c r="BA2" s="1">
-        <f t="shared" ref="BA2" si="7">+AZ2+1</f>
+      <c r="BE2" s="1">
+        <f t="shared" ref="BE2" si="7">+BD2+1</f>
         <v>2030</v>
-      </c>
-      <c r="BB2" s="1">
-        <f>+BA2+1</f>
-        <v>2031</v>
-      </c>
-      <c r="BC2" s="1">
-        <f>+BB2+1</f>
-        <v>2032</v>
-      </c>
-      <c r="BD2" s="1">
-        <f>+BC2+1</f>
-        <v>2033</v>
-      </c>
-      <c r="BE2" s="1">
-        <f>+BD2+1</f>
-        <v>2034</v>
       </c>
       <c r="BF2" s="1">
         <f>+BE2+1</f>
+        <v>2031</v>
+      </c>
+      <c r="BG2" s="1">
+        <f>+BF2+1</f>
+        <v>2032</v>
+      </c>
+      <c r="BH2" s="1">
+        <f>+BG2+1</f>
+        <v>2033</v>
+      </c>
+      <c r="BI2" s="1">
+        <f>+BH2+1</f>
+        <v>2034</v>
+      </c>
+      <c r="BJ2" s="1">
+        <f>+BI2+1</f>
         <v>2035</v>
       </c>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="33" t="s">
         <v>135</v>
@@ -1718,8 +1742,12 @@
       <c r="AF3" s="31"/>
       <c r="AG3" s="31"/>
       <c r="AH3" s="31"/>
-    </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="AI3" s="31"/>
+      <c r="AJ3" s="31"/>
+      <c r="AK3" s="31"/>
+      <c r="AL3" s="31"/>
+    </row>
+    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="33" t="s">
         <v>127</v>
@@ -1743,8 +1771,12 @@
       <c r="AF4" s="31"/>
       <c r="AG4" s="31"/>
       <c r="AH4" s="31"/>
-    </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="31"/>
+    </row>
+    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="33" t="s">
         <v>141</v>
@@ -1769,8 +1801,12 @@
       <c r="AF5" s="31"/>
       <c r="AG5" s="31"/>
       <c r="AH5" s="31"/>
-    </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="AI5" s="31"/>
+      <c r="AJ5" s="31"/>
+      <c r="AK5" s="31"/>
+      <c r="AL5" s="31"/>
+    </row>
+    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="33" t="s">
         <v>150</v>
@@ -1795,8 +1831,12 @@
       <c r="AF6" s="31"/>
       <c r="AG6" s="31"/>
       <c r="AH6" s="31"/>
-    </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="AI6" s="31"/>
+      <c r="AJ6" s="31"/>
+      <c r="AK6" s="31"/>
+      <c r="AL6" s="31"/>
+    </row>
+    <row r="7" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="33" t="s">
         <v>151</v>
@@ -1822,8 +1862,12 @@
       <c r="AF7" s="31"/>
       <c r="AG7" s="31"/>
       <c r="AH7" s="31"/>
-    </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="AI7" s="31"/>
+      <c r="AJ7" s="31"/>
+      <c r="AK7" s="31"/>
+      <c r="AL7" s="31"/>
+    </row>
+    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="33" t="s">
         <v>137</v>
@@ -1850,8 +1894,12 @@
       <c r="AF8" s="31"/>
       <c r="AG8" s="31"/>
       <c r="AH8" s="31"/>
-    </row>
-    <row r="9" spans="1:58" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AI8" s="31"/>
+      <c r="AJ8" s="31"/>
+      <c r="AK8" s="31"/>
+      <c r="AL8" s="31"/>
+    </row>
+    <row r="9" spans="1:62" s="23" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="38"/>
       <c r="B9" s="23" t="s">
         <v>132</v>
@@ -1966,36 +2014,40 @@
       <c r="AF9" s="24"/>
       <c r="AG9" s="24"/>
       <c r="AH9" s="24"/>
-      <c r="AO9" s="6">
-        <f t="shared" ref="AO9:AU9" si="9">+AO45</f>
+      <c r="AI9" s="24"/>
+      <c r="AJ9" s="24"/>
+      <c r="AK9" s="24"/>
+      <c r="AL9" s="24"/>
+      <c r="AS9" s="6">
+        <f t="shared" ref="AS9:AY9" si="9">+AS45</f>
         <v>0</v>
       </c>
-      <c r="AP9" s="6">
+      <c r="AT9" s="6">
         <f t="shared" si="9"/>
         <v>19952</v>
       </c>
-      <c r="AQ9" s="6">
+      <c r="AU9" s="6">
         <f t="shared" si="9"/>
         <v>25783</v>
       </c>
-      <c r="AR9" s="6">
+      <c r="AV9" s="6">
         <f t="shared" si="9"/>
         <v>44125</v>
       </c>
-      <c r="AS9" s="6">
+      <c r="AW9" s="6">
         <f t="shared" si="9"/>
         <v>68004</v>
       </c>
-      <c r="AT9" s="6">
+      <c r="AX9" s="6">
         <f t="shared" si="9"/>
         <v>78509</v>
       </c>
-      <c r="AU9" s="6">
+      <c r="AY9" s="6">
         <f t="shared" si="9"/>
         <v>72480</v>
       </c>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="33" t="s">
         <v>128</v>
@@ -2021,8 +2073,12 @@
       <c r="AF10" s="31"/>
       <c r="AG10" s="31"/>
       <c r="AH10" s="31"/>
-    </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="AI10" s="31"/>
+      <c r="AJ10" s="31"/>
+      <c r="AK10" s="31"/>
+      <c r="AL10" s="31"/>
+    </row>
+    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="33" t="s">
         <v>131</v>
@@ -2049,8 +2105,12 @@
       <c r="AF11" s="31"/>
       <c r="AG11" s="31"/>
       <c r="AH11" s="31"/>
-    </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="AI11" s="31"/>
+      <c r="AJ11" s="31"/>
+      <c r="AK11" s="31"/>
+      <c r="AL11" s="31"/>
+    </row>
+    <row r="12" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="33"/>
       <c r="C12" s="27"/>
@@ -2069,8 +2129,12 @@
       <c r="AF12" s="31"/>
       <c r="AG12" s="31"/>
       <c r="AH12" s="31"/>
-    </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="AI12" s="31"/>
+      <c r="AJ12" s="31"/>
+      <c r="AK12" s="31"/>
+      <c r="AL12" s="31"/>
+    </row>
+    <row r="13" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="33" t="s">
         <v>130</v>
@@ -2093,8 +2157,12 @@
       <c r="AF13" s="31"/>
       <c r="AG13" s="31"/>
       <c r="AH13" s="31"/>
-    </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="AI13" s="31"/>
+      <c r="AJ13" s="31"/>
+      <c r="AK13" s="31"/>
+      <c r="AL13" s="31"/>
+    </row>
+    <row r="14" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="33" t="s">
         <v>136</v>
@@ -2125,8 +2193,12 @@
       <c r="AF14" s="31"/>
       <c r="AG14" s="31"/>
       <c r="AH14" s="31"/>
-    </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="AI14" s="31"/>
+      <c r="AJ14" s="31"/>
+      <c r="AK14" s="31"/>
+      <c r="AL14" s="31"/>
+    </row>
+    <row r="15" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="33" t="s">
         <v>152</v>
@@ -2150,8 +2222,12 @@
       <c r="AF15" s="31"/>
       <c r="AG15" s="31"/>
       <c r="AH15" s="31"/>
-    </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="AI15" s="31"/>
+      <c r="AJ15" s="31"/>
+      <c r="AK15" s="31"/>
+      <c r="AL15" s="31"/>
+    </row>
+    <row r="16" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="33" t="s">
         <v>139</v>
@@ -2182,8 +2258,12 @@
       <c r="AF16" s="31"/>
       <c r="AG16" s="31"/>
       <c r="AH16" s="31"/>
-    </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AI16" s="31"/>
+      <c r="AJ16" s="31"/>
+      <c r="AK16" s="31"/>
+      <c r="AL16" s="31"/>
+    </row>
+    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="33" t="s">
         <v>129</v>
@@ -2210,8 +2290,12 @@
       <c r="AF17" s="31"/>
       <c r="AG17" s="31"/>
       <c r="AH17" s="31"/>
-    </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AI17" s="31"/>
+      <c r="AJ17" s="31"/>
+      <c r="AK17" s="31"/>
+      <c r="AL17" s="31"/>
+    </row>
+    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="33" t="s">
         <v>140</v>
@@ -2242,8 +2326,12 @@
       <c r="AF18" s="31"/>
       <c r="AG18" s="31"/>
       <c r="AH18" s="31"/>
-    </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AI18" s="31"/>
+      <c r="AJ18" s="31"/>
+      <c r="AK18" s="31"/>
+      <c r="AL18" s="31"/>
+    </row>
+    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="33" t="s">
         <v>138</v>
@@ -2268,8 +2356,12 @@
       <c r="AF19" s="31"/>
       <c r="AG19" s="31"/>
       <c r="AH19" s="31"/>
-    </row>
-    <row r="20" spans="1:47" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AI19" s="31"/>
+      <c r="AJ19" s="31"/>
+      <c r="AK19" s="31"/>
+      <c r="AL19" s="31"/>
+    </row>
+    <row r="20" spans="1:51" s="23" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A20" s="38"/>
       <c r="B20" s="23" t="s">
         <v>134</v>
@@ -2327,16 +2419,20 @@
       <c r="AF20" s="24"/>
       <c r="AG20" s="24"/>
       <c r="AH20" s="24"/>
-      <c r="AT20" s="6">
-        <f>+AT37</f>
+      <c r="AI20" s="24"/>
+      <c r="AJ20" s="24"/>
+      <c r="AK20" s="24"/>
+      <c r="AL20" s="24"/>
+      <c r="AX20" s="6">
+        <f>+AX37</f>
         <v>1808581</v>
       </c>
-      <c r="AU20" s="6">
-        <f>+AU37</f>
+      <c r="AY20" s="6">
+        <f>+AY37</f>
         <v>1789226</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="33" t="s">
         <v>133</v>
@@ -2363,8 +2459,12 @@
       <c r="AF21" s="31"/>
       <c r="AG21" s="31"/>
       <c r="AH21" s="31"/>
-    </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AI21" s="31"/>
+      <c r="AJ21" s="31"/>
+      <c r="AK21" s="31"/>
+      <c r="AL21" s="31"/>
+    </row>
+    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="33"/>
       <c r="C22" s="27"/>
@@ -2383,8 +2483,12 @@
       <c r="AF22" s="31"/>
       <c r="AG22" s="31"/>
       <c r="AH22" s="31"/>
-    </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AI22" s="31"/>
+      <c r="AJ22" s="31"/>
+      <c r="AK22" s="31"/>
+      <c r="AL22" s="31"/>
+    </row>
+    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="33" t="s">
         <v>142</v>
@@ -2408,8 +2512,12 @@
       <c r="AF23" s="31"/>
       <c r="AG23" s="31"/>
       <c r="AH23" s="31"/>
-    </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AI23" s="31"/>
+      <c r="AJ23" s="31"/>
+      <c r="AK23" s="31"/>
+      <c r="AL23" s="31"/>
+    </row>
+    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="33" t="s">
         <v>143</v>
@@ -2433,8 +2541,12 @@
       <c r="AF24" s="31"/>
       <c r="AG24" s="31"/>
       <c r="AH24" s="31"/>
-    </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AI24" s="31"/>
+      <c r="AJ24" s="31"/>
+      <c r="AK24" s="31"/>
+      <c r="AL24" s="31"/>
+    </row>
+    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="33" t="s">
         <v>144</v>
@@ -2458,8 +2570,12 @@
       <c r="AF25" s="31"/>
       <c r="AG25" s="31"/>
       <c r="AH25" s="31"/>
-    </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AI25" s="31"/>
+      <c r="AJ25" s="31"/>
+      <c r="AK25" s="31"/>
+      <c r="AL25" s="31"/>
+    </row>
+    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="33" t="s">
         <v>153</v>
@@ -2483,8 +2599,12 @@
       <c r="AF26" s="31"/>
       <c r="AG26" s="31"/>
       <c r="AH26" s="31"/>
-    </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AI26" s="31"/>
+      <c r="AJ26" s="31"/>
+      <c r="AK26" s="31"/>
+      <c r="AL26" s="31"/>
+    </row>
+    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="33" t="s">
         <v>145</v>
@@ -2508,8 +2628,12 @@
       <c r="AF27" s="31"/>
       <c r="AG27" s="31"/>
       <c r="AH27" s="31"/>
-    </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AI27" s="31"/>
+      <c r="AJ27" s="31"/>
+      <c r="AK27" s="31"/>
+      <c r="AL27" s="31"/>
+    </row>
+    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="33" t="s">
         <v>146</v>
@@ -2533,8 +2657,12 @@
       <c r="AF28" s="31"/>
       <c r="AG28" s="31"/>
       <c r="AH28" s="31"/>
-    </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AI28" s="31"/>
+      <c r="AJ28" s="31"/>
+      <c r="AK28" s="31"/>
+      <c r="AL28" s="31"/>
+    </row>
+    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="33" t="s">
         <v>147</v>
@@ -2558,8 +2686,12 @@
       <c r="AF29" s="31"/>
       <c r="AG29" s="31"/>
       <c r="AH29" s="31"/>
-    </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AI29" s="31"/>
+      <c r="AJ29" s="31"/>
+      <c r="AK29" s="31"/>
+      <c r="AL29" s="31"/>
+    </row>
+    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="33" t="s">
         <v>148</v>
@@ -2583,8 +2715,12 @@
       <c r="AF30" s="31"/>
       <c r="AG30" s="31"/>
       <c r="AH30" s="31"/>
-    </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AI30" s="31"/>
+      <c r="AJ30" s="31"/>
+      <c r="AK30" s="31"/>
+      <c r="AL30" s="31"/>
+    </row>
+    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="33" t="s">
         <v>149</v>
@@ -2608,8 +2744,12 @@
       <c r="AF31" s="31"/>
       <c r="AG31" s="31"/>
       <c r="AH31" s="31"/>
-    </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AI31" s="31"/>
+      <c r="AJ31" s="31"/>
+      <c r="AK31" s="31"/>
+      <c r="AL31" s="31"/>
+    </row>
+    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="33"/>
       <c r="C32" s="27"/>
@@ -2628,8 +2768,12 @@
       <c r="AF32" s="31"/>
       <c r="AG32" s="31"/>
       <c r="AH32" s="31"/>
-    </row>
-    <row r="33" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="AI32" s="31"/>
+      <c r="AJ32" s="31"/>
+      <c r="AK32" s="31"/>
+      <c r="AL32" s="31"/>
+    </row>
+    <row r="33" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="C33" s="27"/>
       <c r="D33" s="27"/>
@@ -2646,12 +2790,16 @@
       <c r="AF33" s="31"/>
       <c r="AG33" s="31"/>
       <c r="AH33" s="31"/>
-      <c r="AU33" s="1">
-        <f>+AU37*8/1000</f>
+      <c r="AI33" s="31"/>
+      <c r="AJ33" s="31"/>
+      <c r="AK33" s="31"/>
+      <c r="AL33" s="31"/>
+      <c r="AY33" s="1">
+        <f>+AY37*8/1000</f>
         <v>14313.808000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="13" t="s">
         <v>84</v>
       </c>
@@ -2689,8 +2837,12 @@
       <c r="AF34" s="5"/>
       <c r="AG34" s="5"/>
       <c r="AH34" s="5"/>
-    </row>
-    <row r="35" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="5"/>
+    </row>
+    <row r="35" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
         <v>9</v>
       </c>
@@ -2776,34 +2928,40 @@
       <c r="AF35" s="5">
         <v>10394</v>
       </c>
-      <c r="AG35" s="5"/>
+      <c r="AG35" s="5">
+        <v>15933</v>
+      </c>
       <c r="AH35" s="5"/>
-      <c r="AP35" s="4">
+      <c r="AI35" s="5"/>
+      <c r="AJ35" s="5"/>
+      <c r="AK35" s="5"/>
+      <c r="AL35" s="5"/>
+      <c r="AT35" s="4">
         <f>SUM(G35:J35)</f>
         <v>66771</v>
       </c>
-      <c r="AQ35" s="4">
+      <c r="AU35" s="4">
         <f>SUM(K35:N35)</f>
         <v>56950</v>
       </c>
-      <c r="AR35" s="4">
+      <c r="AV35" s="4">
         <f>SUM(O35:R35)</f>
         <v>24935</v>
       </c>
-      <c r="AS35" s="4">
+      <c r="AW35" s="4">
         <f>SUM(S35:V35)</f>
         <v>66705</v>
       </c>
-      <c r="AT35" s="4">
+      <c r="AX35" s="4">
         <f>SUM(W35:Z35)</f>
         <v>68874</v>
       </c>
-      <c r="AU35" s="4">
+      <c r="AY35" s="4">
         <f>SUM(AA35:AD35)</f>
         <v>85133</v>
       </c>
     </row>
-    <row r="36" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
         <v>10</v>
       </c>
@@ -2889,34 +3047,40 @@
       <c r="AF36" s="5">
         <v>373728</v>
       </c>
-      <c r="AG36" s="5"/>
+      <c r="AG36" s="5">
+        <v>481166</v>
+      </c>
       <c r="AH36" s="5"/>
-      <c r="AP36" s="4">
+      <c r="AI36" s="5"/>
+      <c r="AJ36" s="5"/>
+      <c r="AK36" s="5"/>
+      <c r="AL36" s="5"/>
+      <c r="AT36" s="4">
         <f>SUM(G36:J36)</f>
         <v>300885</v>
       </c>
-      <c r="AQ36" s="4">
+      <c r="AU36" s="4">
         <f>SUM(K36:N36)</f>
         <v>442066</v>
       </c>
-      <c r="AR36" s="4">
+      <c r="AV36" s="4">
         <f>SUM(O36:R36)</f>
         <v>911015</v>
       </c>
-      <c r="AS36" s="4">
+      <c r="AW36" s="4">
         <f>SUM(S36:V36)</f>
         <v>1247146</v>
       </c>
-      <c r="AT36" s="4">
+      <c r="AX36" s="4">
         <f>SUM(W36:Z36)</f>
         <v>1739707</v>
       </c>
-      <c r="AU36" s="4">
+      <c r="AY36" s="4">
         <f>SUM(AA36:AD36)</f>
         <v>1704093</v>
       </c>
     </row>
-    <row r="37" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:62" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B37" s="6" t="s">
         <v>11</v>
       </c>
@@ -3021,85 +3185,92 @@
         <v>495570</v>
       </c>
       <c r="AE37" s="7">
-        <f t="shared" ref="AE37:AF37" si="13">AE36+AE35</f>
+        <f t="shared" ref="AE37:AG37" si="13">AE36+AE35</f>
         <v>336681</v>
       </c>
       <c r="AF37" s="7">
         <f t="shared" si="13"/>
         <v>384122</v>
       </c>
-      <c r="AG37" s="7"/>
+      <c r="AG37" s="7">
+        <f t="shared" si="13"/>
+        <v>497099</v>
+      </c>
       <c r="AH37" s="7"/>
-      <c r="AP37" s="6">
-        <f t="shared" ref="AP37:AT37" si="14">+AP35+AP36</f>
+      <c r="AI37" s="7"/>
+      <c r="AJ37" s="7"/>
+      <c r="AK37" s="7"/>
+      <c r="AL37" s="7"/>
+      <c r="AT37" s="6">
+        <f t="shared" ref="AT37:AX37" si="14">+AT35+AT36</f>
         <v>367656</v>
       </c>
-      <c r="AQ37" s="6">
+      <c r="AU37" s="6">
         <f t="shared" si="14"/>
         <v>499016</v>
       </c>
-      <c r="AR37" s="6">
+      <c r="AV37" s="6">
         <f t="shared" si="14"/>
         <v>935950</v>
       </c>
-      <c r="AS37" s="6">
+      <c r="AW37" s="6">
         <f t="shared" si="14"/>
         <v>1313851</v>
       </c>
-      <c r="AT37" s="6">
+      <c r="AX37" s="6">
         <f t="shared" si="14"/>
         <v>1808581</v>
       </c>
-      <c r="AU37" s="6">
-        <f>+AU35+AU36</f>
+      <c r="AY37" s="6">
+        <f>+AY35+AY36</f>
         <v>1789226</v>
       </c>
-      <c r="AV37" s="6">
-        <f t="shared" ref="AV37:AY37" si="15">AV42</f>
+      <c r="AZ37" s="6">
+        <f t="shared" ref="AZ37:BC37" si="15">AZ42</f>
         <v>2305475.9</v>
       </c>
-      <c r="AW37" s="6">
+      <c r="BA37" s="6">
         <f t="shared" si="15"/>
         <v>2881844.875</v>
       </c>
-      <c r="AX37" s="6">
+      <c r="BB37" s="6">
         <f t="shared" si="15"/>
         <v>3458213.85</v>
       </c>
-      <c r="AY37" s="6">
+      <c r="BC37" s="6">
         <f t="shared" si="15"/>
         <v>4149856.62</v>
       </c>
-      <c r="AZ37" s="6">
-        <f t="shared" ref="AZ37:BA37" si="16">AZ42</f>
+      <c r="BD37" s="6">
+        <f t="shared" ref="BD37:BE37" si="16">BD42</f>
         <v>4772335.1129999999</v>
       </c>
-      <c r="BA37" s="6">
+      <c r="BE37" s="6">
         <f t="shared" si="16"/>
         <v>5249568.6243000003</v>
       </c>
-      <c r="BB37" s="6">
-        <f t="shared" ref="BB37:BF37" si="17">BB42</f>
+      <c r="BF37" s="6">
+        <f t="shared" ref="BF37:BJ37" si="17">BF42</f>
         <v>5512047.0555150006</v>
       </c>
-      <c r="BC37" s="6">
+      <c r="BG37" s="6">
         <f t="shared" si="17"/>
         <v>5787649.4082907513</v>
       </c>
-      <c r="BD37" s="6">
+      <c r="BH37" s="6">
         <f t="shared" si="17"/>
         <v>6077031.8787052892</v>
       </c>
-      <c r="BE37" s="6">
+      <c r="BI37" s="6">
         <f t="shared" si="17"/>
         <v>6380883.4726405535</v>
       </c>
-      <c r="BF37" s="6">
+      <c r="BJ37" s="6">
         <f t="shared" si="17"/>
         <v>6699927.6462725811</v>
       </c>
     </row>
-    <row r="38" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
         <v>12</v>
       </c>
@@ -3108,7 +3279,7 @@
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5">
-        <f t="shared" ref="G38:AF38" si="18">G45*1000000/G37</f>
+        <f t="shared" ref="G38:AG38" si="18">G45*1000000/G37</f>
         <v>55681.619828940478</v>
       </c>
       <c r="H38" s="5">
@@ -3211,78 +3382,85 @@
         <f t="shared" si="18"/>
         <v>41098.921696752594</v>
       </c>
-      <c r="AG38" s="5"/>
+      <c r="AG38" s="5">
+        <f t="shared" si="18"/>
+        <v>40955.624533543618</v>
+      </c>
       <c r="AH38" s="5"/>
-      <c r="AP38" s="5">
-        <f t="shared" ref="AP38:AU38" si="19">AP45/AP37*1000000</f>
+      <c r="AI38" s="5"/>
+      <c r="AJ38" s="5"/>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="5"/>
+      <c r="AT38" s="5">
+        <f t="shared" ref="AT38:AY38" si="19">AT45/AT37*1000000</f>
         <v>54268.120199316756</v>
       </c>
-      <c r="AQ38" s="5">
+      <c r="AU38" s="5">
         <f t="shared" si="19"/>
         <v>51667.681998172404</v>
       </c>
-      <c r="AR38" s="5">
+      <c r="AV38" s="5">
         <f t="shared" si="19"/>
         <v>47144.612425877451</v>
       </c>
-      <c r="AS38" s="5">
+      <c r="AW38" s="5">
         <f t="shared" si="19"/>
         <v>51759.293862089384</v>
       </c>
-      <c r="AT38" s="5">
+      <c r="AX38" s="5">
         <f t="shared" si="19"/>
         <v>43409.169951470241</v>
       </c>
-      <c r="AU38" s="5">
+      <c r="AY38" s="5">
         <f t="shared" si="19"/>
         <v>40509.136352814006</v>
       </c>
-      <c r="AV38" s="4">
-        <f>AU38*1.03</f>
+      <c r="AZ38" s="4">
+        <f>AY38*1.03</f>
         <v>41724.410443398425</v>
       </c>
-      <c r="AW38" s="4">
-        <f>AV38*1.03</f>
+      <c r="BA38" s="4">
+        <f>AZ38*1.03</f>
         <v>42976.142756700378</v>
       </c>
-      <c r="AX38" s="4">
-        <f>AW38*1.03</f>
+      <c r="BB38" s="4">
+        <f>BA38*1.03</f>
         <v>44265.427039401387</v>
       </c>
-      <c r="AY38" s="4">
-        <f>AX38*1.03</f>
+      <c r="BC38" s="4">
+        <f>BB38*1.03</f>
         <v>45593.38985058343</v>
       </c>
-      <c r="AZ38" s="4">
-        <f t="shared" ref="AZ38:BA38" si="20">AY38*1.03</f>
+      <c r="BD38" s="4">
+        <f t="shared" ref="BD38:BE38" si="20">BC38*1.03</f>
         <v>46961.191546100934</v>
       </c>
-      <c r="BA38" s="4">
+      <c r="BE38" s="4">
         <f t="shared" si="20"/>
         <v>48370.027292483966</v>
       </c>
-      <c r="BB38" s="4">
-        <f t="shared" ref="BB38" si="21">BA38*1.03</f>
+      <c r="BF38" s="4">
+        <f t="shared" ref="BF38" si="21">BE38*1.03</f>
         <v>49821.128111258484</v>
       </c>
-      <c r="BC38" s="4">
-        <f t="shared" ref="BC38" si="22">BB38*1.03</f>
+      <c r="BG38" s="4">
+        <f t="shared" ref="BG38" si="22">BF38*1.03</f>
         <v>51315.761954596237</v>
       </c>
-      <c r="BD38" s="4">
-        <f t="shared" ref="BD38" si="23">BC38*1.03</f>
+      <c r="BH38" s="4">
+        <f t="shared" ref="BH38" si="23">BG38*1.03</f>
         <v>52855.234813234129</v>
       </c>
-      <c r="BE38" s="4">
-        <f t="shared" ref="BE38" si="24">BD38*1.03</f>
+      <c r="BI38" s="4">
+        <f t="shared" ref="BI38" si="24">BH38*1.03</f>
         <v>54440.891857631155</v>
       </c>
-      <c r="BF38" s="4">
-        <f t="shared" ref="BF38" si="25">BE38*1.03</f>
+      <c r="BJ38" s="4">
+        <f t="shared" ref="BJ38" si="25">BI38*1.03</f>
         <v>56074.118613360093</v>
       </c>
     </row>
-    <row r="39" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -3315,8 +3493,12 @@
       <c r="AF39" s="5"/>
       <c r="AG39" s="5"/>
       <c r="AH39" s="5"/>
-    </row>
-    <row r="40" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AI39" s="5"/>
+      <c r="AJ39" s="5"/>
+      <c r="AK39" s="5"/>
+      <c r="AL39" s="5"/>
+    </row>
+    <row r="40" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
         <v>13</v>
       </c>
@@ -3402,34 +3584,40 @@
       <c r="AF40" s="5">
         <v>13409</v>
       </c>
-      <c r="AG40" s="5"/>
+      <c r="AG40" s="5">
+        <v>11624</v>
+      </c>
       <c r="AH40" s="5"/>
-      <c r="AP40" s="4">
+      <c r="AI40" s="5"/>
+      <c r="AJ40" s="5"/>
+      <c r="AK40" s="5"/>
+      <c r="AL40" s="5"/>
+      <c r="AT40" s="4">
         <f>SUM(G40:J40)</f>
         <v>62931</v>
       </c>
-      <c r="AQ40" s="4">
+      <c r="AU40" s="4">
         <f>SUM(K40:N40)</f>
         <v>54805</v>
       </c>
-      <c r="AR40" s="4">
+      <c r="AV40" s="4">
         <f>SUM(O40:R40)</f>
         <v>24390</v>
       </c>
-      <c r="AS40" s="4">
+      <c r="AW40" s="4">
         <f>SUM(S40:V40)</f>
         <v>71177</v>
       </c>
-      <c r="AT40" s="4">
-        <f t="shared" ref="AT40:AT41" si="26">SUM(W40:Z40)</f>
+      <c r="AX40" s="4">
+        <f t="shared" ref="AX40:AX41" si="26">SUM(W40:Z40)</f>
         <v>70826</v>
       </c>
-      <c r="AU40" s="4">
-        <f t="shared" ref="AU40:AU41" si="27">SUM(AA40:AD40)</f>
+      <c r="AY40" s="4">
+        <f t="shared" ref="AY40:AY41" si="27">SUM(AA40:AD40)</f>
         <v>94105</v>
       </c>
     </row>
-    <row r="41" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
         <v>14</v>
       </c>
@@ -3515,34 +3703,40 @@
       <c r="AF41" s="5">
         <v>396835</v>
       </c>
-      <c r="AG41" s="5"/>
+      <c r="AG41" s="5">
+        <v>435826</v>
+      </c>
       <c r="AH41" s="5"/>
-      <c r="AP41" s="4">
+      <c r="AI41" s="5"/>
+      <c r="AJ41" s="5"/>
+      <c r="AK41" s="5"/>
+      <c r="AL41" s="5"/>
+      <c r="AT41" s="4">
         <f>SUM(G41:J41)</f>
         <v>302301</v>
       </c>
-      <c r="AQ41" s="4">
+      <c r="AU41" s="4">
         <f>SUM(K41:N41)</f>
         <v>454932</v>
       </c>
-      <c r="AR41" s="4">
+      <c r="AV41" s="4">
         <f>SUM(O41:R41)</f>
         <v>906032</v>
       </c>
-      <c r="AS41" s="4">
+      <c r="AW41" s="4">
         <f>SUM(S41:V41)</f>
         <v>1298434</v>
       </c>
-      <c r="AT41" s="4">
+      <c r="AX41" s="4">
         <f t="shared" si="26"/>
         <v>1775159</v>
       </c>
-      <c r="AU41" s="4">
+      <c r="AY41" s="4">
         <f t="shared" si="27"/>
         <v>1679338</v>
       </c>
     </row>
-    <row r="42" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:62" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B42" s="6" t="s">
         <v>15</v>
       </c>
@@ -3654,78 +3848,85 @@
         <f>+AF41+AF40</f>
         <v>410244</v>
       </c>
-      <c r="AG42" s="7"/>
+      <c r="AG42" s="7">
+        <f>+AG41+AG40</f>
+        <v>447450</v>
+      </c>
       <c r="AH42" s="7"/>
-      <c r="AP42" s="6">
-        <f>+AP40+AP41</f>
+      <c r="AI42" s="7"/>
+      <c r="AJ42" s="7"/>
+      <c r="AK42" s="7"/>
+      <c r="AL42" s="7"/>
+      <c r="AT42" s="6">
+        <f>+AT40+AT41</f>
         <v>365232</v>
       </c>
-      <c r="AQ42" s="6">
-        <f>+AQ40+AQ41</f>
+      <c r="AU42" s="6">
+        <f>+AU40+AU41</f>
         <v>509737</v>
       </c>
-      <c r="AR42" s="6">
-        <f>+AR40+AR41</f>
+      <c r="AV42" s="6">
+        <f>+AV40+AV41</f>
         <v>930422</v>
       </c>
-      <c r="AS42" s="6">
-        <f>+AS40+AS41</f>
+      <c r="AW42" s="6">
+        <f>+AW40+AW41</f>
         <v>1369611</v>
       </c>
-      <c r="AT42" s="6">
+      <c r="AX42" s="6">
         <f>SUM(W42:Z42)</f>
         <v>1845985</v>
       </c>
-      <c r="AU42" s="6">
-        <f>+AU40+AU41</f>
+      <c r="AY42" s="6">
+        <f>+AY40+AY41</f>
         <v>1773443</v>
       </c>
-      <c r="AV42" s="6">
-        <f>AU42*1.3</f>
+      <c r="AZ42" s="6">
+        <f>AY42*1.3</f>
         <v>2305475.9</v>
       </c>
-      <c r="AW42" s="6">
-        <f>AV42*1.25</f>
+      <c r="BA42" s="6">
+        <f>AZ42*1.25</f>
         <v>2881844.875</v>
       </c>
-      <c r="AX42" s="6">
-        <f>AW42*1.2</f>
+      <c r="BB42" s="6">
+        <f>BA42*1.2</f>
         <v>3458213.85</v>
       </c>
-      <c r="AY42" s="6">
-        <f>AX42*1.2</f>
+      <c r="BC42" s="6">
+        <f>BB42*1.2</f>
         <v>4149856.62</v>
       </c>
-      <c r="AZ42" s="6">
-        <f>AY42*1.15</f>
+      <c r="BD42" s="6">
+        <f>BC42*1.15</f>
         <v>4772335.1129999999</v>
       </c>
-      <c r="BA42" s="6">
-        <f>AZ42*1.1</f>
+      <c r="BE42" s="6">
+        <f>BD42*1.1</f>
         <v>5249568.6243000003</v>
       </c>
-      <c r="BB42" s="6">
-        <f>+BA42*1.05</f>
+      <c r="BF42" s="6">
+        <f>+BE42*1.05</f>
         <v>5512047.0555150006</v>
       </c>
-      <c r="BC42" s="6">
-        <f t="shared" ref="BC42:BF42" si="30">+BB42*1.05</f>
+      <c r="BG42" s="6">
+        <f t="shared" ref="BG42:BJ42" si="30">+BF42*1.05</f>
         <v>5787649.4082907513</v>
       </c>
-      <c r="BD42" s="6">
+      <c r="BH42" s="6">
         <f t="shared" si="30"/>
         <v>6077031.8787052892</v>
       </c>
-      <c r="BE42" s="6">
+      <c r="BI42" s="6">
         <f t="shared" si="30"/>
         <v>6380883.4726405535</v>
       </c>
-      <c r="BF42" s="6">
+      <c r="BJ42" s="6">
         <f t="shared" si="30"/>
         <v>6699927.6462725811</v>
       </c>
     </row>
-    <row r="43" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -3758,9 +3959,13 @@
       <c r="AF43" s="5"/>
       <c r="AG43" s="5"/>
       <c r="AH43" s="5"/>
-      <c r="AT43" s="26"/>
-    </row>
-    <row r="44" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AI43" s="5"/>
+      <c r="AJ43" s="5"/>
+      <c r="AK43" s="5"/>
+      <c r="AL43" s="5"/>
+      <c r="AX43" s="26"/>
+    </row>
+    <row r="44" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="40" t="s">
         <v>164</v>
       </c>
@@ -3796,57 +4001,61 @@
       <c r="AF44" s="5"/>
       <c r="AG44" s="5"/>
       <c r="AH44" s="5"/>
-      <c r="AT44" s="26"/>
-      <c r="AU44" s="4">
-        <f>+AU127-AT127</f>
+      <c r="AI44" s="5"/>
+      <c r="AJ44" s="5"/>
+      <c r="AK44" s="5"/>
+      <c r="AL44" s="5"/>
+      <c r="AX44" s="26"/>
+      <c r="AY44" s="4">
+        <f>+AY127-AX127</f>
         <v>516.65696000000003</v>
       </c>
-      <c r="AV44" s="4">
-        <f>+AV127-$AT$127</f>
+      <c r="AZ44" s="4">
+        <f>+AZ127-$AX$127</f>
         <v>1750.0091519999996</v>
       </c>
-      <c r="AW44" s="4">
-        <f t="shared" ref="AW44:BF44" si="31">+AW127-$AT$127</f>
+      <c r="BA44" s="4">
+        <f t="shared" ref="BA44:BJ44" si="31">+BA127-$AX$127</f>
         <v>3409.9517999999998</v>
       </c>
-      <c r="AX44" s="4">
+      <c r="BB44" s="4">
         <f t="shared" si="31"/>
         <v>5438.7705919999999</v>
       </c>
-      <c r="AY44" s="4">
+      <c r="BC44" s="4">
         <f t="shared" si="31"/>
         <v>8094.6788288000007</v>
       </c>
-      <c r="AZ44" s="4">
+      <c r="BD44" s="4">
         <f t="shared" si="31"/>
         <v>11016.177889280001</v>
       </c>
-      <c r="BA44" s="4">
+      <c r="BE44" s="4">
         <f t="shared" si="31"/>
         <v>13917.757637983999</v>
       </c>
-      <c r="BB44" s="4">
+      <c r="BF44" s="4">
         <f t="shared" si="31"/>
         <v>15114.659284324402</v>
       </c>
-      <c r="BC44" s="4">
+      <c r="BG44" s="4">
         <f t="shared" si="31"/>
         <v>16393.454201203884</v>
       </c>
-      <c r="BD44" s="4">
+      <c r="BH44" s="4">
         <f t="shared" si="31"/>
         <v>17759.339461560503</v>
       </c>
-      <c r="BE44" s="4">
+      <c r="BI44" s="4">
         <f t="shared" si="31"/>
         <v>19217.827112449773</v>
       </c>
-      <c r="BF44" s="4">
+      <c r="BJ44" s="4">
         <f t="shared" si="31"/>
         <v>20774.762679774063</v>
       </c>
     </row>
-    <row r="45" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
         <v>32</v>
       </c>
@@ -3937,78 +4146,84 @@
       <c r="AF45" s="5">
         <v>15787</v>
       </c>
-      <c r="AG45" s="5"/>
+      <c r="AG45" s="5">
+        <v>20359</v>
+      </c>
       <c r="AH45" s="5"/>
-      <c r="AP45" s="4">
-        <f t="shared" ref="AP45:AP50" si="32">SUM(G45:J45)</f>
+      <c r="AI45" s="5"/>
+      <c r="AJ45" s="5"/>
+      <c r="AK45" s="5"/>
+      <c r="AL45" s="5"/>
+      <c r="AT45" s="4">
+        <f t="shared" ref="AT45:AT50" si="32">SUM(G45:J45)</f>
         <v>19952</v>
       </c>
-      <c r="AQ45" s="4">
+      <c r="AU45" s="4">
         <f>SUM(K45:N45)</f>
         <v>25783</v>
       </c>
-      <c r="AR45" s="4">
+      <c r="AV45" s="4">
         <f>SUM(O45:R45)</f>
         <v>44125</v>
       </c>
-      <c r="AS45" s="39">
+      <c r="AW45" s="39">
         <f>SUM(S45:V45)</f>
         <v>68004</v>
       </c>
-      <c r="AT45" s="4">
+      <c r="AX45" s="4">
         <f>SUM(W45:Z45)</f>
         <v>78509</v>
       </c>
-      <c r="AU45" s="4">
+      <c r="AY45" s="4">
         <f>SUM(AA45:AD45)</f>
         <v>72480</v>
       </c>
-      <c r="AV45" s="4">
-        <f t="shared" ref="AV45:BA45" si="33">AV38*AV42/1000000</f>
+      <c r="AZ45" s="4">
+        <f t="shared" ref="AZ45:BE45" si="33">AZ38*AZ42/1000000</f>
         <v>96194.622718963379</v>
       </c>
-      <c r="AW45" s="4">
+      <c r="BA45" s="4">
         <f t="shared" si="33"/>
         <v>123850.57675066536</v>
       </c>
-      <c r="AX45" s="4">
+      <c r="BB45" s="4">
         <f t="shared" si="33"/>
         <v>153079.31286382239</v>
       </c>
-      <c r="AY45" s="4">
+      <c r="BC45" s="4">
         <f t="shared" si="33"/>
         <v>189206.03069968446</v>
       </c>
-      <c r="AZ45" s="4">
+      <c r="BD45" s="4">
         <f t="shared" si="33"/>
         <v>224114.54336377623</v>
       </c>
-      <c r="BA45" s="4">
+      <c r="BE45" s="4">
         <f t="shared" si="33"/>
         <v>253921.7776311585</v>
       </c>
-      <c r="BB45" s="4">
-        <f t="shared" ref="BB45:BF45" si="34">BB38*BB42/1000000</f>
+      <c r="BF45" s="4">
+        <f t="shared" ref="BF45:BJ45" si="34">BF38*BF42/1000000</f>
         <v>274616.40250809793</v>
       </c>
-      <c r="BC45" s="4">
+      <c r="BG45" s="4">
         <f t="shared" si="34"/>
         <v>296997.63931250793</v>
       </c>
-      <c r="BD45" s="4">
+      <c r="BH45" s="4">
         <f t="shared" si="34"/>
         <v>321202.94691647741</v>
       </c>
-      <c r="BE45" s="4">
+      <c r="BI45" s="4">
         <f t="shared" si="34"/>
         <v>347380.98709017033</v>
       </c>
-      <c r="BF45" s="4">
+      <c r="BJ45" s="4">
         <f t="shared" si="34"/>
         <v>375692.53753801924</v>
       </c>
     </row>
-    <row r="46" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
         <v>33</v>
       </c>
@@ -4095,34 +4310,40 @@
       <c r="AF46" s="5">
         <v>439</v>
       </c>
-      <c r="AG46" s="5"/>
+      <c r="AG46" s="5">
+        <v>417</v>
+      </c>
       <c r="AH46" s="5"/>
-      <c r="AP46" s="4">
+      <c r="AI46" s="5"/>
+      <c r="AJ46" s="5"/>
+      <c r="AK46" s="5"/>
+      <c r="AL46" s="5"/>
+      <c r="AT46" s="4">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AQ46" s="4">
+      <c r="AU46" s="4">
         <f>SUM(K46:N46)</f>
         <v>401</v>
       </c>
-      <c r="AR46" s="4">
-        <f t="shared" ref="AR46:AR52" si="36">SUM(O46:R46)</f>
+      <c r="AV46" s="4">
+        <f t="shared" ref="AV46:AV52" si="36">SUM(O46:R46)</f>
         <v>1465</v>
       </c>
-      <c r="AS46" s="4">
-        <f t="shared" ref="AR46:AS61" si="37">SUM(S46:V46)</f>
+      <c r="AW46" s="4">
+        <f>SUM(S46:V46)</f>
         <v>1748.6</v>
       </c>
-      <c r="AT46" s="4">
+      <c r="AX46" s="4">
         <f>SUM(W46:Z46)</f>
         <v>1790</v>
       </c>
-      <c r="AU46" s="4">
+      <c r="AY46" s="4">
         <f>SUM(AA46:AD46)</f>
         <v>2763</v>
       </c>
     </row>
-    <row r="47" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
         <v>34</v>
       </c>
@@ -4209,34 +4430,40 @@
       <c r="AF47" s="5">
         <v>435</v>
       </c>
-      <c r="AG47" s="5"/>
+      <c r="AG47" s="5">
+        <v>429</v>
+      </c>
       <c r="AH47" s="5"/>
-      <c r="AP47" s="4">
+      <c r="AI47" s="5"/>
+      <c r="AJ47" s="5"/>
+      <c r="AK47" s="5"/>
+      <c r="AL47" s="5"/>
+      <c r="AT47" s="4">
         <f t="shared" si="32"/>
         <v>869</v>
       </c>
-      <c r="AQ47" s="4">
+      <c r="AU47" s="4">
         <f>SUM(K47:N47)</f>
         <v>1052</v>
       </c>
-      <c r="AR47" s="4">
+      <c r="AV47" s="4">
         <f t="shared" si="36"/>
         <v>1642</v>
       </c>
-      <c r="AS47" s="4">
-        <f t="shared" si="37"/>
+      <c r="AW47" s="4">
+        <f>SUM(S47:V47)</f>
         <v>2756.2</v>
       </c>
-      <c r="AT47" s="4">
+      <c r="AX47" s="4">
         <f>SUM(W47:Z47)</f>
         <v>2120</v>
       </c>
-      <c r="AU47" s="4">
+      <c r="AY47" s="4">
         <f>SUM(AA47:AD47)</f>
         <v>1827</v>
       </c>
     </row>
-    <row r="48" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:62" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B48" s="6" t="s">
         <v>35</v>
       </c>
@@ -4245,51 +4472,51 @@
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7">
-        <f t="shared" ref="G48:K48" si="38">SUM(G45:G47)</f>
+        <f t="shared" ref="G48:K48" si="37">SUM(G45:G47)</f>
         <v>3724</v>
       </c>
       <c r="H48" s="7">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>5376</v>
       </c>
       <c r="I48" s="7">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>5353</v>
       </c>
       <c r="J48" s="7">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>6368</v>
       </c>
       <c r="K48" s="7">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>5132</v>
       </c>
       <c r="L48" s="7">
-        <f t="shared" ref="L48" si="39">SUM(L45:L47)</f>
+        <f t="shared" ref="L48" si="38">SUM(L45:L47)</f>
         <v>5179</v>
       </c>
       <c r="M48" s="7">
-        <f t="shared" ref="M48:R48" si="40">SUM(M45:M47)</f>
+        <f t="shared" ref="M48:R48" si="39">SUM(M45:M47)</f>
         <v>7611</v>
       </c>
       <c r="N48" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>9314</v>
       </c>
       <c r="O48" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>9002</v>
       </c>
       <c r="P48" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>10206</v>
       </c>
       <c r="Q48" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>12057</v>
       </c>
       <c r="R48" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>15967</v>
       </c>
       <c r="S48" s="7">
@@ -4305,31 +4532,31 @@
         <v>18692</v>
       </c>
       <c r="V48" s="7">
-        <f t="shared" ref="V48:AD48" si="41">SUM(V45:V47)</f>
+        <f t="shared" ref="V48:AD48" si="40">SUM(V45:V47)</f>
         <v>22353.8</v>
       </c>
       <c r="W48" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>19963</v>
       </c>
       <c r="X48" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>21268</v>
       </c>
       <c r="Y48" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>19625</v>
       </c>
       <c r="Z48" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>21563</v>
       </c>
       <c r="AA48" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>17378</v>
       </c>
       <c r="AB48" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>19878</v>
       </c>
       <c r="AC48" s="7">
@@ -4337,89 +4564,111 @@
         <v>20016</v>
       </c>
       <c r="AD48" s="7">
+        <f t="shared" si="40"/>
+        <v>19798</v>
+      </c>
+      <c r="AE48" s="7">
+        <f t="shared" ref="AE48:AL48" si="41">SUM(AE45:AE47)</f>
+        <v>13967</v>
+      </c>
+      <c r="AF48" s="7">
         <f t="shared" si="41"/>
-        <v>19798</v>
-      </c>
-      <c r="AE48" s="7">
-        <f t="shared" ref="AE48:AF48" si="42">SUM(AE45:AE47)</f>
-        <v>13967</v>
-      </c>
-      <c r="AF48" s="7">
-        <f t="shared" si="42"/>
         <v>16661</v>
       </c>
-      <c r="AG48" s="7"/>
-      <c r="AH48" s="7"/>
-      <c r="AP48" s="6">
-        <f>SUM(AP45:AP47)</f>
-        <v>20821</v>
-      </c>
-      <c r="AQ48" s="6">
-        <f>SUM(AQ45:AQ47)</f>
-        <v>27236</v>
-      </c>
-      <c r="AR48" s="6">
-        <f>SUM(AR45:AR47)</f>
-        <v>47232</v>
-      </c>
-      <c r="AS48" s="6">
-        <f>SUM(AS45:AS47)</f>
-        <v>72508.800000000003</v>
+      <c r="AG48" s="7">
+        <f t="shared" si="41"/>
+        <v>21205</v>
+      </c>
+      <c r="AH48" s="7">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AI48" s="7">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AJ48" s="7">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AK48" s="7">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AL48" s="7">
+        <f t="shared" si="41"/>
+        <v>0</v>
       </c>
       <c r="AT48" s="6">
         <f>SUM(AT45:AT47)</f>
+        <v>20821</v>
+      </c>
+      <c r="AU48" s="6">
+        <f>SUM(AU45:AU47)</f>
+        <v>27236</v>
+      </c>
+      <c r="AV48" s="6">
+        <f>SUM(AV45:AV47)</f>
+        <v>47232</v>
+      </c>
+      <c r="AW48" s="6">
+        <f>SUM(AW45:AW47)</f>
+        <v>72508.800000000003</v>
+      </c>
+      <c r="AX48" s="6">
+        <f>SUM(AX45:AX47)</f>
         <v>82419</v>
-      </c>
-      <c r="AU48" s="6">
-        <f>AU45+AU46+AU47</f>
-        <v>77070</v>
-      </c>
-      <c r="AV48" s="6">
-        <f>AV45+AV46+AV47</f>
-        <v>96194.622718963379</v>
-      </c>
-      <c r="AW48" s="6">
-        <f>AW45+AW46+AW47</f>
-        <v>123850.57675066536</v>
-      </c>
-      <c r="AX48" s="6">
-        <f>AX45+AX46+AX47</f>
-        <v>153079.31286382239</v>
       </c>
       <c r="AY48" s="6">
         <f>AY45+AY46+AY47</f>
+        <v>77070</v>
+      </c>
+      <c r="AZ48" s="6">
+        <f>AZ45+AZ46+AZ47</f>
+        <v>96194.622718963379</v>
+      </c>
+      <c r="BA48" s="6">
+        <f>BA45+BA46+BA47</f>
+        <v>123850.57675066536</v>
+      </c>
+      <c r="BB48" s="6">
+        <f>BB45+BB46+BB47</f>
+        <v>153079.31286382239</v>
+      </c>
+      <c r="BC48" s="6">
+        <f>BC45+BC46+BC47</f>
         <v>189206.03069968446</v>
       </c>
-      <c r="AZ48" s="6">
-        <f t="shared" ref="AZ48:BF48" si="43">AZ45+AZ46+AZ47</f>
+      <c r="BD48" s="6">
+        <f t="shared" ref="BD48:BJ48" si="42">BD45+BD46+BD47</f>
         <v>224114.54336377623</v>
       </c>
-      <c r="BA48" s="6">
-        <f t="shared" si="43"/>
+      <c r="BE48" s="6">
+        <f t="shared" si="42"/>
         <v>253921.7776311585</v>
       </c>
-      <c r="BB48" s="6">
-        <f t="shared" si="43"/>
+      <c r="BF48" s="6">
+        <f t="shared" si="42"/>
         <v>274616.40250809793</v>
       </c>
-      <c r="BC48" s="6">
-        <f t="shared" si="43"/>
+      <c r="BG48" s="6">
+        <f t="shared" si="42"/>
         <v>296997.63931250793</v>
       </c>
-      <c r="BD48" s="6">
-        <f t="shared" si="43"/>
+      <c r="BH48" s="6">
+        <f t="shared" si="42"/>
         <v>321202.94691647741</v>
       </c>
-      <c r="BE48" s="6">
-        <f t="shared" si="43"/>
+      <c r="BI48" s="6">
+        <f t="shared" si="42"/>
         <v>347380.98709017033</v>
       </c>
-      <c r="BF48" s="6">
-        <f t="shared" si="43"/>
+      <c r="BJ48" s="6">
+        <f t="shared" si="42"/>
         <v>375692.53753801924</v>
       </c>
     </row>
-    <row r="49" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:62" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
         <v>36</v>
       </c>
@@ -4473,7 +4722,7 @@
         <v>1117</v>
       </c>
       <c r="V49" s="5">
-        <f t="shared" ref="V49:V50" si="44">+R49*1.4</f>
+        <f t="shared" ref="V49:V50" si="43">+R49*1.4</f>
         <v>963.19999999999993</v>
       </c>
       <c r="W49" s="5">
@@ -4506,43 +4755,49 @@
       <c r="AF49" s="5">
         <v>2789</v>
       </c>
-      <c r="AG49" s="5"/>
+      <c r="AG49" s="5">
+        <v>3415</v>
+      </c>
       <c r="AH49" s="5"/>
-      <c r="AJ49" s="4">
+      <c r="AI49" s="5"/>
+      <c r="AJ49" s="5"/>
+      <c r="AK49" s="5"/>
+      <c r="AL49" s="5"/>
+      <c r="AN49" s="4">
         <v>1921.877</v>
       </c>
-      <c r="AK49" s="4">
+      <c r="AO49" s="4">
         <v>3007.0120000000002</v>
       </c>
-      <c r="AL49" s="4">
+      <c r="AP49" s="4">
         <v>3740.973</v>
       </c>
-      <c r="AP49" s="4">
+      <c r="AT49" s="4">
         <f t="shared" si="32"/>
         <v>1531</v>
       </c>
-      <c r="AQ49" s="4">
+      <c r="AU49" s="4">
         <f>SUM(K49:N49)</f>
         <v>1994</v>
       </c>
-      <c r="AR49" s="4">
+      <c r="AV49" s="4">
         <f>SUM(O49:R49)</f>
         <v>2789</v>
       </c>
-      <c r="AS49" s="4">
-        <f t="shared" si="37"/>
+      <c r="AW49" s="4">
+        <f>SUM(S49:V49)</f>
         <v>3562.2</v>
       </c>
-      <c r="AT49" s="4">
+      <c r="AX49" s="4">
         <f>SUM(W49:Z49)</f>
         <v>6035</v>
       </c>
-      <c r="AU49" s="4">
+      <c r="AY49" s="4">
         <f>SUM(AA49:AD49)</f>
         <v>10086</v>
       </c>
     </row>
-    <row r="50" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:62" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
         <v>37</v>
       </c>
@@ -4596,7 +4851,7 @@
         <v>1645</v>
       </c>
       <c r="V50" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>1489.6</v>
       </c>
       <c r="W50" s="5">
@@ -4629,43 +4884,49 @@
       <c r="AF50" s="5">
         <v>3046</v>
       </c>
-      <c r="AG50" s="5"/>
+      <c r="AG50" s="5">
+        <v>3475</v>
+      </c>
       <c r="AH50" s="5"/>
-      <c r="AJ50" s="4">
+      <c r="AI50" s="5"/>
+      <c r="AJ50" s="5"/>
+      <c r="AK50" s="5"/>
+      <c r="AL50" s="5"/>
+      <c r="AN50" s="4">
         <v>91.619</v>
       </c>
-      <c r="AK50" s="4">
+      <c r="AO50" s="4">
         <v>191.34399999999999</v>
       </c>
-      <c r="AL50" s="4">
+      <c r="AP50" s="4">
         <v>305.05200000000002</v>
       </c>
-      <c r="AP50" s="4">
+      <c r="AT50" s="4">
         <f t="shared" si="32"/>
         <v>2226</v>
       </c>
-      <c r="AQ50" s="4">
+      <c r="AU50" s="4">
         <f>SUM(K50:N50)</f>
         <v>2306</v>
       </c>
-      <c r="AR50" s="4">
+      <c r="AV50" s="4">
         <f t="shared" si="36"/>
         <v>3802</v>
       </c>
-      <c r="AS50" s="4">
-        <f t="shared" si="37"/>
+      <c r="AW50" s="4">
+        <f>SUM(S50:V50)</f>
         <v>5879.6</v>
       </c>
-      <c r="AT50" s="4">
+      <c r="AX50" s="4">
         <f>SUM(W50:Z50)</f>
         <v>8319</v>
       </c>
-      <c r="AU50" s="4">
+      <c r="AY50" s="4">
         <f>SUM(AA50:AD50)</f>
         <v>10534</v>
       </c>
     </row>
-    <row r="51" spans="2:58" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:62" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B51" s="6" t="s">
         <v>38</v>
       </c>
@@ -4674,51 +4935,51 @@
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7">
-        <f t="shared" ref="G51:K51" si="45">SUM(G48:G50)</f>
+        <f t="shared" ref="G51:K51" si="44">SUM(G48:G50)</f>
         <v>4541</v>
       </c>
       <c r="H51" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>6350</v>
       </c>
       <c r="I51" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>6303</v>
       </c>
       <c r="J51" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>7384</v>
       </c>
       <c r="K51" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>5985</v>
       </c>
       <c r="L51" s="7">
-        <f t="shared" ref="L51" si="46">SUM(L48:L50)</f>
+        <f t="shared" ref="L51" si="45">SUM(L48:L50)</f>
         <v>6036</v>
       </c>
       <c r="M51" s="7">
-        <f t="shared" ref="M51:R51" si="47">SUM(M48:M50)</f>
+        <f t="shared" ref="M51:R51" si="46">SUM(M48:M50)</f>
         <v>8771</v>
       </c>
       <c r="N51" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>10744</v>
       </c>
       <c r="O51" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>10389</v>
       </c>
       <c r="P51" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>11958</v>
       </c>
       <c r="Q51" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>13757</v>
       </c>
       <c r="R51" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>17719</v>
       </c>
       <c r="S51" s="7">
@@ -4734,31 +4995,31 @@
         <v>21454</v>
       </c>
       <c r="V51" s="7">
-        <f t="shared" ref="V51:AD51" si="48">SUM(V48:V50)</f>
+        <f t="shared" ref="V51:AD51" si="47">SUM(V48:V50)</f>
         <v>24806.6</v>
       </c>
       <c r="W51" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>23329</v>
       </c>
       <c r="X51" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>24927</v>
       </c>
       <c r="Y51" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>23350</v>
       </c>
       <c r="Z51" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>25167</v>
       </c>
       <c r="AA51" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>21301</v>
       </c>
       <c r="AB51" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>25500</v>
       </c>
       <c r="AC51" s="7">
@@ -4766,110 +5027,132 @@
         <v>25182</v>
       </c>
       <c r="AD51" s="7">
+        <f t="shared" si="47"/>
+        <v>25707</v>
+      </c>
+      <c r="AE51" s="7">
+        <f t="shared" ref="AE51:AL51" si="48">SUM(AE48:AE50)</f>
+        <v>19335</v>
+      </c>
+      <c r="AF51" s="7">
         <f t="shared" si="48"/>
-        <v>25707</v>
-      </c>
-      <c r="AE51" s="7">
-        <f t="shared" ref="AE51:AF51" si="49">SUM(AE48:AE50)</f>
-        <v>19335</v>
-      </c>
-      <c r="AF51" s="7">
+        <v>22496</v>
+      </c>
+      <c r="AG51" s="7">
+        <f t="shared" si="48"/>
+        <v>28095</v>
+      </c>
+      <c r="AH51" s="7">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AI51" s="7">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AJ51" s="7">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AK51" s="7">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AL51" s="7">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AN51" s="6">
+        <f>AN49+AN50</f>
+        <v>2013.4959999999999</v>
+      </c>
+      <c r="AO51" s="6">
+        <f>AO49+AO50</f>
+        <v>3198.3560000000002</v>
+      </c>
+      <c r="AP51" s="6">
+        <f>AP49+AP50</f>
+        <v>4046.0250000000001</v>
+      </c>
+      <c r="AQ51" s="6">
+        <v>7000.1319999999996</v>
+      </c>
+      <c r="AR51" s="6">
+        <v>11758.751</v>
+      </c>
+      <c r="AS51" s="6">
+        <v>21461.268</v>
+      </c>
+      <c r="AT51" s="6">
+        <f t="shared" ref="AT51:AW51" si="49">SUM(AT48:AT50)</f>
+        <v>24578</v>
+      </c>
+      <c r="AU51" s="6">
         <f t="shared" si="49"/>
-        <v>22496</v>
-      </c>
-      <c r="AG51" s="7"/>
-      <c r="AH51" s="7"/>
-      <c r="AJ51" s="6">
-        <f>AJ49+AJ50</f>
-        <v>2013.4959999999999</v>
-      </c>
-      <c r="AK51" s="6">
-        <f>AK49+AK50</f>
-        <v>3198.3560000000002</v>
-      </c>
-      <c r="AL51" s="6">
-        <f>AL49+AL50</f>
-        <v>4046.0250000000001</v>
-      </c>
-      <c r="AM51" s="6">
-        <v>7000.1319999999996</v>
-      </c>
-      <c r="AN51" s="6">
-        <v>11758.751</v>
-      </c>
-      <c r="AO51" s="6">
-        <v>21461.268</v>
-      </c>
-      <c r="AP51" s="6">
-        <f t="shared" ref="AP51:AS51" si="50">SUM(AP48:AP50)</f>
-        <v>24578</v>
-      </c>
-      <c r="AQ51" s="6">
+        <v>31536</v>
+      </c>
+      <c r="AV51" s="6">
+        <f t="shared" si="49"/>
+        <v>53823</v>
+      </c>
+      <c r="AW51" s="6">
+        <f t="shared" si="49"/>
+        <v>81950.600000000006</v>
+      </c>
+      <c r="AX51" s="6">
+        <f>SUM(AX48:AX50)</f>
+        <v>96773</v>
+      </c>
+      <c r="AY51" s="6">
+        <f>SUM(AY48:AY50)+AY44</f>
+        <v>98206.656959999993</v>
+      </c>
+      <c r="AZ51" s="6">
+        <f>SUM(AZ48:AZ50)+AZ44</f>
+        <v>97944.631870963378</v>
+      </c>
+      <c r="BA51" s="6">
+        <f>SUM(BA48:BA50)+BA44</f>
+        <v>127260.52855066536</v>
+      </c>
+      <c r="BB51" s="6">
+        <f t="shared" ref="BB51:BE51" si="50">SUM(BB48:BB50)+BB44</f>
+        <v>158518.08345582237</v>
+      </c>
+      <c r="BC51" s="6">
         <f t="shared" si="50"/>
-        <v>31536</v>
-      </c>
-      <c r="AR51" s="6">
+        <v>197300.70952848447</v>
+      </c>
+      <c r="BD51" s="6">
         <f t="shared" si="50"/>
-        <v>53823</v>
-      </c>
-      <c r="AS51" s="6">
+        <v>235130.72125305622</v>
+      </c>
+      <c r="BE51" s="6">
         <f t="shared" si="50"/>
-        <v>81950.600000000006</v>
-      </c>
-      <c r="AT51" s="6">
-        <f>SUM(AT48:AT50)</f>
-        <v>96773</v>
-      </c>
-      <c r="AU51" s="6">
-        <f>SUM(AU48:AU50)+AU44</f>
-        <v>98206.656959999993</v>
-      </c>
-      <c r="AV51" s="6">
-        <f>SUM(AV48:AV50)+AV44</f>
-        <v>97944.631870963378</v>
-      </c>
-      <c r="AW51" s="6">
-        <f>SUM(AW48:AW50)+AW44</f>
-        <v>127260.52855066536</v>
-      </c>
-      <c r="AX51" s="6">
-        <f t="shared" ref="AX51:BA51" si="51">SUM(AX48:AX50)+AX44</f>
-        <v>158518.08345582237</v>
-      </c>
-      <c r="AY51" s="6">
-        <f t="shared" si="51"/>
-        <v>197300.70952848447</v>
-      </c>
-      <c r="AZ51" s="6">
-        <f t="shared" si="51"/>
-        <v>235130.72125305622</v>
-      </c>
-      <c r="BA51" s="6">
-        <f t="shared" si="51"/>
         <v>267839.53526914248</v>
       </c>
-      <c r="BB51" s="6">
-        <f t="shared" ref="BB51" si="52">SUM(BB48:BB50)+BB44</f>
+      <c r="BF51" s="6">
+        <f t="shared" ref="BF51" si="51">SUM(BF48:BF50)+BF44</f>
         <v>289731.06179242232</v>
       </c>
-      <c r="BC51" s="6">
-        <f t="shared" ref="BC51" si="53">SUM(BC48:BC50)+BC44</f>
+      <c r="BG51" s="6">
+        <f t="shared" ref="BG51" si="52">SUM(BG48:BG50)+BG44</f>
         <v>313391.09351371182</v>
       </c>
-      <c r="BD51" s="6">
-        <f t="shared" ref="BD51" si="54">SUM(BD48:BD50)+BD44</f>
+      <c r="BH51" s="6">
+        <f t="shared" ref="BH51" si="53">SUM(BH48:BH50)+BH44</f>
         <v>338962.28637803788</v>
       </c>
-      <c r="BE51" s="6">
-        <f t="shared" ref="BE51" si="55">SUM(BE48:BE50)+BE44</f>
+      <c r="BI51" s="6">
+        <f t="shared" ref="BI51" si="54">SUM(BI48:BI50)+BI44</f>
         <v>366598.81420262012</v>
       </c>
-      <c r="BF51" s="6">
-        <f t="shared" ref="BF51" si="56">SUM(BF48:BF50)+BF44</f>
+      <c r="BJ51" s="6">
+        <f t="shared" ref="BJ51" si="55">SUM(BJ48:BJ50)+BJ44</f>
         <v>396467.30021779332</v>
       </c>
     </row>
-    <row r="52" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:62" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>39</v>
       </c>
@@ -4955,73 +5238,79 @@
       <c r="AF52" s="5">
         <v>13567</v>
       </c>
-      <c r="AG52" s="5"/>
+      <c r="AG52" s="5">
+        <v>17365</v>
+      </c>
       <c r="AH52" s="5"/>
-      <c r="AJ52" s="4">
+      <c r="AI52" s="5"/>
+      <c r="AJ52" s="5"/>
+      <c r="AK52" s="5"/>
+      <c r="AL52" s="5"/>
+      <c r="AN52" s="4">
         <v>1483.3209999999999</v>
       </c>
-      <c r="AR52" s="4">
+      <c r="AV52" s="4">
         <f t="shared" si="36"/>
         <v>32415</v>
       </c>
-      <c r="AS52" s="4">
-        <f t="shared" si="37"/>
+      <c r="AW52" s="4">
+        <f>SUM(S52:V52)</f>
         <v>49599</v>
       </c>
-      <c r="AT52" s="4">
-        <f t="shared" ref="AT52:AT66" si="57">SUM(W52:Z52)</f>
+      <c r="AX52" s="4">
+        <f t="shared" ref="AX52:AX66" si="56">SUM(W52:Z52)</f>
         <v>65121</v>
       </c>
-      <c r="AU52" s="4">
-        <f t="shared" ref="AU52:AU59" si="58">SUM(AA52:AD52)</f>
+      <c r="AY52" s="4">
+        <f t="shared" ref="AY52:AY59" si="57">SUM(AA52:AD52)</f>
         <v>61870</v>
       </c>
-      <c r="AV52" s="4">
-        <f>AV45*0.8</f>
+      <c r="AZ52" s="4">
+        <f>AZ45*0.8</f>
         <v>76955.698175170706</v>
       </c>
-      <c r="AW52" s="4">
-        <f>AW45*0.79</f>
+      <c r="BA52" s="4">
+        <f>BA45*0.79</f>
         <v>97841.955633025646</v>
       </c>
-      <c r="AX52" s="4">
-        <f>AX51*0.78</f>
+      <c r="BB52" s="4">
+        <f>BB51*0.78</f>
         <v>123644.10509554145</v>
       </c>
-      <c r="AY52" s="4">
-        <f>AY51*0.77</f>
+      <c r="BC52" s="4">
+        <f>BC51*0.77</f>
         <v>151921.54633693304</v>
       </c>
-      <c r="AZ52" s="4">
-        <f>AZ51*0.76</f>
+      <c r="BD52" s="4">
+        <f>BD51*0.76</f>
         <v>178699.34815232272</v>
       </c>
-      <c r="BA52" s="4">
-        <f>BA51*0.75</f>
+      <c r="BE52" s="4">
+        <f>BE51*0.75</f>
         <v>200879.65145185686</v>
       </c>
-      <c r="BB52" s="4">
-        <f t="shared" ref="BB52:BF52" si="59">BB51*0.75</f>
+      <c r="BF52" s="4">
+        <f t="shared" ref="BF52:BJ52" si="58">BF51*0.75</f>
         <v>217298.29634431674</v>
       </c>
-      <c r="BC52" s="4">
-        <f t="shared" si="59"/>
+      <c r="BG52" s="4">
+        <f t="shared" si="58"/>
         <v>235043.32013528387</v>
       </c>
-      <c r="BD52" s="4">
-        <f t="shared" si="59"/>
+      <c r="BH52" s="4">
+        <f t="shared" si="58"/>
         <v>254221.71478352841</v>
       </c>
-      <c r="BE52" s="4">
-        <f t="shared" si="59"/>
+      <c r="BI52" s="4">
+        <f t="shared" si="58"/>
         <v>274949.11065196508</v>
       </c>
-      <c r="BF52" s="4">
-        <f t="shared" si="59"/>
+      <c r="BJ52" s="4">
+        <f t="shared" si="58"/>
         <v>297350.47516334499</v>
       </c>
     </row>
-    <row r="53" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:62" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>40</v>
       </c>
@@ -5030,51 +5319,51 @@
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5">
-        <f t="shared" ref="G53:N53" si="60">G45-G52</f>
+        <f t="shared" ref="G53:N53" si="59">G45-G52</f>
         <v>653</v>
       </c>
       <c r="H53" s="5">
+        <f t="shared" si="59"/>
+        <v>914</v>
+      </c>
+      <c r="I53" s="5">
+        <f t="shared" si="59"/>
+        <v>1118</v>
+      </c>
+      <c r="J53" s="5">
+        <f t="shared" si="59"/>
+        <v>1328</v>
+      </c>
+      <c r="K53" s="5">
+        <f t="shared" si="59"/>
+        <v>1194</v>
+      </c>
+      <c r="L53" s="5">
+        <f t="shared" si="59"/>
+        <v>1197</v>
+      </c>
+      <c r="M53" s="5">
+        <f t="shared" si="59"/>
+        <v>1985</v>
+      </c>
+      <c r="N53" s="5">
+        <f t="shared" si="59"/>
+        <v>1711</v>
+      </c>
+      <c r="O53" s="5">
+        <f t="shared" ref="O53:R53" si="60">O45-O52</f>
+        <v>1730</v>
+      </c>
+      <c r="P53" s="5">
         <f t="shared" si="60"/>
-        <v>914</v>
-      </c>
-      <c r="I53" s="5">
+        <v>2401</v>
+      </c>
+      <c r="Q53" s="5">
         <f t="shared" si="60"/>
-        <v>1118</v>
-      </c>
-      <c r="J53" s="5">
+        <v>3243</v>
+      </c>
+      <c r="R53" s="5">
         <f t="shared" si="60"/>
-        <v>1328</v>
-      </c>
-      <c r="K53" s="5">
-        <f t="shared" si="60"/>
-        <v>1194</v>
-      </c>
-      <c r="L53" s="5">
-        <f t="shared" si="60"/>
-        <v>1197</v>
-      </c>
-      <c r="M53" s="5">
-        <f t="shared" si="60"/>
-        <v>1985</v>
-      </c>
-      <c r="N53" s="5">
-        <f t="shared" si="60"/>
-        <v>1711</v>
-      </c>
-      <c r="O53" s="5">
-        <f t="shared" ref="O53:R53" si="61">O45-O52</f>
-        <v>1730</v>
-      </c>
-      <c r="P53" s="5">
-        <f t="shared" si="61"/>
-        <v>2401</v>
-      </c>
-      <c r="Q53" s="5">
-        <f t="shared" si="61"/>
-        <v>3243</v>
-      </c>
-      <c r="R53" s="5">
-        <f t="shared" si="61"/>
         <v>4336</v>
       </c>
       <c r="S53" s="5">
@@ -5090,7 +5379,7 @@
         <v>4686</v>
       </c>
       <c r="V53" s="5">
-        <f t="shared" ref="V53:Z53" si="62">V45-V52</f>
+        <f t="shared" ref="V53:Z53" si="61">V45-V52</f>
         <v>5602</v>
       </c>
       <c r="W53" s="5">
@@ -5098,61 +5387,68 @@
         <v>3456</v>
       </c>
       <c r="X53" s="5">
+        <f t="shared" si="61"/>
+        <v>3578</v>
+      </c>
+      <c r="Y53" s="5">
+        <f t="shared" si="61"/>
+        <v>2926</v>
+      </c>
+      <c r="Z53" s="5">
+        <f t="shared" si="61"/>
+        <v>3428</v>
+      </c>
+      <c r="AA53" s="5">
+        <f t="shared" ref="AA53:AG53" si="62">AA45-AA52</f>
+        <v>2563</v>
+      </c>
+      <c r="AB53" s="5">
         <f t="shared" si="62"/>
-        <v>3578</v>
-      </c>
-      <c r="Y53" s="5">
+        <v>2568</v>
+      </c>
+      <c r="AC53" s="5">
         <f t="shared" si="62"/>
-        <v>2926</v>
-      </c>
-      <c r="Z53" s="5">
+        <v>3088</v>
+      </c>
+      <c r="AD53" s="5">
         <f t="shared" si="62"/>
-        <v>3428</v>
-      </c>
-      <c r="AA53" s="5">
-        <f>AA45-AA52</f>
-        <v>2563</v>
-      </c>
-      <c r="AB53" s="5">
-        <f>AB45-AB52</f>
-        <v>2568</v>
-      </c>
-      <c r="AC53" s="5">
-        <f>AC45-AC52</f>
-        <v>3088</v>
-      </c>
-      <c r="AD53" s="5">
-        <f>AD45-AD52</f>
         <v>2391</v>
       </c>
       <c r="AE53" s="5">
-        <f>AE45-AE52</f>
+        <f t="shared" si="62"/>
         <v>1464</v>
       </c>
       <c r="AF53" s="5">
-        <f>AF45-AF52</f>
+        <f t="shared" si="62"/>
         <v>2220</v>
       </c>
-      <c r="AG53" s="5"/>
+      <c r="AG53" s="5">
+        <f t="shared" si="62"/>
+        <v>2994</v>
+      </c>
       <c r="AH53" s="5"/>
-      <c r="AR53" s="4">
-        <f t="shared" si="37"/>
+      <c r="AI53" s="5"/>
+      <c r="AJ53" s="5"/>
+      <c r="AK53" s="5"/>
+      <c r="AL53" s="5"/>
+      <c r="AV53" s="4">
+        <f>SUM(R53:U53)</f>
         <v>17139</v>
       </c>
-      <c r="AS53" s="4">
-        <f t="shared" si="37"/>
+      <c r="AW53" s="4">
+        <f>SUM(S53:V53)</f>
         <v>18405</v>
       </c>
-      <c r="AT53" s="4">
+      <c r="AX53" s="4">
+        <f t="shared" si="56"/>
+        <v>13388</v>
+      </c>
+      <c r="AY53" s="4">
         <f t="shared" si="57"/>
-        <v>13388</v>
-      </c>
-      <c r="AU53" s="4">
-        <f t="shared" si="58"/>
         <v>10610</v>
       </c>
     </row>
-    <row r="54" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:62" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="29" t="s">
         <v>116</v>
       </c>
@@ -5188,12 +5484,16 @@
       <c r="AF54" s="5"/>
       <c r="AG54" s="5"/>
       <c r="AH54" s="5"/>
-      <c r="AU54" s="4">
-        <f t="shared" si="58"/>
+      <c r="AI54" s="5"/>
+      <c r="AJ54" s="5"/>
+      <c r="AK54" s="5"/>
+      <c r="AL54" s="5"/>
+      <c r="AY54" s="4">
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:62" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
         <v>41</v>
       </c>
@@ -5279,22 +5579,28 @@
       <c r="AF55" s="5">
         <v>228</v>
       </c>
-      <c r="AG55" s="5"/>
+      <c r="AG55" s="5">
+        <v>225</v>
+      </c>
       <c r="AH55" s="5"/>
-      <c r="AS55" s="4">
-        <f t="shared" si="37"/>
+      <c r="AI55" s="5"/>
+      <c r="AJ55" s="5"/>
+      <c r="AK55" s="5"/>
+      <c r="AL55" s="5"/>
+      <c r="AW55" s="4">
+        <f>SUM(S55:V55)</f>
         <v>1510</v>
       </c>
-      <c r="AT55" s="4">
+      <c r="AX55" s="4">
+        <f t="shared" si="56"/>
+        <v>1268</v>
+      </c>
+      <c r="AY55" s="4">
         <f t="shared" si="57"/>
-        <v>1268</v>
-      </c>
-      <c r="AU55" s="4">
-        <f t="shared" si="58"/>
         <v>1003</v>
       </c>
     </row>
-    <row r="56" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:62" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
         <v>42</v>
       </c>
@@ -5399,73 +5705,80 @@
         <v>3288</v>
       </c>
       <c r="AE56" s="5">
-        <f t="shared" ref="AE56:AF56" si="68">AE48-AE55-AE52</f>
+        <f t="shared" ref="AE56:AG56" si="68">AE48-AE55-AE52</f>
         <v>2267</v>
       </c>
       <c r="AF56" s="5">
         <f t="shared" si="68"/>
         <v>2866</v>
       </c>
-      <c r="AG56" s="5"/>
+      <c r="AG56" s="5">
+        <f t="shared" si="68"/>
+        <v>3615</v>
+      </c>
       <c r="AH56" s="5"/>
-      <c r="AS56" s="4">
-        <f t="shared" si="37"/>
+      <c r="AI56" s="5"/>
+      <c r="AJ56" s="5"/>
+      <c r="AK56" s="5"/>
+      <c r="AL56" s="5"/>
+      <c r="AW56" s="4">
+        <f>SUM(S56:V56)</f>
         <v>21399.8</v>
       </c>
-      <c r="AT56" s="4">
+      <c r="AX56" s="4">
         <f>SUM(W56:Z56)</f>
         <v>16030</v>
       </c>
-      <c r="AU56" s="4">
-        <f t="shared" si="58"/>
+      <c r="AY56" s="4">
+        <f t="shared" si="57"/>
         <v>14197</v>
       </c>
-      <c r="AV56" s="4">
-        <f>AV51-AV52</f>
+      <c r="AZ56" s="4">
+        <f>AZ51-AZ52</f>
         <v>20988.933695792672</v>
       </c>
-      <c r="AW56" s="4">
-        <f t="shared" ref="AW56:BF56" si="69">AW51-AW52</f>
+      <c r="BA56" s="4">
+        <f t="shared" ref="BA56:BJ56" si="69">BA51-BA52</f>
         <v>29418.572917639714</v>
       </c>
-      <c r="AX56" s="4">
+      <c r="BB56" s="4">
         <f t="shared" si="69"/>
         <v>34873.978360280918</v>
       </c>
-      <c r="AY56" s="4">
+      <c r="BC56" s="4">
         <f t="shared" si="69"/>
         <v>45379.16319155143</v>
       </c>
-      <c r="AZ56" s="4">
+      <c r="BD56" s="4">
         <f t="shared" si="69"/>
         <v>56431.373100733501</v>
       </c>
-      <c r="BA56" s="4">
+      <c r="BE56" s="4">
         <f t="shared" si="69"/>
         <v>66959.883817285619</v>
       </c>
-      <c r="BB56" s="4">
+      <c r="BF56" s="4">
         <f t="shared" si="69"/>
         <v>72432.76544810558</v>
       </c>
-      <c r="BC56" s="4">
+      <c r="BG56" s="4">
         <f t="shared" si="69"/>
         <v>78347.773378427955</v>
       </c>
-      <c r="BD56" s="4">
+      <c r="BH56" s="4">
         <f t="shared" si="69"/>
         <v>84740.571594509471</v>
       </c>
-      <c r="BE56" s="4">
+      <c r="BI56" s="4">
         <f t="shared" si="69"/>
         <v>91649.703550655046</v>
       </c>
-      <c r="BF56" s="4">
+      <c r="BJ56" s="4">
         <f t="shared" si="69"/>
         <v>99116.825054448331</v>
       </c>
     </row>
-    <row r="57" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:62" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
         <v>43</v>
       </c>
@@ -5551,22 +5864,28 @@
       <c r="AF57" s="5">
         <v>1943</v>
       </c>
-      <c r="AG57" s="5"/>
+      <c r="AG57" s="5">
+        <v>2342</v>
+      </c>
       <c r="AH57" s="5"/>
-      <c r="AS57" s="4">
-        <f t="shared" si="37"/>
+      <c r="AI57" s="5"/>
+      <c r="AJ57" s="5"/>
+      <c r="AK57" s="5"/>
+      <c r="AL57" s="5"/>
+      <c r="AW57" s="4">
+        <f>SUM(S57:V57)</f>
         <v>3621</v>
       </c>
-      <c r="AT57" s="4">
+      <c r="AX57" s="4">
+        <f t="shared" si="56"/>
+        <v>4894</v>
+      </c>
+      <c r="AY57" s="4">
         <f t="shared" si="57"/>
-        <v>4894</v>
-      </c>
-      <c r="AU57" s="4">
-        <f t="shared" si="58"/>
         <v>7446</v>
       </c>
     </row>
-    <row r="58" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:62" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
         <v>44</v>
       </c>
@@ -5652,22 +5971,28 @@
       <c r="AF58" s="5">
         <v>2880</v>
       </c>
-      <c r="AG58" s="5"/>
+      <c r="AG58" s="5">
+        <v>3109</v>
+      </c>
       <c r="AH58" s="5"/>
-      <c r="AS58" s="4">
-        <f t="shared" si="37"/>
+      <c r="AI58" s="5"/>
+      <c r="AJ58" s="5"/>
+      <c r="AK58" s="5"/>
+      <c r="AL58" s="5"/>
+      <c r="AW58" s="4">
+        <f>SUM(S58:V58)</f>
         <v>5880</v>
       </c>
-      <c r="AT58" s="4">
+      <c r="AX58" s="4">
+        <f t="shared" si="56"/>
+        <v>7830</v>
+      </c>
+      <c r="AY58" s="4">
         <f t="shared" si="57"/>
-        <v>7830</v>
-      </c>
-      <c r="AU58" s="4">
-        <f t="shared" si="58"/>
         <v>9921</v>
       </c>
     </row>
-    <row r="59" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:62" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="4" t="s">
         <v>45</v>
       </c>
@@ -5772,73 +6097,80 @@
         <v>4179</v>
       </c>
       <c r="AE59" s="5">
-        <f t="shared" ref="AE59:AF59" si="74">AE56+AE49+AE50-AE57-AE58</f>
+        <f t="shared" ref="AE59:AG59" si="74">AE56+AE49+AE50-AE57-AE58</f>
         <v>3153</v>
       </c>
       <c r="AF59" s="5">
         <f t="shared" si="74"/>
         <v>3878</v>
       </c>
-      <c r="AG59" s="5"/>
+      <c r="AG59" s="5">
+        <f t="shared" si="74"/>
+        <v>5054</v>
+      </c>
       <c r="AH59" s="5"/>
-      <c r="AS59" s="5">
-        <f t="shared" ref="AS59" si="75">+AS51*0.25</f>
+      <c r="AI59" s="5"/>
+      <c r="AJ59" s="5"/>
+      <c r="AK59" s="5"/>
+      <c r="AL59" s="5"/>
+      <c r="AW59" s="5">
+        <f t="shared" ref="AW59" si="75">+AW51*0.25</f>
         <v>20487.650000000001</v>
       </c>
-      <c r="AT59" s="4">
+      <c r="AX59" s="4">
+        <f t="shared" si="56"/>
+        <v>17660</v>
+      </c>
+      <c r="AY59" s="4">
         <f t="shared" si="57"/>
-        <v>17660</v>
-      </c>
-      <c r="AU59" s="4">
-        <f t="shared" si="58"/>
         <v>17450</v>
       </c>
-      <c r="AV59" s="4">
-        <f>+AV56+AV44</f>
+      <c r="AZ59" s="4">
+        <f>+AZ56+AZ44</f>
         <v>22738.94284779267</v>
       </c>
-      <c r="AW59" s="4">
-        <f t="shared" ref="AW59:BF59" si="76">+AW56+AW44</f>
+      <c r="BA59" s="4">
+        <f t="shared" ref="BA59:BJ59" si="76">+BA56+BA44</f>
         <v>32828.524717639717</v>
       </c>
-      <c r="AX59" s="4">
+      <c r="BB59" s="4">
         <f t="shared" si="76"/>
         <v>40312.748952280919</v>
       </c>
-      <c r="AY59" s="4">
+      <c r="BC59" s="4">
         <f t="shared" si="76"/>
         <v>53473.842020351432</v>
       </c>
-      <c r="AZ59" s="4">
+      <c r="BD59" s="4">
         <f t="shared" si="76"/>
         <v>67447.550990013508</v>
       </c>
-      <c r="BA59" s="4">
+      <c r="BE59" s="4">
         <f t="shared" si="76"/>
         <v>80877.641455269622</v>
       </c>
-      <c r="BB59" s="4">
+      <c r="BF59" s="4">
         <f t="shared" si="76"/>
         <v>87547.424732429979</v>
       </c>
-      <c r="BC59" s="4">
+      <c r="BG59" s="4">
         <f t="shared" si="76"/>
         <v>94741.227579631843</v>
       </c>
-      <c r="BD59" s="4">
+      <c r="BH59" s="4">
         <f t="shared" si="76"/>
         <v>102499.91105606998</v>
       </c>
-      <c r="BE59" s="4">
+      <c r="BI59" s="4">
         <f t="shared" si="76"/>
         <v>110867.53066310482</v>
       </c>
-      <c r="BF59" s="4">
+      <c r="BJ59" s="4">
         <f t="shared" si="76"/>
         <v>119891.5877342224</v>
       </c>
     </row>
-    <row r="60" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:62" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="4" t="s">
         <v>46</v>
       </c>
@@ -5921,67 +6253,75 @@
       <c r="AE60" s="5">
         <v>1409</v>
       </c>
-      <c r="AF60" s="5"/>
-      <c r="AG60" s="5"/>
+      <c r="AF60" s="5">
+        <v>1589</v>
+      </c>
+      <c r="AG60" s="5">
+        <v>1630</v>
+      </c>
       <c r="AH60" s="5"/>
-      <c r="AS60" s="4">
-        <f t="shared" si="37"/>
+      <c r="AI60" s="5"/>
+      <c r="AJ60" s="5"/>
+      <c r="AK60" s="5"/>
+      <c r="AL60" s="5"/>
+      <c r="AW60" s="4">
+        <f>SUM(S60:V60)</f>
         <v>3075</v>
       </c>
-      <c r="AT60" s="4">
+      <c r="AX60" s="4">
         <f>SUM(W60:Z60)</f>
         <v>3969</v>
       </c>
-      <c r="AU60" s="4">
-        <f t="shared" ref="AU60:AU61" si="77">SUM(AA60:AD60)</f>
+      <c r="AY60" s="4">
+        <f t="shared" ref="AY60:AY61" si="77">SUM(AA60:AD60)</f>
         <v>4540</v>
       </c>
-      <c r="AV60" s="4">
-        <f>AU60*1.04</f>
+      <c r="AZ60" s="4">
+        <f>AY60*1.04</f>
         <v>4721.6000000000004</v>
       </c>
-      <c r="AW60" s="4">
-        <f t="shared" ref="AW60:BA60" si="78">AV60*1.04</f>
+      <c r="BA60" s="4">
+        <f t="shared" ref="BA60:BE60" si="78">AZ60*1.04</f>
         <v>4910.4640000000009</v>
       </c>
-      <c r="AX60" s="4">
+      <c r="BB60" s="4">
         <f t="shared" si="78"/>
         <v>5106.8825600000009</v>
       </c>
-      <c r="AY60" s="4">
+      <c r="BC60" s="4">
         <f t="shared" si="78"/>
         <v>5311.1578624000012</v>
       </c>
-      <c r="AZ60" s="4">
+      <c r="BD60" s="4">
         <f t="shared" si="78"/>
         <v>5523.6041768960013</v>
       </c>
-      <c r="BA60" s="4">
+      <c r="BE60" s="4">
         <f t="shared" si="78"/>
         <v>5744.5483439718419</v>
       </c>
-      <c r="BB60" s="4">
-        <f t="shared" ref="BB60:BF60" si="79">BA60*1.04</f>
+      <c r="BF60" s="4">
+        <f t="shared" ref="BF60:BJ60" si="79">BE60*1.04</f>
         <v>5974.3302777307154</v>
       </c>
-      <c r="BC60" s="4">
+      <c r="BG60" s="4">
         <f t="shared" si="79"/>
         <v>6213.3034888399443</v>
       </c>
-      <c r="BD60" s="4">
+      <c r="BH60" s="4">
         <f t="shared" si="79"/>
         <v>6461.8356283935427</v>
       </c>
-      <c r="BE60" s="4">
+      <c r="BI60" s="4">
         <f t="shared" si="79"/>
         <v>6720.3090535292849</v>
       </c>
-      <c r="BF60" s="4">
+      <c r="BJ60" s="4">
         <f t="shared" si="79"/>
         <v>6989.1214156704564</v>
       </c>
     </row>
-    <row r="61" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:62" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="4" t="s">
         <v>47</v>
       </c>
@@ -6065,67 +6405,75 @@
       <c r="AE61" s="5">
         <v>1251</v>
       </c>
-      <c r="AF61" s="5"/>
-      <c r="AG61" s="5"/>
+      <c r="AF61" s="5">
+        <v>1366</v>
+      </c>
+      <c r="AG61" s="5">
+        <v>1562</v>
+      </c>
       <c r="AH61" s="5"/>
-      <c r="AS61" s="4">
-        <f t="shared" si="37"/>
+      <c r="AI61" s="5"/>
+      <c r="AJ61" s="5"/>
+      <c r="AK61" s="5"/>
+      <c r="AL61" s="5"/>
+      <c r="AW61" s="4">
+        <f>SUM(S61:V61)</f>
         <v>4706.8</v>
       </c>
-      <c r="AT61" s="4">
-        <f t="shared" si="57"/>
+      <c r="AX61" s="4">
+        <f t="shared" si="56"/>
         <v>4800</v>
       </c>
-      <c r="AU61" s="4">
+      <c r="AY61" s="4">
         <f t="shared" si="77"/>
         <v>5150</v>
       </c>
-      <c r="AV61" s="4">
-        <f>AU61*1.04</f>
+      <c r="AZ61" s="4">
+        <f>AY61*1.04</f>
         <v>5356</v>
       </c>
-      <c r="AW61" s="4">
-        <f t="shared" ref="AW61:BA61" si="80">AV61*1.04</f>
+      <c r="BA61" s="4">
+        <f t="shared" ref="BA61:BE61" si="80">AZ61*1.04</f>
         <v>5570.24</v>
       </c>
-      <c r="AX61" s="4">
+      <c r="BB61" s="4">
         <f t="shared" si="80"/>
         <v>5793.0496000000003</v>
       </c>
-      <c r="AY61" s="4">
+      <c r="BC61" s="4">
         <f t="shared" si="80"/>
         <v>6024.7715840000001</v>
       </c>
-      <c r="AZ61" s="4">
+      <c r="BD61" s="4">
         <f t="shared" si="80"/>
         <v>6265.7624473599999</v>
       </c>
-      <c r="BA61" s="4">
+      <c r="BE61" s="4">
         <f t="shared" si="80"/>
         <v>6516.3929452543998</v>
       </c>
-      <c r="BB61" s="4">
-        <f t="shared" ref="BB61:BF61" si="81">BA61*1.04</f>
+      <c r="BF61" s="4">
+        <f t="shared" ref="BF61:BJ61" si="81">BE61*1.04</f>
         <v>6777.0486630645764</v>
       </c>
-      <c r="BC61" s="4">
+      <c r="BG61" s="4">
         <f t="shared" si="81"/>
         <v>7048.1306095871596</v>
       </c>
-      <c r="BD61" s="4">
+      <c r="BH61" s="4">
         <f t="shared" si="81"/>
         <v>7330.0558339706458</v>
       </c>
-      <c r="BE61" s="4">
+      <c r="BI61" s="4">
         <f t="shared" si="81"/>
         <v>7623.2580673294715</v>
       </c>
-      <c r="BF61" s="4">
+      <c r="BJ61" s="4">
         <f t="shared" si="81"/>
         <v>7928.1883900226503</v>
       </c>
     </row>
-    <row r="62" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:62" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
         <v>48</v>
       </c>
@@ -6233,67 +6581,77 @@
         <f t="shared" si="87"/>
         <v>2660</v>
       </c>
-      <c r="AF62" s="5"/>
-      <c r="AG62" s="5"/>
+      <c r="AF62" s="5">
+        <f t="shared" ref="AF62:AG62" si="88">AF60+AF61</f>
+        <v>2955</v>
+      </c>
+      <c r="AG62" s="5">
+        <f t="shared" si="88"/>
+        <v>3192</v>
+      </c>
       <c r="AH62" s="5"/>
-      <c r="AS62" s="4">
-        <f t="shared" ref="AS62" si="88">+AS60+AS61</f>
+      <c r="AI62" s="5"/>
+      <c r="AJ62" s="5"/>
+      <c r="AK62" s="5"/>
+      <c r="AL62" s="5"/>
+      <c r="AW62" s="4">
+        <f t="shared" ref="AW62" si="89">+AW60+AW61</f>
         <v>7781.8</v>
       </c>
-      <c r="AT62" s="4">
-        <f>+AT60+AT61</f>
+      <c r="AX62" s="4">
+        <f>+AX60+AX61</f>
         <v>8769</v>
       </c>
-      <c r="AU62" s="4">
-        <f t="shared" ref="AU62:AY62" si="89">+AU60+AU61</f>
+      <c r="AY62" s="4">
+        <f t="shared" ref="AY62:BC62" si="90">+AY60+AY61</f>
         <v>9690</v>
       </c>
-      <c r="AV62" s="4">
-        <f>+AV60+AV61</f>
+      <c r="AZ62" s="4">
+        <f>+AZ60+AZ61</f>
         <v>10077.6</v>
       </c>
-      <c r="AW62" s="4">
-        <f t="shared" si="89"/>
+      <c r="BA62" s="4">
+        <f t="shared" si="90"/>
         <v>10480.704000000002</v>
       </c>
-      <c r="AX62" s="4">
-        <f t="shared" si="89"/>
+      <c r="BB62" s="4">
+        <f t="shared" si="90"/>
         <v>10899.93216</v>
       </c>
-      <c r="AY62" s="4">
-        <f t="shared" si="89"/>
+      <c r="BC62" s="4">
+        <f t="shared" si="90"/>
         <v>11335.929446400001</v>
       </c>
-      <c r="AZ62" s="4">
-        <f t="shared" ref="AZ62" si="90">+AZ60+AZ61</f>
+      <c r="BD62" s="4">
+        <f t="shared" ref="BD62" si="91">+BD60+BD61</f>
         <v>11789.366624256001</v>
       </c>
-      <c r="BA62" s="4">
-        <f t="shared" ref="BA62:BF62" si="91">+BA60+BA61</f>
+      <c r="BE62" s="4">
+        <f t="shared" ref="BE62:BJ62" si="92">+BE60+BE61</f>
         <v>12260.941289226241</v>
       </c>
-      <c r="BB62" s="4">
-        <f t="shared" si="91"/>
+      <c r="BF62" s="4">
+        <f t="shared" si="92"/>
         <v>12751.378940795292</v>
       </c>
-      <c r="BC62" s="4">
-        <f t="shared" si="91"/>
+      <c r="BG62" s="4">
+        <f t="shared" si="92"/>
         <v>13261.434098427104</v>
       </c>
-      <c r="BD62" s="4">
-        <f t="shared" si="91"/>
+      <c r="BH62" s="4">
+        <f t="shared" si="92"/>
         <v>13791.891462364189</v>
       </c>
-      <c r="BE62" s="4">
-        <f t="shared" si="91"/>
+      <c r="BI62" s="4">
+        <f t="shared" si="92"/>
         <v>14343.567120858756</v>
       </c>
-      <c r="BF62" s="4">
-        <f t="shared" si="91"/>
+      <c r="BJ62" s="4">
+        <f t="shared" si="92"/>
         <v>14917.309805693107</v>
       </c>
     </row>
-    <row r="63" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:62" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
         <v>49</v>
       </c>
@@ -6302,51 +6660,51 @@
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5">
-        <f t="shared" ref="G63" si="92">G59-G62</f>
+        <f t="shared" ref="G63" si="93">G59-G62</f>
         <v>-478</v>
       </c>
       <c r="H63" s="5">
-        <f t="shared" ref="H63:I63" si="93">H59-H62</f>
+        <f t="shared" ref="H63:I63" si="94">H59-H62</f>
         <v>-50</v>
       </c>
       <c r="I63" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>261</v>
       </c>
       <c r="J63" s="5">
-        <f t="shared" ref="J63:L63" si="94">J59-J62</f>
+        <f t="shared" ref="J63:L63" si="95">J59-J62</f>
         <v>347</v>
       </c>
       <c r="K63" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>283</v>
       </c>
       <c r="L63" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>327</v>
       </c>
       <c r="M63" s="5">
-        <f t="shared" ref="M63:N63" si="95">M59-M62</f>
+        <f t="shared" ref="M63:N63" si="96">M59-M62</f>
         <v>809</v>
       </c>
       <c r="N63" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>575</v>
       </c>
       <c r="O63" s="5">
-        <f t="shared" ref="O63:R63" si="96">O59-O62</f>
+        <f t="shared" ref="O63:R63" si="97">O59-O62</f>
         <v>493</v>
       </c>
       <c r="P63" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>1335</v>
       </c>
       <c r="Q63" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>2055</v>
       </c>
       <c r="R63" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>2613</v>
       </c>
       <c r="S63" s="5">
@@ -6362,7 +6720,7 @@
         <v>3688</v>
       </c>
       <c r="V63" s="5">
-        <f t="shared" ref="V63:AE63" si="97">V59-V62</f>
+        <f t="shared" ref="V63:AE63" si="98">V59-V62</f>
         <v>3662.7999999999984</v>
       </c>
       <c r="W63" s="5">
@@ -6370,98 +6728,108 @@
         <v>2664</v>
       </c>
       <c r="X63" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>2399</v>
       </c>
       <c r="Y63" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>1764</v>
       </c>
       <c r="Z63" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>2064</v>
       </c>
       <c r="AA63" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>1171</v>
       </c>
       <c r="AB63" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>2227</v>
       </c>
       <c r="AC63" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>2772</v>
       </c>
       <c r="AD63" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>1590</v>
       </c>
       <c r="AE63" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>493</v>
       </c>
-      <c r="AF63" s="5"/>
-      <c r="AG63" s="5"/>
+      <c r="AF63" s="5">
+        <f t="shared" ref="AF63:AG63" si="99">AF59-AF62</f>
+        <v>923</v>
+      </c>
+      <c r="AG63" s="5">
+        <f t="shared" si="99"/>
+        <v>1862</v>
+      </c>
       <c r="AH63" s="5"/>
-      <c r="AS63" s="5">
-        <f t="shared" ref="AS63:AT63" si="98">AS59-AS62</f>
+      <c r="AI63" s="5"/>
+      <c r="AJ63" s="5"/>
+      <c r="AK63" s="5"/>
+      <c r="AL63" s="5"/>
+      <c r="AW63" s="5">
+        <f t="shared" ref="AW63:AX63" si="100">AW59-AW62</f>
         <v>12705.850000000002</v>
       </c>
-      <c r="AT63" s="5">
-        <f t="shared" si="98"/>
+      <c r="AX63" s="5">
+        <f t="shared" si="100"/>
         <v>8891</v>
       </c>
-      <c r="AU63" s="5">
-        <f t="shared" ref="AU63:BA63" si="99">AU59-AU62</f>
+      <c r="AY63" s="5">
+        <f t="shared" ref="AY63:BE63" si="101">AY59-AY62</f>
         <v>7760</v>
       </c>
-      <c r="AV63" s="5">
-        <f>AV59-AV62</f>
+      <c r="AZ63" s="5">
+        <f>AZ59-AZ62</f>
         <v>12661.34284779267</v>
       </c>
-      <c r="AW63" s="5">
-        <f t="shared" si="99"/>
+      <c r="BA63" s="5">
+        <f t="shared" si="101"/>
         <v>22347.820717639715</v>
       </c>
-      <c r="AX63" s="5">
-        <f t="shared" si="99"/>
+      <c r="BB63" s="5">
+        <f t="shared" si="101"/>
         <v>29412.816792280919</v>
       </c>
-      <c r="AY63" s="5">
-        <f t="shared" si="99"/>
+      <c r="BC63" s="5">
+        <f t="shared" si="101"/>
         <v>42137.912573951427</v>
       </c>
-      <c r="AZ63" s="5">
-        <f t="shared" si="99"/>
+      <c r="BD63" s="5">
+        <f t="shared" si="101"/>
         <v>55658.184365757508</v>
       </c>
-      <c r="BA63" s="5">
-        <f t="shared" si="99"/>
+      <c r="BE63" s="5">
+        <f t="shared" si="101"/>
         <v>68616.700166043389</v>
       </c>
-      <c r="BB63" s="5">
-        <f t="shared" ref="BB63:BF63" si="100">BB59-BB62</f>
+      <c r="BF63" s="5">
+        <f t="shared" ref="BF63:BJ63" si="102">BF59-BF62</f>
         <v>74796.045791634693</v>
       </c>
-      <c r="BC63" s="5">
-        <f t="shared" si="100"/>
+      <c r="BG63" s="5">
+        <f t="shared" si="102"/>
         <v>81479.793481204746</v>
       </c>
-      <c r="BD63" s="5">
-        <f t="shared" si="100"/>
+      <c r="BH63" s="5">
+        <f t="shared" si="102"/>
         <v>88708.019593705787</v>
       </c>
-      <c r="BE63" s="5">
-        <f t="shared" si="100"/>
+      <c r="BI63" s="5">
+        <f t="shared" si="102"/>
         <v>96523.963542246056</v>
       </c>
-      <c r="BF63" s="5">
-        <f t="shared" si="100"/>
+      <c r="BJ63" s="5">
+        <f t="shared" si="102"/>
         <v>104974.27792852929</v>
       </c>
     </row>
-    <row r="64" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:62" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="4" t="s">
         <v>50</v>
       </c>
@@ -6569,63 +6937,73 @@
         <f>400-91-119</f>
         <v>190</v>
       </c>
-      <c r="AF64" s="5"/>
-      <c r="AG64" s="5"/>
+      <c r="AF64" s="5">
+        <f>392-86</f>
+        <v>306</v>
+      </c>
+      <c r="AG64" s="5">
+        <f>439-76</f>
+        <v>363</v>
+      </c>
       <c r="AH64" s="5"/>
-      <c r="AT64" s="4">
-        <f t="shared" si="57"/>
+      <c r="AI64" s="5"/>
+      <c r="AJ64" s="5"/>
+      <c r="AK64" s="5"/>
+      <c r="AL64" s="5"/>
+      <c r="AX64" s="4">
+        <f t="shared" si="56"/>
         <v>1082</v>
       </c>
-      <c r="AU64" s="4">
-        <f t="shared" ref="AU64" si="101">SUM(AA64:AD64)</f>
+      <c r="AY64" s="4">
+        <f t="shared" ref="AY64" si="103">SUM(AA64:AD64)</f>
         <v>1672</v>
       </c>
-      <c r="AV64" s="4">
-        <f t="shared" ref="AV64:BF64" si="102">AU103*$BH$81</f>
+      <c r="AZ64" s="4">
+        <f t="shared" ref="AZ64:BJ64" si="104">AY103*$BL$81</f>
         <v>3145</v>
       </c>
-      <c r="AW64" s="4">
-        <f t="shared" si="102"/>
+      <c r="BA64" s="4">
+        <f t="shared" si="104"/>
         <v>4488.5391420623773</v>
       </c>
-      <c r="AX64" s="4">
-        <f t="shared" si="102"/>
+      <c r="BB64" s="4">
+        <f t="shared" si="104"/>
         <v>6769.629730137055</v>
       </c>
-      <c r="AY64" s="4">
-        <f t="shared" si="102"/>
+      <c r="BC64" s="4">
+        <f t="shared" si="104"/>
         <v>9845.1376845425839</v>
       </c>
-      <c r="AZ64" s="4">
-        <f t="shared" si="102"/>
+      <c r="BD64" s="4">
+        <f t="shared" si="104"/>
         <v>14263.696956514574</v>
       </c>
-      <c r="BA64" s="4">
-        <f t="shared" si="102"/>
+      <c r="BE64" s="4">
+        <f t="shared" si="104"/>
         <v>20207.056868907701</v>
       </c>
-      <c r="BB64" s="4">
-        <f t="shared" si="102"/>
+      <c r="BF64" s="4">
+        <f t="shared" si="104"/>
         <v>27757.076216878544</v>
       </c>
-      <c r="BC64" s="4">
-        <f t="shared" si="102"/>
+      <c r="BG64" s="4">
+        <f t="shared" si="104"/>
         <v>36474.091587602175</v>
       </c>
-      <c r="BD64" s="4">
-        <f t="shared" si="102"/>
+      <c r="BH64" s="4">
+        <f t="shared" si="104"/>
         <v>46500.171818450763</v>
       </c>
-      <c r="BE64" s="4">
-        <f t="shared" si="102"/>
+      <c r="BI64" s="4">
+        <f t="shared" si="104"/>
         <v>57992.868088484072</v>
       </c>
-      <c r="BF64" s="4">
-        <f t="shared" si="102"/>
+      <c r="BJ64" s="4">
+        <f t="shared" si="104"/>
         <v>71126.798777096134</v>
       </c>
     </row>
-    <row r="65" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:113" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="4" t="s">
         <v>51</v>
       </c>
@@ -6634,51 +7012,51 @@
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5">
-        <f t="shared" ref="G65:N65" si="103">G63+G64</f>
+        <f t="shared" ref="G65:N65" si="105">G63+G64</f>
         <v>-601</v>
       </c>
       <c r="H65" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>-253</v>
       </c>
       <c r="I65" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>176</v>
       </c>
       <c r="J65" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>160</v>
       </c>
       <c r="K65" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>70</v>
       </c>
       <c r="L65" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>150</v>
       </c>
       <c r="M65" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>555</v>
       </c>
       <c r="N65" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>379</v>
       </c>
       <c r="O65" s="5">
-        <f t="shared" ref="O65:R65" si="104">O63+O64</f>
+        <f t="shared" ref="O65:R65" si="106">O63+O64</f>
         <v>432</v>
       </c>
       <c r="P65" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>1316</v>
       </c>
       <c r="Q65" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>1933</v>
       </c>
       <c r="R65" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>2635</v>
       </c>
       <c r="S65" s="5">
@@ -6694,102 +7072,112 @@
         <v>3636</v>
       </c>
       <c r="V65" s="5">
-        <f t="shared" ref="V65:AE65" si="105">V63+V64</f>
+        <f t="shared" ref="V65:AG65" si="107">V63+V64</f>
         <v>3744.7999999999984</v>
       </c>
       <c r="W65" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>2800</v>
       </c>
       <c r="X65" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>2937</v>
       </c>
       <c r="Y65" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>2045</v>
       </c>
       <c r="Z65" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>2191</v>
       </c>
       <c r="AA65" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>1553</v>
       </c>
       <c r="AB65" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>2509</v>
       </c>
       <c r="AC65" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>2839</v>
       </c>
       <c r="AD65" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>2531</v>
       </c>
       <c r="AE65" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>683</v>
       </c>
-      <c r="AF65" s="5"/>
-      <c r="AG65" s="5"/>
+      <c r="AF65" s="5">
+        <f t="shared" si="107"/>
+        <v>1229</v>
+      </c>
+      <c r="AG65" s="5">
+        <f t="shared" si="107"/>
+        <v>2225</v>
+      </c>
       <c r="AH65" s="5"/>
-      <c r="AT65" s="4">
-        <f>+AT63+AT64</f>
+      <c r="AI65" s="5"/>
+      <c r="AJ65" s="5"/>
+      <c r="AK65" s="5"/>
+      <c r="AL65" s="5"/>
+      <c r="AX65" s="4">
+        <f>+AX63+AX64</f>
         <v>9973</v>
       </c>
-      <c r="AU65" s="4">
-        <f t="shared" ref="AU65:BF65" si="106">+AU63+AU64</f>
+      <c r="AY65" s="4">
+        <f t="shared" ref="AY65:BJ65" si="108">+AY63+AY64</f>
         <v>9432</v>
       </c>
-      <c r="AV65" s="4">
-        <f t="shared" si="106"/>
+      <c r="AZ65" s="4">
+        <f t="shared" si="108"/>
         <v>15806.34284779267</v>
       </c>
-      <c r="AW65" s="4">
-        <f t="shared" si="106"/>
+      <c r="BA65" s="4">
+        <f t="shared" si="108"/>
         <v>26836.359859702094</v>
       </c>
-      <c r="AX65" s="4">
-        <f t="shared" si="106"/>
+      <c r="BB65" s="4">
+        <f t="shared" si="108"/>
         <v>36182.446522417973</v>
       </c>
-      <c r="AY65" s="4">
-        <f t="shared" si="106"/>
+      <c r="BC65" s="4">
+        <f t="shared" si="108"/>
         <v>51983.050258494011</v>
       </c>
-      <c r="AZ65" s="4">
-        <f t="shared" si="106"/>
+      <c r="BD65" s="4">
+        <f t="shared" si="108"/>
         <v>69921.881322272078</v>
       </c>
-      <c r="BA65" s="4">
-        <f t="shared" si="106"/>
+      <c r="BE65" s="4">
+        <f t="shared" si="108"/>
         <v>88823.757034951093</v>
       </c>
-      <c r="BB65" s="4">
-        <f t="shared" si="106"/>
+      <c r="BF65" s="4">
+        <f t="shared" si="108"/>
         <v>102553.12200851324</v>
       </c>
-      <c r="BC65" s="4">
-        <f t="shared" si="106"/>
+      <c r="BG65" s="4">
+        <f t="shared" si="108"/>
         <v>117953.88506880692</v>
       </c>
-      <c r="BD65" s="4">
-        <f t="shared" si="106"/>
+      <c r="BH65" s="4">
+        <f t="shared" si="108"/>
         <v>135208.19141215656</v>
       </c>
-      <c r="BE65" s="4">
-        <f t="shared" si="106"/>
+      <c r="BI65" s="4">
+        <f t="shared" si="108"/>
         <v>154516.83163073013</v>
       </c>
-      <c r="BF65" s="4">
-        <f t="shared" si="106"/>
+      <c r="BJ65" s="4">
+        <f t="shared" si="108"/>
         <v>176101.07670562543</v>
       </c>
     </row>
-    <row r="66" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:113" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="4" t="s">
         <v>52</v>
       </c>
@@ -6894,63 +7282,71 @@
         <f>169+11</f>
         <v>180</v>
       </c>
-      <c r="AF66" s="5"/>
-      <c r="AG66" s="5"/>
+      <c r="AF66" s="5">
+        <v>359</v>
+      </c>
+      <c r="AG66" s="5">
+        <v>570</v>
+      </c>
       <c r="AH66" s="5"/>
-      <c r="AT66" s="4">
-        <f t="shared" si="57"/>
+      <c r="AI66" s="5"/>
+      <c r="AJ66" s="5"/>
+      <c r="AK66" s="5"/>
+      <c r="AL66" s="5"/>
+      <c r="AX66" s="4">
+        <f t="shared" si="56"/>
         <v>728</v>
       </c>
-      <c r="AU66" s="4">
-        <f t="shared" ref="AU66" si="107">SUM(AA66:AD66)</f>
+      <c r="AY66" s="4">
+        <f t="shared" ref="AY66" si="109">SUM(AA66:AD66)</f>
         <v>1846</v>
       </c>
-      <c r="AV66" s="4">
-        <f t="shared" ref="AV66:BA66" si="108">+AV65*0.15</f>
+      <c r="AZ66" s="4">
+        <f t="shared" ref="AZ66:BE66" si="110">+AZ65*0.15</f>
         <v>2370.9514271689004</v>
       </c>
-      <c r="AW66" s="4">
-        <f t="shared" si="108"/>
+      <c r="BA66" s="4">
+        <f t="shared" si="110"/>
         <v>4025.4539789553137</v>
       </c>
-      <c r="AX66" s="4">
-        <f t="shared" si="108"/>
+      <c r="BB66" s="4">
+        <f t="shared" si="110"/>
         <v>5427.3669783626956</v>
       </c>
-      <c r="AY66" s="4">
-        <f t="shared" si="108"/>
+      <c r="BC66" s="4">
+        <f t="shared" si="110"/>
         <v>7797.4575387741015</v>
       </c>
-      <c r="AZ66" s="4">
-        <f t="shared" si="108"/>
+      <c r="BD66" s="4">
+        <f t="shared" si="110"/>
         <v>10488.282198340812</v>
       </c>
-      <c r="BA66" s="4">
-        <f t="shared" si="108"/>
+      <c r="BE66" s="4">
+        <f t="shared" si="110"/>
         <v>13323.563555242663</v>
       </c>
-      <c r="BB66" s="4">
-        <f t="shared" ref="BB66:BF66" si="109">+BB65*0.15</f>
+      <c r="BF66" s="4">
+        <f t="shared" ref="BF66:BJ66" si="111">+BF65*0.15</f>
         <v>15382.968301276986</v>
       </c>
-      <c r="BC66" s="4">
-        <f t="shared" si="109"/>
+      <c r="BG66" s="4">
+        <f t="shared" si="111"/>
         <v>17693.082760321038</v>
       </c>
-      <c r="BD66" s="4">
-        <f t="shared" si="109"/>
+      <c r="BH66" s="4">
+        <f t="shared" si="111"/>
         <v>20281.228711823485</v>
       </c>
-      <c r="BE66" s="4">
-        <f t="shared" si="109"/>
+      <c r="BI66" s="4">
+        <f t="shared" si="111"/>
         <v>23177.52474460952</v>
       </c>
-      <c r="BF66" s="4">
-        <f t="shared" si="109"/>
+      <c r="BJ66" s="4">
+        <f t="shared" si="111"/>
         <v>26415.161505843815</v>
       </c>
     </row>
-    <row r="67" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:113" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="4" t="s">
         <v>53</v>
       </c>
@@ -6959,51 +7355,51 @@
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5">
-        <f t="shared" ref="G67:N67" si="110">G65-G66</f>
+        <f t="shared" ref="G67:N67" si="112">G65-G66</f>
         <v>-658</v>
       </c>
       <c r="H67" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>-291</v>
       </c>
       <c r="I67" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>143</v>
       </c>
       <c r="J67" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>91</v>
       </c>
       <c r="K67" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>16</v>
       </c>
       <c r="L67" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>104</v>
       </c>
       <c r="M67" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>300</v>
       </c>
       <c r="N67" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>270</v>
       </c>
       <c r="O67" s="5">
-        <f t="shared" ref="O67:R67" si="111">O65-O66</f>
+        <f t="shared" ref="O67:R67" si="113">O65-O66</f>
         <v>337</v>
       </c>
       <c r="P67" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>1165</v>
       </c>
       <c r="Q67" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>1669</v>
       </c>
       <c r="R67" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>2321</v>
       </c>
       <c r="S67" s="5">
@@ -7019,306 +7415,316 @@
         <v>3331</v>
       </c>
       <c r="V67" s="5">
-        <f t="shared" ref="V67:AE67" si="112">V65-V66</f>
+        <f t="shared" ref="V67:AE67" si="114">V65-V66</f>
         <v>3468.7999999999984</v>
       </c>
       <c r="W67" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>2513</v>
       </c>
       <c r="X67" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>2703</v>
       </c>
       <c r="Y67" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>1853</v>
       </c>
       <c r="Z67" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>2176</v>
       </c>
       <c r="AA67" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>1129</v>
       </c>
       <c r="AB67" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>2100</v>
       </c>
       <c r="AC67" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>2222</v>
       </c>
       <c r="AD67" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>2135</v>
       </c>
       <c r="AE67" s="5">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>503</v>
       </c>
-      <c r="AF67" s="5"/>
-      <c r="AG67" s="5"/>
+      <c r="AF67" s="5">
+        <f t="shared" ref="AF67:AG67" si="115">AF65-AF66</f>
+        <v>870</v>
+      </c>
+      <c r="AG67" s="5">
+        <f t="shared" si="115"/>
+        <v>1655</v>
+      </c>
       <c r="AH67" s="5"/>
-      <c r="AT67" s="4">
-        <f>+AT65-AT66</f>
+      <c r="AI67" s="5"/>
+      <c r="AJ67" s="5"/>
+      <c r="AK67" s="5"/>
+      <c r="AL67" s="5"/>
+      <c r="AX67" s="4">
+        <f>+AX65-AX66</f>
         <v>9245</v>
       </c>
-      <c r="AU67" s="4">
-        <f t="shared" ref="AU67" si="113">+AU65-AU66</f>
+      <c r="AY67" s="4">
+        <f t="shared" ref="AY67" si="116">+AY65-AY66</f>
         <v>7586</v>
       </c>
-      <c r="AV67" s="4">
-        <f t="shared" ref="AV67:BA67" si="114">+AV65-AV66</f>
+      <c r="AZ67" s="4">
+        <f t="shared" ref="AZ67:BE67" si="117">+AZ65-AZ66</f>
         <v>13435.39142062377</v>
       </c>
-      <c r="AW67" s="4">
-        <f t="shared" si="114"/>
+      <c r="BA67" s="4">
+        <f t="shared" si="117"/>
         <v>22810.905880746781</v>
       </c>
-      <c r="AX67" s="4">
-        <f t="shared" si="114"/>
+      <c r="BB67" s="4">
+        <f t="shared" si="117"/>
         <v>30755.079544055276</v>
       </c>
-      <c r="AY67" s="4">
-        <f t="shared" si="114"/>
+      <c r="BC67" s="4">
+        <f t="shared" si="117"/>
         <v>44185.592719719913</v>
       </c>
-      <c r="AZ67" s="4">
-        <f t="shared" si="114"/>
+      <c r="BD67" s="4">
+        <f t="shared" si="117"/>
         <v>59433.599123931264</v>
       </c>
-      <c r="BA67" s="4">
-        <f t="shared" si="114"/>
+      <c r="BE67" s="4">
+        <f t="shared" si="117"/>
         <v>75500.193479708425</v>
       </c>
-      <c r="BB67" s="4">
-        <f t="shared" ref="BB67:BF67" si="115">+BB65-BB66</f>
+      <c r="BF67" s="4">
+        <f t="shared" ref="BF67:BJ67" si="118">+BF65-BF66</f>
         <v>87170.153707236255</v>
       </c>
-      <c r="BC67" s="4">
-        <f t="shared" si="115"/>
+      <c r="BG67" s="4">
+        <f t="shared" si="118"/>
         <v>100260.80230848589</v>
       </c>
-      <c r="BD67" s="4">
-        <f t="shared" si="115"/>
+      <c r="BH67" s="4">
+        <f t="shared" si="118"/>
         <v>114926.96270033308</v>
       </c>
-      <c r="BE67" s="4">
-        <f t="shared" si="115"/>
+      <c r="BI67" s="4">
+        <f t="shared" si="118"/>
         <v>131339.30688612061</v>
       </c>
-      <c r="BF67" s="4">
-        <f t="shared" si="115"/>
+      <c r="BJ67" s="4">
+        <f t="shared" si="118"/>
         <v>149685.91519978162</v>
       </c>
-      <c r="BG67" s="4">
-        <f t="shared" ref="BG67:CL67" si="116">BF67*(1+$BH$78)</f>
+      <c r="BK67" s="4">
+        <f t="shared" ref="BK67:CP67" si="119">BJ67*(1+$BL$78)</f>
         <v>148189.05604778382</v>
       </c>
-      <c r="BH67" s="4">
-        <f t="shared" si="116"/>
+      <c r="BL67" s="4">
+        <f t="shared" si="119"/>
         <v>146707.16548730599</v>
       </c>
-      <c r="BI67" s="4">
-        <f t="shared" si="116"/>
+      <c r="BM67" s="4">
+        <f t="shared" si="119"/>
         <v>145240.09383243293</v>
       </c>
-      <c r="BJ67" s="4">
-        <f t="shared" si="116"/>
+      <c r="BN67" s="4">
+        <f t="shared" si="119"/>
         <v>143787.69289410859</v>
       </c>
-      <c r="BK67" s="4">
-        <f t="shared" si="116"/>
+      <c r="BO67" s="4">
+        <f t="shared" si="119"/>
         <v>142349.81596516751</v>
       </c>
-      <c r="BL67" s="4">
-        <f t="shared" si="116"/>
+      <c r="BP67" s="4">
+        <f t="shared" si="119"/>
         <v>140926.31780551584</v>
       </c>
-      <c r="BM67" s="4">
-        <f t="shared" si="116"/>
+      <c r="BQ67" s="4">
+        <f t="shared" si="119"/>
         <v>139517.05462746069</v>
       </c>
-      <c r="BN67" s="4">
-        <f t="shared" si="116"/>
+      <c r="BR67" s="4">
+        <f t="shared" si="119"/>
         <v>138121.88408118609</v>
       </c>
-      <c r="BO67" s="4">
-        <f t="shared" si="116"/>
+      <c r="BS67" s="4">
+        <f t="shared" si="119"/>
         <v>136740.66524037422</v>
       </c>
-      <c r="BP67" s="4">
-        <f t="shared" si="116"/>
+      <c r="BT67" s="4">
+        <f t="shared" si="119"/>
         <v>135373.25858797049</v>
       </c>
-      <c r="BQ67" s="4">
-        <f t="shared" si="116"/>
+      <c r="BU67" s="4">
+        <f t="shared" si="119"/>
         <v>134019.52600209077</v>
       </c>
-      <c r="BR67" s="4">
-        <f t="shared" si="116"/>
+      <c r="BV67" s="4">
+        <f t="shared" si="119"/>
         <v>132679.33074206987</v>
       </c>
-      <c r="BS67" s="4">
-        <f t="shared" si="116"/>
+      <c r="BW67" s="4">
+        <f t="shared" si="119"/>
         <v>131352.53743464916</v>
       </c>
-      <c r="BT67" s="4">
-        <f t="shared" si="116"/>
+      <c r="BX67" s="4">
+        <f t="shared" si="119"/>
         <v>130039.01206030266</v>
       </c>
-      <c r="BU67" s="4">
-        <f t="shared" si="116"/>
+      <c r="BY67" s="4">
+        <f t="shared" si="119"/>
         <v>128738.62193969963</v>
       </c>
-      <c r="BV67" s="4">
-        <f t="shared" si="116"/>
+      <c r="BZ67" s="4">
+        <f t="shared" si="119"/>
         <v>127451.23572030263</v>
       </c>
-      <c r="BW67" s="4">
-        <f t="shared" si="116"/>
+      <c r="CA67" s="4">
+        <f t="shared" si="119"/>
         <v>126176.72336309961</v>
       </c>
-      <c r="BX67" s="4">
-        <f t="shared" si="116"/>
+      <c r="CB67" s="4">
+        <f t="shared" si="119"/>
         <v>124914.95612946861</v>
       </c>
-      <c r="BY67" s="4">
-        <f t="shared" si="116"/>
+      <c r="CC67" s="4">
+        <f t="shared" si="119"/>
         <v>123665.80656817392</v>
       </c>
-      <c r="BZ67" s="4">
-        <f t="shared" si="116"/>
+      <c r="CD67" s="4">
+        <f t="shared" si="119"/>
         <v>122429.14850249219</v>
       </c>
-      <c r="CA67" s="4">
-        <f t="shared" si="116"/>
+      <c r="CE67" s="4">
+        <f t="shared" si="119"/>
         <v>121204.85701746726</v>
       </c>
-      <c r="CB67" s="4">
-        <f t="shared" si="116"/>
+      <c r="CF67" s="4">
+        <f t="shared" si="119"/>
         <v>119992.80844729258</v>
       </c>
-      <c r="CC67" s="4">
-        <f t="shared" si="116"/>
+      <c r="CG67" s="4">
+        <f t="shared" si="119"/>
         <v>118792.88036281966</v>
       </c>
-      <c r="CD67" s="4">
-        <f t="shared" si="116"/>
+      <c r="CH67" s="4">
+        <f t="shared" si="119"/>
         <v>117604.95155919147</v>
       </c>
-      <c r="CE67" s="4">
-        <f t="shared" si="116"/>
+      <c r="CI67" s="4">
+        <f t="shared" si="119"/>
         <v>116428.90204359955</v>
       </c>
-      <c r="CF67" s="4">
-        <f t="shared" si="116"/>
+      <c r="CJ67" s="4">
+        <f t="shared" si="119"/>
         <v>115264.61302316355</v>
       </c>
-      <c r="CG67" s="4">
-        <f t="shared" si="116"/>
+      <c r="CK67" s="4">
+        <f t="shared" si="119"/>
         <v>114111.96689293192</v>
       </c>
-      <c r="CH67" s="4">
-        <f t="shared" si="116"/>
+      <c r="CL67" s="4">
+        <f t="shared" si="119"/>
         <v>112970.8472240026</v>
       </c>
-      <c r="CI67" s="4">
-        <f t="shared" si="116"/>
+      <c r="CM67" s="4">
+        <f t="shared" si="119"/>
         <v>111841.13875176257</v>
       </c>
-      <c r="CJ67" s="4">
-        <f t="shared" si="116"/>
+      <c r="CN67" s="4">
+        <f t="shared" si="119"/>
         <v>110722.72736424494</v>
       </c>
-      <c r="CK67" s="4">
-        <f t="shared" si="116"/>
+      <c r="CO67" s="4">
+        <f t="shared" si="119"/>
         <v>109615.50009060249</v>
       </c>
-      <c r="CL67" s="4">
-        <f t="shared" si="116"/>
+      <c r="CP67" s="4">
+        <f t="shared" si="119"/>
         <v>108519.34508969646</v>
       </c>
-      <c r="CM67" s="4">
-        <f t="shared" ref="CM67:DE67" si="117">CL67*(1+$BH$78)</f>
+      <c r="CQ67" s="4">
+        <f t="shared" ref="CQ67:DI67" si="120">CP67*(1+$BL$78)</f>
         <v>107434.15163879949</v>
       </c>
-      <c r="CN67" s="4">
-        <f t="shared" si="117"/>
+      <c r="CR67" s="4">
+        <f t="shared" si="120"/>
         <v>106359.81012241149</v>
       </c>
-      <c r="CO67" s="4">
-        <f t="shared" si="117"/>
+      <c r="CS67" s="4">
+        <f t="shared" si="120"/>
         <v>105296.21202118738</v>
       </c>
-      <c r="CP67" s="4">
-        <f t="shared" si="117"/>
+      <c r="CT67" s="4">
+        <f t="shared" si="120"/>
         <v>104243.24990097551</v>
       </c>
-      <c r="CQ67" s="4">
-        <f t="shared" si="117"/>
+      <c r="CU67" s="4">
+        <f t="shared" si="120"/>
         <v>103200.81740196576</v>
       </c>
-      <c r="CR67" s="4">
-        <f t="shared" si="117"/>
+      <c r="CV67" s="4">
+        <f t="shared" si="120"/>
         <v>102168.8092279461</v>
       </c>
-      <c r="CS67" s="4">
-        <f t="shared" si="117"/>
+      <c r="CW67" s="4">
+        <f t="shared" si="120"/>
         <v>101147.12113566663</v>
       </c>
-      <c r="CT67" s="4">
-        <f t="shared" si="117"/>
+      <c r="CX67" s="4">
+        <f t="shared" si="120"/>
         <v>100135.64992430997</v>
       </c>
-      <c r="CU67" s="4">
-        <f t="shared" si="117"/>
+      <c r="CY67" s="4">
+        <f t="shared" si="120"/>
         <v>99134.293425066862</v>
       </c>
-      <c r="CV67" s="4">
-        <f t="shared" si="117"/>
+      <c r="CZ67" s="4">
+        <f t="shared" si="120"/>
         <v>98142.950490816191</v>
       </c>
-      <c r="CW67" s="4">
-        <f t="shared" si="117"/>
+      <c r="DA67" s="4">
+        <f t="shared" si="120"/>
         <v>97161.520985908035</v>
       </c>
-      <c r="CX67" s="4">
-        <f t="shared" si="117"/>
+      <c r="DB67" s="4">
+        <f t="shared" si="120"/>
         <v>96189.905776048952</v>
       </c>
-      <c r="CY67" s="4">
-        <f t="shared" si="117"/>
+      <c r="DC67" s="4">
+        <f t="shared" si="120"/>
         <v>95228.006718288467</v>
       </c>
-      <c r="CZ67" s="4">
-        <f t="shared" si="117"/>
+      <c r="DD67" s="4">
+        <f t="shared" si="120"/>
         <v>94275.726651105579</v>
       </c>
-      <c r="DA67" s="4">
-        <f t="shared" si="117"/>
+      <c r="DE67" s="4">
+        <f t="shared" si="120"/>
         <v>93332.969384594515</v>
       </c>
-      <c r="DB67" s="4">
-        <f t="shared" si="117"/>
+      <c r="DF67" s="4">
+        <f t="shared" si="120"/>
         <v>92399.639690748576</v>
       </c>
-      <c r="DC67" s="4">
-        <f t="shared" si="117"/>
+      <c r="DG67" s="4">
+        <f t="shared" si="120"/>
         <v>91475.643293841087</v>
       </c>
-      <c r="DD67" s="4">
-        <f t="shared" si="117"/>
+      <c r="DH67" s="4">
+        <f t="shared" si="120"/>
         <v>90560.886860902669</v>
       </c>
-      <c r="DE67" s="4">
-        <f t="shared" si="117"/>
+      <c r="DI67" s="4">
+        <f t="shared" si="120"/>
         <v>89655.277992293646</v>
       </c>
     </row>
-    <row r="68" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>54</v>
       </c>
@@ -7327,162 +7733,172 @@
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3">
-        <f t="shared" ref="G68:K68" si="118">G67/G69</f>
+        <f t="shared" ref="G68:K68" si="121">G67/G69</f>
         <v>-0.76069364161849706</v>
       </c>
       <c r="H68" s="3">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>-0.32881355932203388</v>
       </c>
       <c r="I68" s="3">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>0.15509761388286333</v>
       </c>
       <c r="J68" s="3">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>9.8913043478260868E-2</v>
       </c>
       <c r="K68" s="3">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>1.7112299465240642E-2</v>
       </c>
       <c r="L68" s="3">
-        <f t="shared" ref="L68" si="119">L67/L69</f>
+        <f t="shared" ref="L68" si="122">L67/L69</f>
         <v>0.10048309178743961</v>
       </c>
       <c r="M68" s="3">
-        <f t="shared" ref="M68:O68" si="120">M67/M69</f>
+        <f t="shared" ref="M68:O68" si="123">M67/M69</f>
         <v>0.27149321266968324</v>
       </c>
       <c r="N68" s="3">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v>0.2402135231316726</v>
       </c>
       <c r="O68" s="3">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v>0.29744042365401591</v>
       </c>
       <c r="P68" s="3">
-        <f t="shared" ref="P68" si="121">P67/P69</f>
+        <f t="shared" ref="P68" si="124">P67/P69</f>
         <v>1.0411081322609472</v>
       </c>
       <c r="Q68" s="3">
-        <f t="shared" ref="Q68" si="122">Q67/Q69</f>
+        <f t="shared" ref="Q68" si="125">Q67/Q69</f>
         <v>1.4861976847729297</v>
       </c>
       <c r="R68" s="3">
-        <f t="shared" ref="R68" si="123">R67/R69</f>
+        <f t="shared" ref="R68" si="126">R67/R69</f>
         <v>2.044933920704846</v>
       </c>
       <c r="S68" s="3">
-        <f t="shared" ref="S68:U68" si="124">S67/S69</f>
+        <f t="shared" ref="S68:U68" si="127">S67/S69</f>
         <v>2.867761452031115</v>
       </c>
       <c r="T68" s="3">
-        <f t="shared" si="124"/>
+        <f t="shared" si="127"/>
         <v>2.032900432900433</v>
       </c>
       <c r="U68" s="3">
-        <f t="shared" si="124"/>
+        <f t="shared" si="127"/>
         <v>0.96049596309111884</v>
       </c>
       <c r="V68" s="3">
-        <f t="shared" ref="V68:AE68" si="125">V67/V69</f>
+        <f t="shared" ref="V68:AE68" si="128">V67/V69</f>
         <v>0.99936617689426632</v>
       </c>
       <c r="W68" s="3">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>0.7246251441753172</v>
       </c>
       <c r="X68" s="3">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>0.77717078780908566</v>
       </c>
       <c r="Y68" s="3">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>0.53048955052963065</v>
       </c>
       <c r="Z68" s="3">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>0.62313860252004583</v>
       </c>
       <c r="AA68" s="3">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>0.32405281285878301</v>
       </c>
       <c r="AB68" s="3">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>0.60327492099971269</v>
       </c>
       <c r="AC68" s="3">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>0.63540177294824129</v>
       </c>
       <c r="AD68" s="3">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>0.60705146431617851</v>
       </c>
       <c r="AE68" s="3">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="AF68" s="3"/>
-      <c r="AG68" s="3"/>
+      <c r="AF68" s="3">
+        <f t="shared" ref="AF68:AG68" si="129">AF67/AF69</f>
+        <v>0.24722932651321397</v>
+      </c>
+      <c r="AG68" s="3">
+        <f t="shared" si="129"/>
+        <v>0.46937039137833236</v>
+      </c>
       <c r="AH68" s="3"/>
-      <c r="AT68" s="20">
-        <f>+AT67/AT69</f>
+      <c r="AI68" s="3"/>
+      <c r="AJ68" s="3"/>
+      <c r="AK68" s="3"/>
+      <c r="AL68" s="3"/>
+      <c r="AX68" s="20">
+        <f>+AX67/AX69</f>
         <v>2.6545115210681214</v>
       </c>
-      <c r="AU68" s="20">
-        <f t="shared" ref="AU68:BA68" si="126">+AU67/AU69</f>
+      <c r="AY68" s="20">
+        <f t="shared" ref="AY68:BE68" si="130">+AY67/AY69</f>
         <v>2.1706845983260603</v>
       </c>
-      <c r="AV68" s="20">
-        <f t="shared" si="126"/>
+      <c r="AZ68" s="20">
+        <f t="shared" si="130"/>
         <v>3.8444499379422763</v>
       </c>
-      <c r="AW68" s="20">
-        <f t="shared" si="126"/>
+      <c r="BA68" s="20">
+        <f t="shared" si="130"/>
         <v>6.5271924689167413</v>
       </c>
-      <c r="AX68" s="20">
-        <f t="shared" si="126"/>
+      <c r="BB68" s="20">
+        <f t="shared" si="130"/>
         <v>8.8003661332156167</v>
       </c>
-      <c r="AY68" s="20">
-        <f t="shared" si="126"/>
+      <c r="BC68" s="20">
+        <f t="shared" si="130"/>
         <v>12.643420193066717</v>
       </c>
-      <c r="AZ68" s="20">
-        <f t="shared" si="126"/>
+      <c r="BD68" s="20">
+        <f t="shared" si="130"/>
         <v>17.006538128315693</v>
       </c>
-      <c r="BA68" s="20">
-        <f t="shared" si="126"/>
+      <c r="BE68" s="20">
+        <f t="shared" si="130"/>
         <v>21.603889685874076</v>
       </c>
-      <c r="BB68" s="20">
-        <f t="shared" ref="BB68:BF68" si="127">+BB67/BB69</f>
+      <c r="BF68" s="20">
+        <f t="shared" ref="BF68:BJ68" si="131">+BF67/BF69</f>
         <v>24.943172961509767</v>
       </c>
-      <c r="BC68" s="20">
-        <f t="shared" si="127"/>
+      <c r="BG68" s="20">
+        <f t="shared" si="131"/>
         <v>28.688976982183529</v>
       </c>
-      <c r="BD68" s="20">
-        <f t="shared" si="127"/>
+      <c r="BH68" s="20">
+        <f t="shared" si="131"/>
         <v>32.885603462431668</v>
       </c>
-      <c r="BE68" s="20">
-        <f t="shared" si="127"/>
+      <c r="BI68" s="20">
+        <f t="shared" si="131"/>
         <v>37.581889086807529</v>
       </c>
-      <c r="BF68" s="20">
-        <f t="shared" si="127"/>
+      <c r="BJ68" s="20">
+        <f t="shared" si="131"/>
         <v>42.831651820525536</v>
       </c>
     </row>
-    <row r="69" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:113" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="4" t="s">
         <v>1</v>
       </c>
@@ -7570,63 +7986,71 @@
       <c r="AE69" s="5">
         <v>3521</v>
       </c>
-      <c r="AF69" s="5"/>
-      <c r="AG69" s="5"/>
+      <c r="AF69" s="5">
+        <v>3519</v>
+      </c>
+      <c r="AG69" s="5">
+        <v>3526</v>
+      </c>
       <c r="AH69" s="5"/>
-      <c r="AT69" s="4">
+      <c r="AI69" s="5"/>
+      <c r="AJ69" s="5"/>
+      <c r="AK69" s="5"/>
+      <c r="AL69" s="5"/>
+      <c r="AX69" s="4">
         <f>AVERAGE(W69:Z69)</f>
         <v>3482.75</v>
       </c>
-      <c r="AU69" s="4">
+      <c r="AY69" s="4">
         <f>AVERAGE(AA69:AD69)</f>
         <v>3494.75</v>
       </c>
-      <c r="AV69" s="4">
-        <f t="shared" ref="AV69:AY69" si="128">AU69</f>
+      <c r="AZ69" s="4">
+        <f t="shared" ref="AZ69:BC69" si="132">AY69</f>
         <v>3494.75</v>
       </c>
-      <c r="AW69" s="4">
-        <f t="shared" si="128"/>
+      <c r="BA69" s="4">
+        <f t="shared" si="132"/>
         <v>3494.75</v>
       </c>
-      <c r="AX69" s="4">
-        <f t="shared" si="128"/>
+      <c r="BB69" s="4">
+        <f t="shared" si="132"/>
         <v>3494.75</v>
       </c>
-      <c r="AY69" s="4">
-        <f t="shared" si="128"/>
+      <c r="BC69" s="4">
+        <f t="shared" si="132"/>
         <v>3494.75</v>
       </c>
-      <c r="AZ69" s="4">
-        <f t="shared" ref="AZ69:BA69" si="129">AY69</f>
+      <c r="BD69" s="4">
+        <f t="shared" ref="BD69:BE69" si="133">BC69</f>
         <v>3494.75</v>
       </c>
-      <c r="BA69" s="4">
-        <f t="shared" si="129"/>
-        <v>3494.75</v>
-      </c>
-      <c r="BB69" s="4">
-        <f t="shared" ref="BB69" si="130">BA69</f>
-        <v>3494.75</v>
-      </c>
-      <c r="BC69" s="4">
-        <f t="shared" ref="BC69" si="131">BB69</f>
-        <v>3494.75</v>
-      </c>
-      <c r="BD69" s="4">
-        <f t="shared" ref="BD69" si="132">BC69</f>
-        <v>3494.75</v>
-      </c>
       <c r="BE69" s="4">
-        <f t="shared" ref="BE69" si="133">BD69</f>
+        <f t="shared" si="133"/>
         <v>3494.75</v>
       </c>
       <c r="BF69" s="4">
         <f t="shared" ref="BF69" si="134">BE69</f>
         <v>3494.75</v>
       </c>
-    </row>
-    <row r="71" spans="2:109" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BG69" s="4">
+        <f t="shared" ref="BG69" si="135">BF69</f>
+        <v>3494.75</v>
+      </c>
+      <c r="BH69" s="4">
+        <f t="shared" ref="BH69" si="136">BG69</f>
+        <v>3494.75</v>
+      </c>
+      <c r="BI69" s="4">
+        <f t="shared" ref="BI69" si="137">BH69</f>
+        <v>3494.75</v>
+      </c>
+      <c r="BJ69" s="4">
+        <f t="shared" ref="BJ69" si="138">BI69</f>
+        <v>3494.75</v>
+      </c>
+    </row>
+    <row r="71" spans="2:113" s="23" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B71" s="23" t="s">
         <v>89</v>
       </c>
@@ -7643,35 +8067,35 @@
         <v>0.31799163179916312</v>
       </c>
       <c r="L71" s="22">
-        <f t="shared" ref="L71" si="135">L51/H51-1</f>
+        <f t="shared" ref="L71" si="139">L51/H51-1</f>
         <v>-4.9448818897637747E-2</v>
       </c>
       <c r="M71" s="22">
-        <f t="shared" ref="M71" si="136">M51/I51-1</f>
+        <f t="shared" ref="M71" si="140">M51/I51-1</f>
         <v>0.39155957480564818</v>
       </c>
       <c r="N71" s="22">
-        <f t="shared" ref="N71" si="137">N51/J51-1</f>
+        <f t="shared" ref="N71" si="141">N51/J51-1</f>
         <v>0.45503791982665232</v>
       </c>
       <c r="O71" s="22">
-        <f t="shared" ref="O71" si="138">O51/K51-1</f>
+        <f t="shared" ref="O71" si="142">O51/K51-1</f>
         <v>0.73583959899749374</v>
       </c>
       <c r="P71" s="22">
-        <f t="shared" ref="P71:Q71" si="139">P51/L51-1</f>
+        <f t="shared" ref="P71:Q71" si="143">P51/L51-1</f>
         <v>0.98111332007952279</v>
       </c>
       <c r="Q71" s="22">
-        <f t="shared" si="139"/>
+        <f t="shared" si="143"/>
         <v>0.56846425721126437</v>
       </c>
       <c r="R71" s="22">
-        <f t="shared" ref="R71:S71" si="140">R51/N51-1</f>
+        <f t="shared" ref="R71:S71" si="144">R51/N51-1</f>
         <v>0.64919955323901712</v>
       </c>
       <c r="S71" s="22">
-        <f t="shared" si="140"/>
+        <f t="shared" si="144"/>
         <v>0.80537106555010096</v>
       </c>
       <c r="T71" s="22">
@@ -7687,15 +8111,15 @@
         <v>0.39999999999999991</v>
       </c>
       <c r="W71" s="22">
-        <f t="shared" ref="W71:AE71" si="141">W51/S51-1</f>
+        <f t="shared" ref="W71:AG71" si="145">W51/S51-1</f>
         <v>0.24381531243335464</v>
       </c>
       <c r="X71" s="22">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>0.47200897602456604</v>
       </c>
       <c r="Y71" s="22">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>8.8375128181224838E-2</v>
       </c>
       <c r="Z71" s="22">
@@ -7707,179 +8131,189 @@
         <v>-8.6930429936988296E-2</v>
       </c>
       <c r="AB71" s="22">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>2.2987122397400306E-2</v>
       </c>
       <c r="AC71" s="22">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>7.8458244111349051E-2</v>
       </c>
       <c r="AD71" s="22">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>2.1456669448086885E-2</v>
       </c>
       <c r="AE71" s="22">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>-9.2296136331627587E-2</v>
       </c>
-      <c r="AF71" s="22"/>
-      <c r="AG71" s="22"/>
+      <c r="AF71" s="22">
+        <f t="shared" si="145"/>
+        <v>-0.1178039215686274</v>
+      </c>
+      <c r="AG71" s="22">
+        <f t="shared" si="145"/>
+        <v>0.11567786514176803</v>
+      </c>
       <c r="AH71" s="22"/>
-      <c r="AK71" s="25">
-        <f t="shared" ref="AK71:AM71" si="142">AK51/AJ51-1</f>
+      <c r="AI71" s="22"/>
+      <c r="AJ71" s="22"/>
+      <c r="AK71" s="22"/>
+      <c r="AL71" s="22"/>
+      <c r="AO71" s="25">
+        <f t="shared" ref="AO71:AQ71" si="146">AO51/AN51-1</f>
         <v>0.58845907814070664</v>
       </c>
-      <c r="AL71" s="25">
-        <f t="shared" si="142"/>
+      <c r="AP71" s="25">
+        <f t="shared" si="146"/>
         <v>0.26503272306147285</v>
       </c>
-      <c r="AM71" s="25">
-        <f t="shared" si="142"/>
+      <c r="AQ71" s="25">
+        <f t="shared" si="146"/>
         <v>0.73012574069611524</v>
       </c>
-      <c r="AN71" s="25">
-        <f>AN51/AM51-1</f>
+      <c r="AR71" s="25">
+        <f>AR51/AQ51-1</f>
         <v>0.67978989539054413</v>
       </c>
-      <c r="AO71" s="25">
-        <f>AO51/AN51-1</f>
+      <c r="AS71" s="25">
+        <f>AS51/AR51-1</f>
         <v>0.82513159773516764</v>
       </c>
-      <c r="AP71" s="25">
-        <f>AP51/AO51-1</f>
+      <c r="AT71" s="25">
+        <f>AT51/AS51-1</f>
         <v>0.14522590184326489</v>
       </c>
-      <c r="AQ71" s="25">
-        <f>+AQ51/AP51-1</f>
+      <c r="AU71" s="25">
+        <f>+AU51/AT51-1</f>
         <v>0.28309870615998056</v>
       </c>
-      <c r="AR71" s="25">
-        <f>+AR51/AQ51-1</f>
+      <c r="AV71" s="25">
+        <f>+AV51/AU51-1</f>
         <v>0.70671613394216126</v>
       </c>
-      <c r="AS71" s="25">
-        <f>+AS51/AR51-1</f>
+      <c r="AW71" s="25">
+        <f>+AW51/AV51-1</f>
         <v>0.52259442989056737</v>
       </c>
-      <c r="AT71" s="25">
-        <f>+AT51/AS51-1</f>
+      <c r="AX71" s="25">
+        <f>+AX51/AW51-1</f>
         <v>0.18086993871917945</v>
       </c>
-      <c r="AU71" s="25">
-        <f t="shared" ref="AU71:AY71" si="143">+AU51/AT51-1</f>
+      <c r="AY71" s="25">
+        <f t="shared" ref="AY71:BC71" si="147">+AY51/AX51-1</f>
         <v>1.4814637967201616E-2</v>
       </c>
-      <c r="AV71" s="25">
-        <f t="shared" si="143"/>
+      <c r="AZ71" s="25">
+        <f t="shared" si="147"/>
         <v>-2.6680990591435583E-3</v>
       </c>
-      <c r="AW71" s="25">
-        <f t="shared" si="143"/>
+      <c r="BA71" s="25">
+        <f t="shared" si="147"/>
         <v>0.29931090780272718</v>
       </c>
-      <c r="AX71" s="25">
-        <f t="shared" si="143"/>
+      <c r="BB71" s="25">
+        <f t="shared" si="147"/>
         <v>0.24561861608733349</v>
       </c>
-      <c r="AY71" s="25">
-        <f t="shared" si="143"/>
+      <c r="BC71" s="25">
+        <f t="shared" si="147"/>
         <v>0.24465742473773022</v>
       </c>
-      <c r="AZ71" s="25">
-        <f t="shared" ref="AZ71:BA71" si="144">+AZ51/AY51-1</f>
+      <c r="BD71" s="25">
+        <f t="shared" ref="BD71:BE71" si="148">+BD51/BC51-1</f>
         <v>0.19173783923524201</v>
       </c>
-      <c r="BA71" s="25">
-        <f t="shared" si="144"/>
+      <c r="BE71" s="25">
+        <f t="shared" si="148"/>
         <v>0.13910906172436666</v>
-      </c>
-      <c r="BB71" s="25">
-        <f t="shared" ref="BB71" si="145">+BB51/BA51-1</f>
-        <v>8.1733738453816374E-2</v>
-      </c>
-      <c r="BC71" s="25">
-        <f t="shared" ref="BC71" si="146">+BC51/BB51-1</f>
-        <v>8.1662047468837651E-2</v>
-      </c>
-      <c r="BD71" s="25">
-        <f t="shared" ref="BD71" si="147">+BD51/BC51-1</f>
-        <v>8.1595148661132155E-2</v>
-      </c>
-      <c r="BE71" s="25">
-        <f t="shared" ref="BE71" si="148">+BE51/BD51-1</f>
-        <v>8.153275138627003E-2</v>
       </c>
       <c r="BF71" s="25">
         <f t="shared" ref="BF71" si="149">+BF51/BE51-1</f>
+        <v>8.1733738453816374E-2</v>
+      </c>
+      <c r="BG71" s="25">
+        <f t="shared" ref="BG71" si="150">+BG51/BF51-1</f>
+        <v>8.1662047468837651E-2</v>
+      </c>
+      <c r="BH71" s="25">
+        <f t="shared" ref="BH71" si="151">+BH51/BG51-1</f>
+        <v>8.1595148661132155E-2</v>
+      </c>
+      <c r="BI71" s="25">
+        <f t="shared" ref="BI71" si="152">+BI51/BH51-1</f>
+        <v>8.153275138627003E-2</v>
+      </c>
+      <c r="BJ71" s="25">
+        <f t="shared" ref="BJ71" si="153">+BJ51/BI51-1</f>
         <v>8.1474584363125713E-2</v>
       </c>
     </row>
-    <row r="72" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B72" s="21" t="s">
         <v>92</v>
       </c>
       <c r="K72" s="17">
-        <f t="shared" ref="K72:Z72" si="150">+K37/G37-1</f>
+        <f t="shared" ref="K72:Z72" si="154">+K37/G37-1</f>
         <v>0.40427490122026688</v>
       </c>
       <c r="L72" s="17">
-        <f t="shared" si="150"/>
+        <f t="shared" si="154"/>
         <v>-4.9351902344897058E-2</v>
       </c>
       <c r="M72" s="17">
-        <f t="shared" si="150"/>
+        <f t="shared" si="154"/>
         <v>0.43333401930319182</v>
       </c>
       <c r="N72" s="17">
-        <f t="shared" si="150"/>
+        <f t="shared" si="154"/>
         <v>0.61086578348722065</v>
       </c>
       <c r="O72" s="17">
-        <f t="shared" si="150"/>
+        <f t="shared" si="154"/>
         <v>1.088229976496113</v>
       </c>
       <c r="P72" s="17">
-        <f t="shared" si="150"/>
+        <f t="shared" si="154"/>
         <v>1.2200772200772199</v>
       </c>
       <c r="Q72" s="17">
-        <f t="shared" si="150"/>
+        <f t="shared" si="154"/>
         <v>0.73223259152907394</v>
       </c>
       <c r="R72" s="17">
-        <f t="shared" si="150"/>
+        <f t="shared" si="154"/>
         <v>0.70903250816857732</v>
       </c>
       <c r="S72" s="17">
-        <f t="shared" si="150"/>
+        <f t="shared" si="154"/>
         <v>0.67774891774891777</v>
       </c>
       <c r="T72" s="17">
-        <f t="shared" si="150"/>
+        <f t="shared" si="154"/>
         <v>0.26556521739130434</v>
       </c>
       <c r="U72" s="17">
-        <f t="shared" si="150"/>
+        <f t="shared" si="154"/>
         <v>0.42490675507666809</v>
       </c>
       <c r="V72" s="17">
-        <f t="shared" si="150"/>
+        <f t="shared" si="154"/>
         <v>0.31327932598833441</v>
       </c>
       <c r="W72" s="17">
-        <f t="shared" si="150"/>
+        <f t="shared" si="154"/>
         <v>0.36390171844359576</v>
       </c>
       <c r="X72" s="17">
-        <f t="shared" si="150"/>
+        <f t="shared" si="154"/>
         <v>0.83018904964761764</v>
       </c>
       <c r="Y72" s="17">
-        <f t="shared" si="150"/>
+        <f t="shared" si="154"/>
         <v>0.26533170462146982</v>
       </c>
       <c r="Z72" s="17">
-        <f t="shared" si="150"/>
+        <f t="shared" si="154"/>
         <v>0.19549297025745282</v>
       </c>
       <c r="AA72" s="17">
@@ -7899,255 +8333,275 @@
         <v>2.2833519433155702E-2</v>
       </c>
       <c r="AE72" s="17">
-        <f t="shared" ref="AE72" si="151">+AE37/AA37-1</f>
+        <f t="shared" ref="AE72:AF72" si="155">+AE37/AA37-1</f>
         <v>-0.12959592564825106</v>
       </c>
-      <c r="AF72" s="17"/>
-      <c r="AG72" s="17"/>
+      <c r="AF72" s="17">
+        <f t="shared" si="155"/>
+        <v>-0.13477461730441753</v>
+      </c>
+      <c r="AG72" s="17">
+        <f t="shared" ref="AG72" si="156">+AG37/AC37-1</f>
+        <v>7.3903087126531153E-2</v>
+      </c>
       <c r="AH72" s="17"/>
-      <c r="AQ72" s="26">
-        <f t="shared" ref="AQ72:BA72" si="152">+AQ37/AP37-1</f>
+      <c r="AI72" s="17"/>
+      <c r="AJ72" s="17"/>
+      <c r="AK72" s="17"/>
+      <c r="AL72" s="17"/>
+      <c r="AU72" s="26">
+        <f t="shared" ref="AU72:BE72" si="157">+AU37/AT37-1</f>
         <v>0.35729051069477991</v>
       </c>
-      <c r="AR72" s="26">
-        <f t="shared" si="152"/>
+      <c r="AV72" s="26">
+        <f t="shared" si="157"/>
         <v>0.87559116340959009</v>
       </c>
-      <c r="AS72" s="26">
-        <f t="shared" si="152"/>
+      <c r="AW72" s="26">
+        <f t="shared" si="157"/>
         <v>0.403761953095785</v>
       </c>
-      <c r="AT72" s="26">
-        <f t="shared" si="152"/>
+      <c r="AX72" s="26">
+        <f t="shared" si="157"/>
         <v>0.37654954785588313</v>
       </c>
-      <c r="AU72" s="26">
-        <f t="shared" si="152"/>
+      <c r="AY72" s="26">
+        <f t="shared" si="157"/>
         <v>-1.0701760109168457E-2</v>
       </c>
-      <c r="AV72" s="26">
-        <f t="shared" si="152"/>
+      <c r="AZ72" s="26">
+        <f t="shared" si="157"/>
         <v>0.28853252747277303</v>
       </c>
-      <c r="AW72" s="26">
-        <f t="shared" si="152"/>
+      <c r="BA72" s="26">
+        <f t="shared" si="157"/>
         <v>0.25</v>
       </c>
-      <c r="AX72" s="26">
-        <f t="shared" si="152"/>
+      <c r="BB72" s="26">
+        <f t="shared" si="157"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AY72" s="26">
-        <f t="shared" si="152"/>
+      <c r="BC72" s="26">
+        <f t="shared" si="157"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AZ72" s="26">
-        <f t="shared" si="152"/>
+      <c r="BD72" s="26">
+        <f t="shared" si="157"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="BA72" s="26">
-        <f t="shared" si="152"/>
+      <c r="BE72" s="26">
+        <f t="shared" si="157"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="BB72" s="26">
-        <f t="shared" ref="BB72:BF72" si="153">+BB37/BA37-1</f>
+      <c r="BF72" s="26">
+        <f t="shared" ref="BF72:BJ72" si="158">+BF37/BE37-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="BC72" s="26">
-        <f t="shared" si="153"/>
+      <c r="BG72" s="26">
+        <f t="shared" si="158"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="BD72" s="26">
-        <f t="shared" si="153"/>
+      <c r="BH72" s="26">
+        <f t="shared" si="158"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="BE72" s="26">
-        <f t="shared" si="153"/>
+      <c r="BI72" s="26">
+        <f t="shared" si="158"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="BF72" s="26">
-        <f t="shared" si="153"/>
+      <c r="BJ72" s="26">
+        <f t="shared" si="158"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="73" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B73" s="21" t="s">
         <v>93</v>
       </c>
       <c r="K73" s="17">
-        <f t="shared" ref="K73:AD73" si="154">+K42/G42-1</f>
+        <f t="shared" ref="K73:AD73" si="159">+K42/G42-1</f>
         <v>0.33101713811610356</v>
       </c>
       <c r="L73" s="17">
-        <f t="shared" si="154"/>
+        <f t="shared" si="159"/>
         <v>-5.4866280672732248E-2</v>
       </c>
       <c r="M73" s="17">
-        <f t="shared" si="154"/>
+        <f t="shared" si="159"/>
         <v>0.50835629972440333</v>
       </c>
       <c r="N73" s="17">
-        <f t="shared" si="154"/>
+        <f t="shared" si="159"/>
         <v>0.71375046476818782</v>
       </c>
       <c r="O73" s="17">
-        <f t="shared" si="154"/>
+        <f t="shared" si="159"/>
         <v>0.75644771700171409</v>
       </c>
       <c r="P73" s="17">
-        <f t="shared" si="154"/>
+        <f t="shared" si="159"/>
         <v>1.5090067094515751</v>
       </c>
       <c r="Q73" s="17">
-        <f t="shared" si="154"/>
+        <f t="shared" si="159"/>
         <v>0.63975150996993846</v>
       </c>
       <c r="R73" s="17">
-        <f t="shared" si="154"/>
+        <f t="shared" si="159"/>
         <v>0.7014080119272128</v>
       </c>
       <c r="S73" s="17">
-        <f t="shared" si="154"/>
+        <f t="shared" si="159"/>
         <v>0.69352549102241356</v>
       </c>
       <c r="T73" s="17">
-        <f t="shared" si="154"/>
+        <f t="shared" si="159"/>
         <v>0.25268262434539124</v>
       </c>
       <c r="U73" s="17">
-        <f t="shared" si="154"/>
+        <f t="shared" si="159"/>
         <v>0.53863587626091669</v>
       </c>
       <c r="V73" s="17">
-        <f t="shared" si="154"/>
+        <f t="shared" si="159"/>
         <v>0.43768310227569973</v>
       </c>
       <c r="W73" s="17">
-        <f t="shared" si="154"/>
+        <f t="shared" si="159"/>
         <v>0.44334609226376598</v>
       </c>
       <c r="X73" s="17">
-        <f t="shared" si="154"/>
+        <f t="shared" si="159"/>
         <v>0.85513187408152214</v>
       </c>
       <c r="Y73" s="17">
-        <f t="shared" si="154"/>
+        <f t="shared" si="159"/>
         <v>0.17644422460462983</v>
       </c>
       <c r="Z73" s="17">
-        <f t="shared" si="154"/>
+        <f t="shared" si="159"/>
         <v>0.12573999149421988</v>
       </c>
       <c r="AA73" s="17">
-        <f t="shared" si="154"/>
+        <f t="shared" si="159"/>
         <v>-1.687129090216144E-2</v>
       </c>
       <c r="AB73" s="17">
-        <f t="shared" si="154"/>
+        <f t="shared" si="159"/>
         <v>-0.14356681259120285</v>
       </c>
       <c r="AC73" s="17">
-        <f t="shared" si="154"/>
+        <f t="shared" si="159"/>
         <v>9.1310326884837645E-2</v>
       </c>
       <c r="AD73" s="17">
-        <f t="shared" si="154"/>
+        <f t="shared" si="159"/>
         <v>-7.1807656331756897E-2</v>
       </c>
       <c r="AE73" s="17">
-        <f t="shared" ref="AE73" si="155">+AE42/AA42-1</f>
+        <f t="shared" ref="AE73:AF73" si="160">+AE42/AA42-1</f>
         <v>-0.16326888508921922</v>
       </c>
-      <c r="AF73" s="17"/>
-      <c r="AG73" s="17"/>
+      <c r="AF73" s="17">
+        <f t="shared" si="160"/>
+        <v>-1.4288113603890817E-3</v>
+      </c>
+      <c r="AG73" s="17">
+        <f t="shared" ref="AG73" si="161">+AG42/AC42-1</f>
+        <v>-4.756532622670262E-2</v>
+      </c>
       <c r="AH73" s="17"/>
-      <c r="AQ73" s="26">
-        <f t="shared" ref="AQ73:BA73" si="156">+AQ42/AP42-1</f>
+      <c r="AI73" s="17"/>
+      <c r="AJ73" s="17"/>
+      <c r="AK73" s="17"/>
+      <c r="AL73" s="17"/>
+      <c r="AU73" s="26">
+        <f t="shared" ref="AU73:BE73" si="162">+AU42/AT42-1</f>
         <v>0.39565262627590125</v>
       </c>
-      <c r="AR73" s="26">
-        <f t="shared" si="156"/>
+      <c r="AV73" s="26">
+        <f t="shared" si="162"/>
         <v>0.8252981439448186</v>
       </c>
-      <c r="AS73" s="26">
-        <f t="shared" si="156"/>
+      <c r="AW73" s="26">
+        <f t="shared" si="162"/>
         <v>0.47203204567389845</v>
       </c>
-      <c r="AT73" s="26">
-        <f t="shared" si="156"/>
+      <c r="AX73" s="26">
+        <f t="shared" si="162"/>
         <v>0.34781700789494252</v>
       </c>
-      <c r="AU73" s="26">
-        <f t="shared" si="156"/>
+      <c r="AY73" s="26">
+        <f t="shared" si="162"/>
         <v>-3.9297177387681903E-2</v>
       </c>
-      <c r="AV73" s="26">
-        <f t="shared" si="156"/>
+      <c r="AZ73" s="26">
+        <f t="shared" si="162"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AW73" s="26">
-        <f t="shared" si="156"/>
+      <c r="BA73" s="26">
+        <f t="shared" si="162"/>
         <v>0.25</v>
       </c>
-      <c r="AX73" s="26">
-        <f t="shared" si="156"/>
+      <c r="BB73" s="26">
+        <f t="shared" si="162"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AY73" s="26">
-        <f t="shared" si="156"/>
+      <c r="BC73" s="26">
+        <f t="shared" si="162"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AZ73" s="26">
-        <f t="shared" si="156"/>
+      <c r="BD73" s="26">
+        <f t="shared" si="162"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="BA73" s="26">
-        <f t="shared" si="156"/>
+      <c r="BE73" s="26">
+        <f t="shared" si="162"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="BB73" s="26">
-        <f t="shared" ref="BB73:BF73" si="157">+BB42/BA42-1</f>
+      <c r="BF73" s="26">
+        <f t="shared" ref="BF73:BJ73" si="163">+BF42/BE42-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="BC73" s="26">
-        <f t="shared" si="157"/>
+      <c r="BG73" s="26">
+        <f t="shared" si="163"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="BD73" s="26">
-        <f t="shared" si="157"/>
+      <c r="BH73" s="26">
+        <f t="shared" si="163"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="BE73" s="26">
-        <f t="shared" si="157"/>
+      <c r="BI73" s="26">
+        <f t="shared" si="163"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="BF73" s="26">
-        <f t="shared" si="157"/>
+      <c r="BJ73" s="26">
+        <f t="shared" si="163"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="74" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B74" s="19" t="s">
         <v>91</v>
       </c>
       <c r="K74" s="17">
-        <f t="shared" ref="K74:O74" si="158">K45/G45-1</f>
+        <f t="shared" ref="K74:O74" si="164">K45/G45-1</f>
         <v>0.39441436306640076</v>
       </c>
       <c r="L74" s="17">
-        <f t="shared" si="158"/>
+        <f t="shared" si="164"/>
         <v>-4.9729102167182626E-2</v>
       </c>
       <c r="M74" s="17">
-        <f t="shared" si="158"/>
+        <f t="shared" si="164"/>
         <v>0.43141075604053003</v>
       </c>
       <c r="N74" s="17">
-        <f t="shared" si="158"/>
+        <f t="shared" si="164"/>
         <v>0.4053394107113788</v>
       </c>
       <c r="O74" s="17">
-        <f t="shared" si="158"/>
+        <f t="shared" si="164"/>
         <v>0.67320662170447587</v>
       </c>
       <c r="P74" s="17">
@@ -8155,7 +8609,7 @@
         <v>0.9385053960496843</v>
       </c>
       <c r="Q74" s="17">
-        <f t="shared" ref="Q74" si="159">Q45/M45-1</f>
+        <f t="shared" ref="Q74" si="165">Q45/M45-1</f>
         <v>0.55091206098557044</v>
       </c>
       <c r="R74" s="17">
@@ -8163,19 +8617,19 @@
         <v>0.74041468782578468</v>
       </c>
       <c r="S74" s="17">
-        <f t="shared" ref="S74:U74" si="160">S45/O45-1</f>
+        <f t="shared" ref="S74:U74" si="166">S45/O45-1</f>
         <v>0.89495541712470983</v>
       </c>
       <c r="T74" s="17">
-        <f t="shared" si="160"/>
+        <f t="shared" si="166"/>
         <v>0.43592436974789917</v>
       </c>
       <c r="U74" s="17">
-        <f t="shared" si="160"/>
+        <f t="shared" si="166"/>
         <v>0.561046256473273</v>
       </c>
       <c r="V74" s="17">
-        <f t="shared" ref="V74" si="161">V45/R45-1</f>
+        <f t="shared" ref="V74" si="167">V45/R45-1</f>
         <v>0.39999999999999991</v>
       </c>
       <c r="W74" s="17">
@@ -8183,19 +8637,19 @@
         <v>0.21683640582699493</v>
       </c>
       <c r="X74" s="17">
-        <f t="shared" ref="X74" si="162">X45/T45-1</f>
+        <f t="shared" ref="X74" si="168">X45/T45-1</f>
         <v>0.49370885149963417</v>
       </c>
       <c r="Y74" s="17">
-        <f t="shared" ref="Y74" si="163">Y45/U45-1</f>
+        <f t="shared" ref="Y74" si="169">Y45/U45-1</f>
         <v>4.4813044700590332E-2</v>
       </c>
       <c r="Z74" s="17">
-        <f t="shared" ref="Z74:AE74" si="164">Z45/V45-1</f>
+        <f t="shared" ref="Z74:AF74" si="170">Z45/V45-1</f>
         <v>-1.9253624910862799E-2</v>
       </c>
       <c r="AA74" s="17">
-        <f t="shared" si="164"/>
+        <f t="shared" si="170"/>
         <v>-0.12808560228837795</v>
       </c>
       <c r="AB74" s="17">
@@ -8203,22 +8657,32 @@
         <v>-9.2511876193741127E-2</v>
       </c>
       <c r="AC74" s="17">
-        <f t="shared" si="164"/>
+        <f t="shared" si="170"/>
         <v>1.3400064578624526E-2</v>
       </c>
       <c r="AD74" s="17">
-        <f t="shared" si="164"/>
+        <f t="shared" si="170"/>
         <v>-9.5540475036354877E-2</v>
       </c>
       <c r="AE74" s="17">
-        <f t="shared" si="164"/>
+        <f t="shared" si="170"/>
         <v>-0.21476306196840822</v>
       </c>
-      <c r="AF74" s="17"/>
-      <c r="AG74" s="17"/>
+      <c r="AF74" s="17">
+        <f t="shared" si="170"/>
+        <v>-0.14803022126281706</v>
+      </c>
+      <c r="AG74" s="17">
+        <f t="shared" ref="AG74" si="171">AG45/AC45-1</f>
+        <v>8.1142796452657873E-2</v>
+      </c>
       <c r="AH74" s="17"/>
-    </row>
-    <row r="75" spans="2:109" x14ac:dyDescent="0.2">
+      <c r="AI74" s="17"/>
+      <c r="AJ74" s="17"/>
+      <c r="AK74" s="17"/>
+      <c r="AL74" s="17"/>
+    </row>
+    <row r="75" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B75" s="19" t="s">
         <v>90</v>
       </c>
@@ -8227,67 +8691,67 @@
       <c r="E75" s="17"/>
       <c r="F75" s="17"/>
       <c r="G75" s="17">
-        <f t="shared" ref="G75:K75" si="165">G53/G45</f>
+        <f t="shared" ref="G75:K75" si="172">G53/G45</f>
         <v>0.18609290396124251</v>
       </c>
       <c r="H75" s="17">
-        <f t="shared" si="165"/>
+        <f t="shared" si="172"/>
         <v>0.17685758513931887</v>
       </c>
       <c r="I75" s="17">
-        <f t="shared" si="165"/>
+        <f t="shared" si="172"/>
         <v>0.21784879189399844</v>
       </c>
       <c r="J75" s="17">
-        <f t="shared" si="165"/>
+        <f t="shared" si="172"/>
         <v>0.21618101904606871</v>
       </c>
       <c r="K75" s="17">
-        <f t="shared" si="165"/>
+        <f t="shared" si="172"/>
         <v>0.2440220723482526</v>
       </c>
       <c r="L75" s="17">
-        <f t="shared" ref="L75" si="166">L53/L45</f>
+        <f t="shared" ref="L75" si="173">L53/L45</f>
         <v>0.24373854612095297</v>
       </c>
       <c r="M75" s="17">
-        <f t="shared" ref="M75" si="167">M53/M45</f>
+        <f t="shared" ref="M75" si="174">M53/M45</f>
         <v>0.27021508303838826</v>
       </c>
       <c r="N75" s="17">
-        <f t="shared" ref="N75:U75" si="168">N53/N45</f>
+        <f t="shared" ref="N75:U75" si="175">N53/N45</f>
         <v>0.19819298042395458</v>
       </c>
       <c r="O75" s="17">
-        <f t="shared" si="168"/>
+        <f t="shared" si="175"/>
         <v>0.21131061438866497</v>
       </c>
       <c r="P75" s="17">
-        <f t="shared" si="168"/>
+        <f t="shared" si="175"/>
         <v>0.25220588235294117</v>
       </c>
       <c r="Q75" s="17">
-        <f t="shared" si="168"/>
+        <f t="shared" si="175"/>
         <v>0.28464846835776353</v>
       </c>
       <c r="R75" s="17">
-        <f t="shared" si="168"/>
+        <f t="shared" si="175"/>
         <v>0.28858569051580701</v>
       </c>
       <c r="S75" s="17">
-        <f t="shared" si="168"/>
+        <f t="shared" si="175"/>
         <v>0.29650638133298957</v>
       </c>
       <c r="T75" s="17">
-        <f t="shared" si="168"/>
+        <f t="shared" si="175"/>
         <v>0.25727871250914414</v>
       </c>
       <c r="U75" s="17">
-        <f t="shared" si="168"/>
+        <f t="shared" si="175"/>
         <v>0.26348046106269329</v>
       </c>
       <c r="V75" s="17">
-        <f t="shared" ref="V75:AE75" si="169">V53/V45</f>
+        <f t="shared" ref="V75:AE75" si="176">V53/V45</f>
         <v>0.26631804135963871</v>
       </c>
       <c r="W75" s="17">
@@ -8295,65 +8759,75 @@
         <v>0.1830702404915775</v>
       </c>
       <c r="X75" s="17">
-        <f t="shared" si="169"/>
+        <f t="shared" si="176"/>
         <v>0.17522895342573094</v>
       </c>
       <c r="Y75" s="17">
-        <f t="shared" si="169"/>
+        <f t="shared" si="176"/>
         <v>0.15746421267893659</v>
       </c>
       <c r="Z75" s="17">
-        <f t="shared" si="169"/>
+        <f t="shared" si="176"/>
         <v>0.16616577799321378</v>
       </c>
       <c r="AA75" s="17">
-        <f t="shared" si="169"/>
+        <f t="shared" si="176"/>
         <v>0.15571081409477522</v>
       </c>
       <c r="AB75" s="17">
-        <f t="shared" si="169"/>
+        <f t="shared" si="176"/>
         <v>0.13858607663248787</v>
       </c>
       <c r="AC75" s="17">
-        <f t="shared" si="169"/>
+        <f t="shared" si="176"/>
         <v>0.16398491848547608</v>
       </c>
       <c r="AD75" s="17">
-        <f t="shared" si="169"/>
+        <f t="shared" si="176"/>
         <v>0.12814191542955142</v>
       </c>
       <c r="AE75" s="17">
-        <f t="shared" si="169"/>
+        <f t="shared" si="176"/>
         <v>0.1132688588007737</v>
       </c>
-      <c r="AF75" s="17"/>
-      <c r="AG75" s="17"/>
+      <c r="AF75" s="17">
+        <f t="shared" ref="AF75:AG75" si="177">AF53/AF45</f>
+        <v>0.14062203078482297</v>
+      </c>
+      <c r="AG75" s="17">
+        <f t="shared" si="177"/>
+        <v>0.14706026818606022</v>
+      </c>
       <c r="AH75" s="17"/>
-      <c r="AQ75" s="17">
-        <f t="shared" ref="AQ75:AU75" si="170">AQ53/AQ45</f>
+      <c r="AI75" s="17"/>
+      <c r="AJ75" s="17"/>
+      <c r="AK75" s="17"/>
+      <c r="AL75" s="17"/>
+      <c r="AU75" s="17">
+        <f t="shared" ref="AU75:AY75" si="178">AU53/AU45</f>
         <v>0</v>
       </c>
-      <c r="AR75" s="17">
-        <f t="shared" si="170"/>
+      <c r="AV75" s="17">
+        <f t="shared" si="178"/>
         <v>0.38841926345609062</v>
       </c>
-      <c r="AS75" s="17">
-        <f t="shared" si="170"/>
+      <c r="AW75" s="17">
+        <f t="shared" si="178"/>
         <v>0.27064584436209632</v>
       </c>
-      <c r="AT75" s="17">
-        <f t="shared" si="170"/>
+      <c r="AX75" s="17">
+        <f t="shared" si="178"/>
         <v>0.17052821969455731</v>
       </c>
-      <c r="AU75" s="17">
-        <f t="shared" si="170"/>
+      <c r="AY75" s="17">
+        <f t="shared" si="178"/>
         <v>0.14638520971302429</v>
       </c>
-      <c r="AV75" s="17"/>
-      <c r="AW75" s="17"/>
-      <c r="AX75" s="17"/>
-    </row>
-    <row r="76" spans="2:109" x14ac:dyDescent="0.2">
+      <c r="AZ75" s="17"/>
+      <c r="BA75" s="17"/>
+      <c r="BB75" s="17"/>
+    </row>
+    <row r="76" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B76" s="19" t="s">
         <v>45</v>
       </c>
@@ -8362,31 +8836,31 @@
       <c r="E76" s="17"/>
       <c r="F76" s="17"/>
       <c r="G76" s="17">
-        <f t="shared" ref="G76:K76" si="171">+G59/G51</f>
+        <f t="shared" ref="G76:K76" si="179">+G59/G51</f>
         <v>0.1246421493063202</v>
       </c>
       <c r="H76" s="17">
-        <f t="shared" si="171"/>
+        <f t="shared" si="179"/>
         <v>0.14503937007874015</v>
       </c>
       <c r="I76" s="17">
-        <f t="shared" si="171"/>
+        <f t="shared" si="179"/>
         <v>0.18895763921941933</v>
       </c>
       <c r="J76" s="17">
-        <f t="shared" si="171"/>
+        <f t="shared" si="179"/>
         <v>0.18838028169014084</v>
       </c>
       <c r="K76" s="17">
-        <f t="shared" si="171"/>
+        <f t="shared" si="179"/>
         <v>0.20618212197159566</v>
       </c>
       <c r="L76" s="17">
-        <f t="shared" ref="L76" si="172">+L59/L51</f>
+        <f t="shared" ref="L76" si="180">+L59/L51</f>
         <v>0.20990722332670642</v>
       </c>
       <c r="M76" s="17">
-        <f t="shared" ref="M76" si="173">+M59/M51</f>
+        <f t="shared" ref="M76" si="181">+M59/M51</f>
         <v>0.23520693193478509</v>
       </c>
       <c r="N76" s="17">
@@ -8394,142 +8868,152 @@
         <v>0.19229337304542071</v>
       </c>
       <c r="O76" s="17">
-        <f t="shared" ref="O76:AE76" si="174">+O59/O51</f>
+        <f t="shared" ref="O76:AE76" si="182">+O59/O51</f>
         <v>0.21320627586870727</v>
       </c>
       <c r="P76" s="17">
-        <f t="shared" si="174"/>
+        <f t="shared" si="182"/>
         <v>0.24117745442381669</v>
       </c>
       <c r="Q76" s="17">
-        <f t="shared" si="174"/>
+        <f t="shared" si="182"/>
         <v>0.26604637639020134</v>
       </c>
       <c r="R76" s="17">
-        <f t="shared" si="174"/>
+        <f t="shared" si="182"/>
         <v>0.27354816863254133</v>
       </c>
       <c r="S76" s="17">
-        <f t="shared" si="174"/>
+        <f t="shared" si="182"/>
         <v>0.29110684580934099</v>
       </c>
       <c r="T76" s="17">
-        <f t="shared" si="174"/>
+        <f t="shared" si="182"/>
         <v>0.24997047360340144</v>
       </c>
       <c r="U76" s="17">
-        <f t="shared" si="174"/>
+        <f t="shared" si="182"/>
         <v>0.25086231005873033</v>
       </c>
       <c r="V76" s="17">
-        <f t="shared" si="174"/>
+        <f t="shared" si="182"/>
         <v>0.25257794296679104</v>
       </c>
       <c r="W76" s="17">
-        <f t="shared" si="174"/>
+        <f t="shared" si="182"/>
         <v>0.19336448197522396</v>
       </c>
       <c r="X76" s="17">
-        <f t="shared" si="174"/>
+        <f t="shared" si="182"/>
         <v>0.18185100493440848</v>
       </c>
       <c r="Y76" s="17">
-        <f t="shared" si="174"/>
+        <f t="shared" si="182"/>
         <v>0.17892933618843684</v>
       </c>
       <c r="Z76" s="17">
-        <f t="shared" si="174"/>
+        <f t="shared" si="182"/>
         <v>0.17634203520483172</v>
       </c>
       <c r="AA76" s="17">
-        <f t="shared" si="174"/>
+        <f t="shared" si="182"/>
         <v>0.1735129806112389</v>
       </c>
       <c r="AB76" s="41">
-        <f t="shared" si="174"/>
+        <f t="shared" si="182"/>
         <v>0.17952941176470588</v>
       </c>
       <c r="AC76" s="17">
-        <f t="shared" si="174"/>
+        <f t="shared" si="182"/>
         <v>0.19843539035819235</v>
       </c>
       <c r="AD76" s="17">
-        <f t="shared" si="174"/>
+        <f t="shared" si="182"/>
         <v>0.16256272610572994</v>
       </c>
       <c r="AE76" s="17">
-        <f t="shared" si="174"/>
+        <f t="shared" si="182"/>
         <v>0.16307214895267649</v>
       </c>
-      <c r="AF76" s="17"/>
-      <c r="AG76" s="17"/>
+      <c r="AF76" s="17">
+        <f t="shared" ref="AF76:AG76" si="183">+AF59/AF51</f>
+        <v>0.17238620199146515</v>
+      </c>
+      <c r="AG76" s="17">
+        <f t="shared" si="183"/>
+        <v>0.1798896600818651</v>
+      </c>
       <c r="AH76" s="17"/>
-      <c r="AQ76" s="17">
-        <f t="shared" ref="AQ76:BF76" si="175">+AQ59/AQ51</f>
+      <c r="AI76" s="17"/>
+      <c r="AJ76" s="17"/>
+      <c r="AK76" s="17"/>
+      <c r="AL76" s="17"/>
+      <c r="AU76" s="17">
+        <f t="shared" ref="AU76:BJ76" si="184">+AU59/AU51</f>
         <v>0</v>
       </c>
-      <c r="AR76" s="17">
-        <f t="shared" si="175"/>
+      <c r="AV76" s="17">
+        <f t="shared" si="184"/>
         <v>0</v>
       </c>
-      <c r="AS76" s="17">
-        <f t="shared" si="175"/>
+      <c r="AW76" s="17">
+        <f t="shared" si="184"/>
         <v>0.25</v>
       </c>
-      <c r="AT76" s="17">
-        <f t="shared" si="175"/>
+      <c r="AX76" s="17">
+        <f t="shared" si="184"/>
         <v>0.18248891736331416</v>
       </c>
-      <c r="AU76" s="17">
-        <f t="shared" si="175"/>
+      <c r="AY76" s="17">
+        <f t="shared" si="184"/>
         <v>0.17768652900085441</v>
       </c>
-      <c r="AV76" s="17">
-        <f t="shared" si="175"/>
+      <c r="AZ76" s="17">
+        <f t="shared" si="184"/>
         <v>0.23216119570238383</v>
       </c>
-      <c r="AW76" s="17">
-        <f t="shared" si="175"/>
+      <c r="BA76" s="17">
+        <f t="shared" si="184"/>
         <v>0.25796313351448891</v>
       </c>
-      <c r="AX76" s="17">
-        <f t="shared" si="175"/>
+      <c r="BB76" s="17">
+        <f t="shared" si="184"/>
         <v>0.25431009556405426</v>
       </c>
-      <c r="AY76" s="17">
-        <f t="shared" si="175"/>
+      <c r="BC76" s="17">
+        <f t="shared" si="184"/>
         <v>0.27102711464213647</v>
       </c>
-      <c r="AZ76" s="17">
-        <f t="shared" si="175"/>
+      <c r="BD76" s="17">
+        <f t="shared" si="184"/>
         <v>0.28685129119058844</v>
       </c>
-      <c r="BA76" s="17">
-        <f t="shared" si="175"/>
+      <c r="BE76" s="17">
+        <f t="shared" si="184"/>
         <v>0.30196304430560833</v>
       </c>
-      <c r="BB76" s="17">
-        <f t="shared" si="175"/>
+      <c r="BF76" s="17">
+        <f t="shared" si="184"/>
         <v>0.30216789387654019</v>
       </c>
-      <c r="BC76" s="17">
-        <f t="shared" si="175"/>
+      <c r="BG76" s="17">
+        <f t="shared" si="184"/>
         <v>0.3023098918268608</v>
       </c>
-      <c r="BD76" s="17">
-        <f t="shared" si="175"/>
+      <c r="BH76" s="17">
+        <f t="shared" si="184"/>
         <v>0.30239326077047363</v>
       </c>
-      <c r="BE76" s="17">
-        <f t="shared" si="175"/>
+      <c r="BI76" s="17">
+        <f t="shared" si="184"/>
         <v>0.30242195655828835</v>
       </c>
-      <c r="BF76" s="17">
-        <f t="shared" si="175"/>
+      <c r="BJ76" s="17">
+        <f t="shared" si="184"/>
         <v>0.30239968761197145</v>
       </c>
     </row>
-    <row r="77" spans="2:109" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:113" x14ac:dyDescent="0.25">
       <c r="B77" s="15"/>
       <c r="R77" s="17"/>
       <c r="S77" s="17"/>
@@ -8548,16 +9032,20 @@
       <c r="AF77" s="17"/>
       <c r="AG77" s="17"/>
       <c r="AH77" s="17"/>
-    </row>
-    <row r="78" spans="2:109" x14ac:dyDescent="0.2">
-      <c r="BG78" s="28" t="s">
+      <c r="AI77" s="17"/>
+      <c r="AJ77" s="17"/>
+      <c r="AK77" s="17"/>
+      <c r="AL77" s="17"/>
+    </row>
+    <row r="78" spans="2:113" x14ac:dyDescent="0.25">
+      <c r="BK78" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="BH78" s="26">
+      <c r="BL78" s="26">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="79" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:113" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="4" t="s">
         <v>55</v>
       </c>
@@ -8572,27 +9060,27 @@
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
       <c r="M79" s="5">
-        <f t="shared" ref="M79:R79" si="176">M67</f>
+        <f t="shared" ref="M79:R79" si="185">M67</f>
         <v>300</v>
       </c>
       <c r="N79" s="5">
-        <f t="shared" si="176"/>
+        <f t="shared" si="185"/>
         <v>270</v>
       </c>
       <c r="O79" s="5">
-        <f t="shared" si="176"/>
+        <f t="shared" si="185"/>
         <v>337</v>
       </c>
       <c r="P79" s="5">
-        <f t="shared" si="176"/>
+        <f t="shared" si="185"/>
         <v>1165</v>
       </c>
       <c r="Q79" s="5">
-        <f t="shared" si="176"/>
+        <f t="shared" si="185"/>
         <v>1669</v>
       </c>
       <c r="R79" s="5">
-        <f t="shared" si="176"/>
+        <f t="shared" si="185"/>
         <v>2321</v>
       </c>
       <c r="S79" s="5">
@@ -8608,31 +9096,31 @@
         <v>3331</v>
       </c>
       <c r="V79" s="5">
-        <f t="shared" ref="V79:AE79" si="177">V67</f>
+        <f t="shared" ref="V79:AG79" si="186">V67</f>
         <v>3468.7999999999984</v>
       </c>
       <c r="W79" s="5">
-        <f t="shared" si="177"/>
+        <f t="shared" si="186"/>
         <v>2513</v>
       </c>
       <c r="X79" s="5">
-        <f t="shared" si="177"/>
+        <f t="shared" si="186"/>
         <v>2703</v>
       </c>
       <c r="Y79" s="5">
-        <f t="shared" si="177"/>
+        <f t="shared" si="186"/>
         <v>1853</v>
       </c>
       <c r="Z79" s="5">
-        <f t="shared" si="177"/>
+        <f t="shared" si="186"/>
         <v>2176</v>
       </c>
       <c r="AA79" s="5">
-        <f t="shared" si="177"/>
+        <f t="shared" si="186"/>
         <v>1129</v>
       </c>
       <c r="AB79" s="5">
-        <f t="shared" si="177"/>
+        <f t="shared" si="186"/>
         <v>2100</v>
       </c>
       <c r="AC79" s="5">
@@ -8640,24 +9128,34 @@
         <v>2222</v>
       </c>
       <c r="AD79" s="5">
-        <f t="shared" si="177"/>
+        <f t="shared" si="186"/>
         <v>2135</v>
       </c>
       <c r="AE79" s="5">
-        <f t="shared" si="177"/>
+        <f t="shared" si="186"/>
         <v>503</v>
       </c>
-      <c r="AF79" s="5"/>
-      <c r="AG79" s="5"/>
+      <c r="AF79" s="5">
+        <f t="shared" si="186"/>
+        <v>870</v>
+      </c>
+      <c r="AG79" s="5">
+        <f t="shared" si="186"/>
+        <v>1655</v>
+      </c>
       <c r="AH79" s="5"/>
-      <c r="BG79" s="28" t="s">
+      <c r="AI79" s="5"/>
+      <c r="AJ79" s="5"/>
+      <c r="AK79" s="5"/>
+      <c r="AL79" s="5"/>
+      <c r="BK79" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="BH79" s="30">
+      <c r="BL79" s="30">
         <v>0.08</v>
       </c>
     </row>
-    <row r="80" spans="2:109" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:113" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="4" t="s">
         <v>56</v>
       </c>
@@ -8727,18 +9225,26 @@
       <c r="AE80" s="5">
         <v>420</v>
       </c>
-      <c r="AF80" s="5"/>
-      <c r="AG80" s="5"/>
+      <c r="AF80" s="5">
+        <v>1190</v>
+      </c>
+      <c r="AG80" s="5">
+        <v>1389</v>
+      </c>
       <c r="AH80" s="5"/>
-      <c r="BG80" s="28" t="s">
+      <c r="AI80" s="5"/>
+      <c r="AJ80" s="5"/>
+      <c r="AK80" s="5"/>
+      <c r="AL80" s="5"/>
+      <c r="BK80" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="BH80" s="4">
-        <f>NPV(BH79,AV67:DF67)+Main!K5-Main!K6</f>
-        <v>1191764.2410756461</v>
-      </c>
-    </row>
-    <row r="81" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BL80" s="4">
+        <f>NPV(BL79,AZ67:DJ67)+Main!K5-Main!K6</f>
+        <v>1196242.2410756461</v>
+      </c>
+    </row>
+    <row r="81" spans="2:64" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="4" t="s">
         <v>57</v>
       </c>
@@ -8808,17 +9314,25 @@
       <c r="AE81" s="5">
         <v>1447</v>
       </c>
-      <c r="AF81" s="5"/>
-      <c r="AG81" s="5"/>
+      <c r="AF81" s="5">
+        <v>1433</v>
+      </c>
+      <c r="AG81" s="5">
+        <v>1625</v>
+      </c>
       <c r="AH81" s="5"/>
-      <c r="BG81" s="28" t="s">
+      <c r="AI81" s="5"/>
+      <c r="AJ81" s="5"/>
+      <c r="AK81" s="5"/>
+      <c r="AL81" s="5"/>
+      <c r="BK81" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="BH81" s="26">
+      <c r="BL81" s="26">
         <v>0.1</v>
       </c>
     </row>
-    <row r="82" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:64" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="4" t="s">
         <v>58</v>
       </c>
@@ -8888,18 +9402,26 @@
       <c r="AE82" s="5">
         <v>573</v>
       </c>
-      <c r="AF82" s="5"/>
-      <c r="AG82" s="5"/>
+      <c r="AF82" s="5">
+        <v>635</v>
+      </c>
+      <c r="AG82" s="5">
+        <v>663</v>
+      </c>
       <c r="AH82" s="5"/>
-      <c r="BG82" s="28" t="s">
+      <c r="AI82" s="5"/>
+      <c r="AJ82" s="5"/>
+      <c r="AK82" s="5"/>
+      <c r="AL82" s="5"/>
+      <c r="BK82" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="BH82" s="20">
-        <f>BH80/Main!K3</f>
-        <v>338.47322950174555</v>
-      </c>
-    </row>
-    <row r="83" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BL82" s="20">
+        <f>BL80/Main!K3</f>
+        <v>339.26325611901478</v>
+      </c>
+    </row>
+    <row r="83" spans="2:64" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="4" t="s">
         <v>59</v>
       </c>
@@ -8947,11 +9469,19 @@
       <c r="AE83" s="5">
         <v>0</v>
       </c>
-      <c r="AF83" s="5"/>
-      <c r="AG83" s="5"/>
+      <c r="AF83" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG83" s="5">
+        <v>0</v>
+      </c>
       <c r="AH83" s="5"/>
-    </row>
-    <row r="84" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AI83" s="5"/>
+      <c r="AJ83" s="5"/>
+      <c r="AK83" s="5"/>
+      <c r="AL83" s="5"/>
+    </row>
+    <row r="84" spans="2:64" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
         <v>80</v>
       </c>
@@ -9028,11 +9558,21 @@
         <f>-43+188</f>
         <v>145</v>
       </c>
-      <c r="AF84" s="5"/>
-      <c r="AG84" s="5"/>
+      <c r="AF84" s="5">
+        <f>52+187</f>
+        <v>239</v>
+      </c>
+      <c r="AG84" s="5">
+        <f>225+333</f>
+        <v>558</v>
+      </c>
       <c r="AH84" s="5"/>
-    </row>
-    <row r="85" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AI84" s="5"/>
+      <c r="AJ84" s="5"/>
+      <c r="AK84" s="5"/>
+      <c r="AL84" s="5"/>
+    </row>
+    <row r="85" spans="2:64" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B85" s="4" t="s">
         <v>60</v>
       </c>
@@ -9080,11 +9620,19 @@
       <c r="AE85" s="5">
         <v>0</v>
       </c>
-      <c r="AF85" s="5"/>
-      <c r="AG85" s="5"/>
+      <c r="AF85" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG85" s="5">
+        <v>0</v>
+      </c>
       <c r="AH85" s="5"/>
-    </row>
-    <row r="86" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AI85" s="5"/>
+      <c r="AJ85" s="5"/>
+      <c r="AK85" s="5"/>
+      <c r="AL85" s="5"/>
+    </row>
+    <row r="86" spans="2:64" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B86" s="18" t="s">
         <v>69</v>
       </c>
@@ -9130,11 +9678,19 @@
       <c r="AE86" s="5">
         <v>125</v>
       </c>
-      <c r="AF86" s="5"/>
-      <c r="AG86" s="5"/>
+      <c r="AF86" s="5">
+        <v>-284</v>
+      </c>
+      <c r="AG86" s="5">
+        <v>-80</v>
+      </c>
       <c r="AH86" s="5"/>
-    </row>
-    <row r="87" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AI86" s="5"/>
+      <c r="AJ86" s="5"/>
+      <c r="AK86" s="5"/>
+      <c r="AL86" s="5"/>
+    </row>
+    <row r="87" spans="2:64" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B87" s="4" t="s">
         <v>61</v>
       </c>
@@ -9205,11 +9761,19 @@
       <c r="AE87" s="5">
         <v>-554</v>
       </c>
-      <c r="AF87" s="5"/>
-      <c r="AG87" s="5"/>
+      <c r="AF87" s="5">
+        <v>-673</v>
+      </c>
+      <c r="AG87" s="5">
+        <v>2083</v>
+      </c>
       <c r="AH87" s="5"/>
-    </row>
-    <row r="88" spans="2:60" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AI87" s="5"/>
+      <c r="AJ87" s="5"/>
+      <c r="AK87" s="5"/>
+      <c r="AL87" s="5"/>
+    </row>
+    <row r="88" spans="2:64" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B88" s="6" t="s">
         <v>62</v>
       </c>
@@ -9225,94 +9789,104 @@
       <c r="L88" s="7"/>
       <c r="M88" s="7"/>
       <c r="N88" s="7">
-        <f t="shared" ref="N88:R88" si="178">SUM(N80:N87)</f>
+        <f t="shared" ref="N88:R88" si="187">SUM(N80:N87)</f>
         <v>3019</v>
       </c>
       <c r="O88" s="7">
-        <f t="shared" si="178"/>
+        <f t="shared" si="187"/>
         <v>1641</v>
       </c>
       <c r="P88" s="7">
-        <f t="shared" si="178"/>
+        <f t="shared" si="187"/>
         <v>2124</v>
       </c>
       <c r="Q88" s="7">
-        <f t="shared" si="178"/>
+        <f t="shared" si="187"/>
         <v>3147</v>
       </c>
       <c r="R88" s="7">
-        <f t="shared" si="178"/>
+        <f t="shared" si="187"/>
         <v>4585</v>
       </c>
       <c r="S88" s="7">
-        <f t="shared" ref="S88:AE88" si="179">SUM(S80:S87)</f>
+        <f t="shared" ref="S88:AG88" si="188">SUM(S80:S87)</f>
         <v>3995</v>
       </c>
       <c r="T88" s="7">
-        <f t="shared" si="179"/>
+        <f t="shared" si="188"/>
         <v>2351</v>
       </c>
       <c r="U88" s="7">
-        <f t="shared" si="179"/>
+        <f t="shared" si="188"/>
         <v>5100</v>
       </c>
       <c r="V88" s="7">
-        <f t="shared" si="179"/>
+        <f t="shared" si="188"/>
         <v>3278</v>
       </c>
       <c r="W88" s="7">
-        <f t="shared" si="179"/>
+        <f t="shared" si="188"/>
         <v>2513</v>
       </c>
       <c r="X88" s="7">
-        <f t="shared" si="179"/>
+        <f t="shared" si="188"/>
         <v>3065</v>
       </c>
       <c r="Y88" s="7">
-        <f t="shared" si="179"/>
+        <f t="shared" si="188"/>
         <v>3308</v>
       </c>
       <c r="Z88" s="7">
-        <f t="shared" si="179"/>
+        <f t="shared" si="188"/>
         <v>4370</v>
       </c>
       <c r="AA88" s="7">
-        <f t="shared" si="179"/>
+        <f t="shared" si="188"/>
         <v>242</v>
       </c>
       <c r="AB88" s="7">
-        <f t="shared" si="179"/>
+        <f t="shared" si="188"/>
         <v>3612</v>
       </c>
       <c r="AC88" s="7">
-        <f t="shared" si="179"/>
+        <f t="shared" si="188"/>
         <v>6255</v>
       </c>
       <c r="AD88" s="7">
-        <f t="shared" si="179"/>
+        <f t="shared" si="188"/>
         <v>4814</v>
       </c>
       <c r="AE88" s="7">
-        <f t="shared" si="179"/>
+        <f t="shared" si="188"/>
         <v>2156</v>
       </c>
-      <c r="AF88" s="7"/>
-      <c r="AG88" s="7"/>
+      <c r="AF88" s="7">
+        <f t="shared" si="188"/>
+        <v>2540</v>
+      </c>
+      <c r="AG88" s="7">
+        <f t="shared" si="188"/>
+        <v>6238</v>
+      </c>
       <c r="AH88" s="7"/>
-      <c r="AR88" s="6">
+      <c r="AI88" s="7"/>
+      <c r="AJ88" s="7"/>
+      <c r="AK88" s="7"/>
+      <c r="AL88" s="7"/>
+      <c r="AV88" s="6">
         <f>SUM(O88:R88)</f>
         <v>11497</v>
       </c>
-      <c r="AS88" s="6">
+      <c r="AW88" s="6">
         <f>SUM(S88:V88)</f>
         <v>14724</v>
       </c>
-      <c r="AT88" s="6">
+      <c r="AX88" s="6">
         <f>SUM(W88:Z88)</f>
         <v>13256</v>
       </c>
     </row>
-    <row r="89" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:64" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -9345,8 +9919,12 @@
       <c r="AF89" s="5"/>
       <c r="AG89" s="5"/>
       <c r="AH89" s="5"/>
-    </row>
-    <row r="90" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AI89" s="5"/>
+      <c r="AJ89" s="5"/>
+      <c r="AK89" s="5"/>
+      <c r="AL89" s="5"/>
+    </row>
+    <row r="90" spans="2:64" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
         <v>81</v>
       </c>
@@ -9417,24 +9995,32 @@
       <c r="AE90" s="5">
         <v>-1492</v>
       </c>
-      <c r="AF90" s="5"/>
-      <c r="AG90" s="5"/>
+      <c r="AF90" s="5">
+        <v>-2394</v>
+      </c>
+      <c r="AG90" s="5">
+        <v>-2248</v>
+      </c>
       <c r="AH90" s="5"/>
-      <c r="AR90" s="4">
+      <c r="AI90" s="5"/>
+      <c r="AJ90" s="5"/>
+      <c r="AK90" s="5"/>
+      <c r="AL90" s="5"/>
+      <c r="AV90" s="4">
         <f>SUM(O90:R90)</f>
         <v>6482</v>
       </c>
-      <c r="AS90" s="4">
+      <c r="AW90" s="4">
         <f>SUM(S90:V90)</f>
         <v>7158</v>
       </c>
-      <c r="AT90" s="4">
+      <c r="AX90" s="4">
         <f>SUM(W90:Z90)</f>
         <v>8898</v>
       </c>
     </row>
-    <row r="91" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="45" t="s">
+    <row r="91" spans="2:64" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="44" t="s">
         <v>177</v>
       </c>
       <c r="C91" s="5"/>
@@ -9481,11 +10067,21 @@
         <f>-6015+5856</f>
         <v>-159</v>
       </c>
-      <c r="AF91" s="5"/>
-      <c r="AG91" s="5"/>
+      <c r="AF91" s="5">
+        <f>-7485+6935</f>
+        <v>-550</v>
+      </c>
+      <c r="AG91" s="5">
+        <f>-11402+9295</f>
+        <v>-2107</v>
+      </c>
       <c r="AH91" s="5"/>
-    </row>
-    <row r="92" spans="2:60" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AI91" s="5"/>
+      <c r="AJ91" s="5"/>
+      <c r="AK91" s="5"/>
+      <c r="AL91" s="5"/>
+    </row>
+    <row r="92" spans="2:64" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B92" s="6" t="s">
         <v>178</v>
       </c>
@@ -9514,30 +10110,40 @@
       <c r="Y92" s="7"/>
       <c r="Z92" s="7"/>
       <c r="AA92" s="7">
-        <f t="shared" ref="AA92:AD92" si="180">+AA91+AA90</f>
+        <f t="shared" ref="AA92:AD92" si="189">+AA91+AA90</f>
         <v>-5084</v>
       </c>
       <c r="AB92" s="7">
-        <f t="shared" si="180"/>
+        <f t="shared" si="189"/>
         <v>-3525</v>
       </c>
       <c r="AC92" s="7">
-        <f t="shared" si="180"/>
+        <f t="shared" si="189"/>
         <v>-2875</v>
       </c>
       <c r="AD92" s="7">
-        <f t="shared" si="180"/>
+        <f t="shared" si="189"/>
         <v>-7603</v>
       </c>
       <c r="AE92" s="7">
         <f>+AE91+AE90</f>
         <v>-1651</v>
       </c>
-      <c r="AF92" s="7"/>
-      <c r="AG92" s="7"/>
+      <c r="AF92" s="7">
+        <f>+AF91+AF90</f>
+        <v>-2944</v>
+      </c>
+      <c r="AG92" s="7">
+        <f>+AG91+AG90</f>
+        <v>-4355</v>
+      </c>
       <c r="AH92" s="7"/>
-    </row>
-    <row r="93" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AI92" s="7"/>
+      <c r="AJ92" s="7"/>
+      <c r="AK92" s="7"/>
+      <c r="AL92" s="7"/>
+    </row>
+    <row r="93" spans="2:64" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B93" s="10"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
@@ -9571,9 +10177,13 @@
       <c r="AF93" s="5"/>
       <c r="AG93" s="5"/>
       <c r="AH93" s="5"/>
-    </row>
-    <row r="94" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="45" t="s">
+      <c r="AI93" s="5"/>
+      <c r="AJ93" s="5"/>
+      <c r="AK93" s="5"/>
+      <c r="AL93" s="5"/>
+    </row>
+    <row r="94" spans="2:64" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="44" t="s">
         <v>4</v>
       </c>
       <c r="C94" s="5"/>
@@ -9615,12 +10225,20 @@
       <c r="AE94" s="5">
         <v>-50</v>
       </c>
-      <c r="AF94" s="5"/>
-      <c r="AG94" s="5"/>
+      <c r="AF94" s="5">
+        <v>-23</v>
+      </c>
+      <c r="AG94" s="5">
+        <v>410</v>
+      </c>
       <c r="AH94" s="5"/>
-    </row>
-    <row r="95" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="45" t="s">
+      <c r="AI94" s="5"/>
+      <c r="AJ94" s="5"/>
+      <c r="AK94" s="5"/>
+      <c r="AL94" s="5"/>
+    </row>
+    <row r="95" spans="2:64" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="44" t="s">
         <v>179</v>
       </c>
       <c r="C95" s="5"/>
@@ -9662,12 +10280,20 @@
       <c r="AE95" s="5">
         <v>-674</v>
       </c>
-      <c r="AF95" s="5"/>
-      <c r="AG95" s="5"/>
+      <c r="AF95" s="5">
+        <v>-400</v>
+      </c>
+      <c r="AG95" s="5">
+        <v>81</v>
+      </c>
       <c r="AH95" s="5"/>
-    </row>
-    <row r="96" spans="2:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="45" t="s">
+      <c r="AI95" s="5"/>
+      <c r="AJ95" s="5"/>
+      <c r="AK95" s="5"/>
+      <c r="AL95" s="5"/>
+    </row>
+    <row r="96" spans="2:64" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="44" t="s">
         <v>180</v>
       </c>
       <c r="C96" s="5"/>
@@ -9709,12 +10335,20 @@
       <c r="AE96" s="5">
         <v>-22</v>
       </c>
-      <c r="AF96" s="5"/>
-      <c r="AG96" s="5"/>
+      <c r="AF96" s="5">
+        <v>-14</v>
+      </c>
+      <c r="AG96" s="5">
+        <v>-20</v>
+      </c>
       <c r="AH96" s="5"/>
-    </row>
-    <row r="97" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="45" t="s">
+      <c r="AI96" s="5"/>
+      <c r="AJ96" s="5"/>
+      <c r="AK96" s="5"/>
+      <c r="AL96" s="5"/>
+    </row>
+    <row r="97" spans="2:62" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="44" t="s">
         <v>181</v>
       </c>
       <c r="C97" s="5"/>
@@ -9756,11 +10390,19 @@
       <c r="AE97" s="5">
         <v>414</v>
       </c>
-      <c r="AF97" s="5"/>
-      <c r="AG97" s="5"/>
+      <c r="AF97" s="5">
+        <v>215</v>
+      </c>
+      <c r="AG97" s="5">
+        <v>512</v>
+      </c>
       <c r="AH97" s="5"/>
-    </row>
-    <row r="98" spans="2:58" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AI97" s="5"/>
+      <c r="AJ97" s="5"/>
+      <c r="AK97" s="5"/>
+      <c r="AL97" s="5"/>
+    </row>
+    <row r="98" spans="2:62" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B98" s="6" t="s">
         <v>182</v>
       </c>
@@ -9789,30 +10431,40 @@
       <c r="Y98" s="7"/>
       <c r="Z98" s="7"/>
       <c r="AA98" s="7">
-        <f t="shared" ref="AA98:AD98" si="181">SUM(AA94:AA97)</f>
+        <f t="shared" ref="AA98:AD98" si="190">SUM(AA94:AA97)</f>
         <v>196</v>
       </c>
       <c r="AB98" s="7">
-        <f t="shared" si="181"/>
+        <f t="shared" si="190"/>
         <v>2540</v>
       </c>
       <c r="AC98" s="7">
-        <f t="shared" si="181"/>
+        <f t="shared" si="190"/>
         <v>132</v>
       </c>
       <c r="AD98" s="7">
-        <f t="shared" si="181"/>
+        <f t="shared" si="190"/>
         <v>985</v>
       </c>
       <c r="AE98" s="7">
         <f>SUM(AE94:AE97)</f>
         <v>-332</v>
       </c>
-      <c r="AF98" s="7"/>
-      <c r="AG98" s="7"/>
+      <c r="AF98" s="7">
+        <f>SUM(AF94:AF97)</f>
+        <v>-222</v>
+      </c>
+      <c r="AG98" s="7">
+        <f>SUM(AG94:AG97)</f>
+        <v>983</v>
+      </c>
       <c r="AH98" s="7"/>
-    </row>
-    <row r="99" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AI98" s="7"/>
+      <c r="AJ98" s="7"/>
+      <c r="AK98" s="7"/>
+      <c r="AL98" s="7"/>
+    </row>
+    <row r="99" spans="2:62" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B99" s="10"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
@@ -9846,8 +10498,12 @@
       <c r="AF99" s="5"/>
       <c r="AG99" s="5"/>
       <c r="AH99" s="5"/>
-    </row>
-    <row r="100" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AI99" s="5"/>
+      <c r="AJ99" s="5"/>
+      <c r="AK99" s="5"/>
+      <c r="AL99" s="5"/>
+    </row>
+    <row r="100" spans="2:62" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
         <v>82</v>
       </c>
@@ -9895,23 +10551,33 @@
         <f>+AE88+AE90</f>
         <v>664</v>
       </c>
-      <c r="AF100" s="5"/>
-      <c r="AG100" s="5"/>
+      <c r="AF100" s="5">
+        <f t="shared" ref="AF100:AG100" si="191">+AF88+AF90</f>
+        <v>146</v>
+      </c>
+      <c r="AG100" s="5">
+        <f t="shared" si="191"/>
+        <v>3990</v>
+      </c>
       <c r="AH100" s="5"/>
-      <c r="AR100" s="4">
-        <f>+AR88-AR90</f>
+      <c r="AI100" s="5"/>
+      <c r="AJ100" s="5"/>
+      <c r="AK100" s="5"/>
+      <c r="AL100" s="5"/>
+      <c r="AV100" s="4">
+        <f>+AV88-AV90</f>
         <v>5015</v>
       </c>
-      <c r="AS100" s="4">
-        <f>+AS88-AS90</f>
+      <c r="AW100" s="4">
+        <f>+AW88-AW90</f>
         <v>7566</v>
       </c>
-      <c r="AT100" s="4">
-        <f>+AT88-AT90</f>
+      <c r="AX100" s="4">
+        <f>+AX88-AX90</f>
         <v>4358</v>
       </c>
     </row>
-    <row r="101" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:62" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>83</v>
       </c>
@@ -9930,70 +10596,80 @@
       <c r="O101" s="5"/>
       <c r="P101" s="5"/>
       <c r="Q101" s="7">
-        <f t="shared" ref="Q101:V101" si="182">SUM(N100:Q100)</f>
+        <f t="shared" ref="Q101:V101" si="192">SUM(N100:Q100)</f>
         <v>0</v>
       </c>
       <c r="R101" s="7">
-        <f t="shared" si="182"/>
+        <f t="shared" si="192"/>
         <v>0</v>
       </c>
       <c r="S101" s="7">
-        <f t="shared" si="182"/>
+        <f t="shared" si="192"/>
         <v>0</v>
       </c>
       <c r="T101" s="7">
-        <f t="shared" si="182"/>
+        <f t="shared" si="192"/>
         <v>0</v>
       </c>
       <c r="U101" s="7">
-        <f t="shared" si="182"/>
+        <f t="shared" si="192"/>
         <v>0</v>
       </c>
       <c r="V101" s="7">
-        <f t="shared" si="182"/>
+        <f t="shared" si="192"/>
         <v>0</v>
       </c>
       <c r="W101" s="7">
-        <f t="shared" ref="W101:AE101" si="183">SUM(T100:W100)</f>
+        <f t="shared" ref="W101:AE101" si="193">SUM(T100:W100)</f>
         <v>0</v>
       </c>
       <c r="X101" s="7">
-        <f t="shared" si="183"/>
+        <f t="shared" si="193"/>
         <v>0</v>
       </c>
       <c r="Y101" s="7">
-        <f t="shared" si="183"/>
+        <f t="shared" si="193"/>
         <v>0</v>
       </c>
       <c r="Z101" s="7">
-        <f t="shared" si="183"/>
+        <f t="shared" si="193"/>
         <v>0</v>
       </c>
       <c r="AA101" s="7">
-        <f t="shared" si="183"/>
+        <f t="shared" si="193"/>
         <v>-2535</v>
       </c>
       <c r="AB101" s="7">
-        <f t="shared" si="183"/>
+        <f t="shared" si="193"/>
         <v>-1195</v>
       </c>
       <c r="AC101" s="7">
-        <f t="shared" si="183"/>
+        <f t="shared" si="193"/>
         <v>1547</v>
       </c>
       <c r="AD101" s="7">
-        <f t="shared" si="183"/>
+        <f t="shared" si="193"/>
         <v>3581</v>
       </c>
       <c r="AE101" s="7">
-        <f t="shared" si="183"/>
+        <f t="shared" si="193"/>
         <v>6780</v>
       </c>
-      <c r="AF101" s="5"/>
-      <c r="AG101" s="5"/>
+      <c r="AF101" s="7">
+        <f t="shared" ref="AF101" si="194">SUM(AC100:AF100)</f>
+        <v>5586</v>
+      </c>
+      <c r="AG101" s="7">
+        <f t="shared" ref="AG101" si="195">SUM(AD100:AG100)</f>
+        <v>6834</v>
+      </c>
       <c r="AH101" s="5"/>
-    </row>
-    <row r="102" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AI101" s="5"/>
+      <c r="AJ101" s="5"/>
+      <c r="AK101" s="5"/>
+      <c r="AL101" s="5"/>
+    </row>
+    <row r="102" spans="2:62" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
@@ -10026,8 +10702,12 @@
       <c r="AF102" s="5"/>
       <c r="AG102" s="5"/>
       <c r="AH102" s="5"/>
-    </row>
-    <row r="103" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AI102" s="5"/>
+      <c r="AJ102" s="5"/>
+      <c r="AK102" s="5"/>
+      <c r="AL102" s="5"/>
+    </row>
+    <row r="103" spans="2:62" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B103" s="29" t="s">
         <v>115</v>
       </c>
@@ -10056,94 +10736,104 @@
         <v>19726</v>
       </c>
       <c r="X103" s="5">
-        <f t="shared" ref="X103:AE103" si="184">X104-X121</f>
+        <f t="shared" ref="X103:AG103" si="196">X104-X121</f>
         <v>25105</v>
       </c>
       <c r="Y103" s="5">
-        <f t="shared" si="184"/>
+        <f t="shared" si="196"/>
         <v>26958</v>
       </c>
       <c r="Z103" s="5">
-        <f t="shared" si="184"/>
+        <f t="shared" si="196"/>
         <v>23864</v>
       </c>
       <c r="AA103" s="5">
-        <f t="shared" si="184"/>
+        <f t="shared" si="196"/>
         <v>21503</v>
       </c>
       <c r="AB103" s="5">
-        <f t="shared" si="184"/>
+        <f t="shared" si="196"/>
         <v>22975</v>
       </c>
       <c r="AC103" s="5">
-        <f t="shared" si="184"/>
+        <f t="shared" si="196"/>
         <v>25952</v>
       </c>
       <c r="AD103" s="5">
-        <f t="shared" si="184"/>
+        <f t="shared" si="196"/>
         <v>28350</v>
       </c>
       <c r="AE103" s="5">
-        <f t="shared" si="184"/>
+        <f t="shared" si="196"/>
         <v>29467</v>
       </c>
-      <c r="AF103" s="5"/>
-      <c r="AG103" s="5"/>
+      <c r="AF103" s="5">
+        <f t="shared" si="196"/>
+        <v>29562</v>
+      </c>
+      <c r="AG103" s="5">
+        <f>AG104-AG121</f>
+        <v>33945</v>
+      </c>
       <c r="AH103" s="5"/>
-      <c r="AT103" s="4">
+      <c r="AI103" s="5"/>
+      <c r="AJ103" s="5"/>
+      <c r="AK103" s="5"/>
+      <c r="AL103" s="5"/>
+      <c r="AX103" s="4">
         <f>Z103</f>
         <v>23864</v>
       </c>
-      <c r="AU103" s="4">
-        <f>AT103+AU67</f>
+      <c r="AY103" s="4">
+        <f>AX103+AY67</f>
         <v>31450</v>
       </c>
-      <c r="AV103" s="4">
-        <f t="shared" ref="AV103:BA103" si="185">AU103+AV67</f>
+      <c r="AZ103" s="4">
+        <f t="shared" ref="AZ103:BE103" si="197">AY103+AZ67</f>
         <v>44885.391420623768</v>
       </c>
-      <c r="AW103" s="4">
-        <f t="shared" si="185"/>
+      <c r="BA103" s="4">
+        <f t="shared" si="197"/>
         <v>67696.297301370549</v>
       </c>
-      <c r="AX103" s="4">
-        <f t="shared" si="185"/>
+      <c r="BB103" s="4">
+        <f t="shared" si="197"/>
         <v>98451.376845425824</v>
       </c>
-      <c r="AY103" s="4">
-        <f t="shared" si="185"/>
+      <c r="BC103" s="4">
+        <f t="shared" si="197"/>
         <v>142636.96956514573</v>
       </c>
-      <c r="AZ103" s="4">
-        <f t="shared" si="185"/>
+      <c r="BD103" s="4">
+        <f t="shared" si="197"/>
         <v>202070.56868907699</v>
       </c>
-      <c r="BA103" s="4">
-        <f t="shared" si="185"/>
+      <c r="BE103" s="4">
+        <f t="shared" si="197"/>
         <v>277570.76216878544</v>
       </c>
-      <c r="BB103" s="4">
-        <f t="shared" ref="BB103" si="186">BA103+BB67</f>
+      <c r="BF103" s="4">
+        <f t="shared" ref="BF103" si="198">BE103+BF67</f>
         <v>364740.91587602173</v>
       </c>
-      <c r="BC103" s="4">
-        <f t="shared" ref="BC103" si="187">BB103+BC67</f>
+      <c r="BG103" s="4">
+        <f t="shared" ref="BG103" si="199">BF103+BG67</f>
         <v>465001.71818450763</v>
       </c>
-      <c r="BD103" s="4">
-        <f t="shared" ref="BD103" si="188">BC103+BD67</f>
+      <c r="BH103" s="4">
+        <f t="shared" ref="BH103" si="200">BG103+BH67</f>
         <v>579928.68088484067</v>
       </c>
-      <c r="BE103" s="4">
-        <f t="shared" ref="BE103" si="189">BD103+BE67</f>
+      <c r="BI103" s="4">
+        <f t="shared" ref="BI103" si="201">BH103+BI67</f>
         <v>711267.98777096125</v>
       </c>
-      <c r="BF103" s="4">
-        <f t="shared" ref="BF103" si="190">BE103+BF67</f>
+      <c r="BJ103" s="4">
+        <f t="shared" ref="BJ103" si="202">BI103+BJ67</f>
         <v>860953.9029707429</v>
       </c>
     </row>
-    <row r="104" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:62" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
         <v>3</v>
       </c>
@@ -10185,7 +10875,7 @@
         <v>25105</v>
       </c>
       <c r="Y104" s="5">
-        <f t="shared" ref="Y104" si="191">X104+Y67</f>
+        <f t="shared" ref="Y104" si="203">X104+Y67</f>
         <v>26958</v>
       </c>
       <c r="Z104" s="36">
@@ -10208,11 +10898,19 @@
       <c r="AE104" s="5">
         <v>36996</v>
       </c>
-      <c r="AF104" s="5"/>
-      <c r="AG104" s="5"/>
+      <c r="AF104" s="5">
+        <v>36782</v>
+      </c>
+      <c r="AG104" s="5">
+        <v>41647</v>
+      </c>
       <c r="AH104" s="5"/>
-    </row>
-    <row r="105" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AI104" s="5"/>
+      <c r="AJ104" s="5"/>
+      <c r="AK104" s="5"/>
+      <c r="AL104" s="5"/>
+    </row>
+    <row r="105" spans="2:62" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
         <v>63</v>
       </c>
@@ -10265,11 +10963,19 @@
       <c r="AE105" s="5">
         <v>3782</v>
       </c>
-      <c r="AF105" s="5"/>
-      <c r="AG105" s="5"/>
+      <c r="AF105" s="5">
+        <v>3838</v>
+      </c>
+      <c r="AG105" s="5">
+        <v>4703</v>
+      </c>
       <c r="AH105" s="5"/>
-    </row>
-    <row r="106" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AI105" s="5"/>
+      <c r="AJ105" s="5"/>
+      <c r="AK105" s="5"/>
+      <c r="AL105" s="5"/>
+    </row>
+    <row r="106" spans="2:62" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B106" s="10" t="s">
         <v>59</v>
       </c>
@@ -10322,11 +11028,19 @@
       <c r="AE106" s="5">
         <v>13706</v>
       </c>
-      <c r="AF106" s="5"/>
-      <c r="AG106" s="5"/>
+      <c r="AF106" s="5">
+        <v>14570</v>
+      </c>
+      <c r="AG106" s="5">
+        <v>12276</v>
+      </c>
       <c r="AH106" s="5"/>
-    </row>
-    <row r="107" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AI106" s="5"/>
+      <c r="AJ106" s="5"/>
+      <c r="AK106" s="5"/>
+      <c r="AL106" s="5"/>
+    </row>
+    <row r="107" spans="2:62" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
         <v>64</v>
       </c>
@@ -10379,11 +11093,19 @@
       <c r="AE107" s="5">
         <v>4905</v>
       </c>
-      <c r="AF107" s="5"/>
-      <c r="AG107" s="5"/>
+      <c r="AF107" s="5">
+        <v>5943</v>
+      </c>
+      <c r="AG107" s="5">
+        <v>6027</v>
+      </c>
       <c r="AH107" s="5"/>
-    </row>
-    <row r="108" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AI107" s="5"/>
+      <c r="AJ107" s="5"/>
+      <c r="AK107" s="5"/>
+      <c r="AL107" s="5"/>
+    </row>
+    <row r="108" spans="2:62" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B108" s="10" t="s">
         <v>65</v>
       </c>
@@ -10436,11 +11158,19 @@
       <c r="AE108" s="5">
         <v>5477</v>
       </c>
-      <c r="AF108" s="5"/>
-      <c r="AG108" s="5"/>
+      <c r="AF108" s="5">
+        <v>5230</v>
+      </c>
+      <c r="AG108" s="5">
+        <v>5019</v>
+      </c>
       <c r="AH108" s="5"/>
-    </row>
-    <row r="109" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AI108" s="5"/>
+      <c r="AJ108" s="5"/>
+      <c r="AK108" s="5"/>
+      <c r="AL108" s="5"/>
+    </row>
+    <row r="109" spans="2:62" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B109" s="10" t="s">
         <v>66</v>
       </c>
@@ -10493,11 +11223,19 @@
       <c r="AE109" s="5">
         <v>4855</v>
       </c>
-      <c r="AF109" s="5"/>
-      <c r="AG109" s="5"/>
+      <c r="AF109" s="5">
+        <v>4788</v>
+      </c>
+      <c r="AG109" s="5">
+        <v>4673</v>
+      </c>
       <c r="AH109" s="5"/>
-    </row>
-    <row r="110" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AI109" s="5"/>
+      <c r="AJ109" s="5"/>
+      <c r="AK109" s="5"/>
+      <c r="AL109" s="5"/>
+    </row>
+    <row r="110" spans="2:62" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
         <v>67</v>
       </c>
@@ -10532,29 +11270,37 @@
       </c>
       <c r="X110" s="5"/>
       <c r="Y110" s="5"/>
-      <c r="Z110" s="5">
+      <c r="Z110" s="46">
         <v>29725</v>
       </c>
-      <c r="AA110" s="5">
+      <c r="AA110" s="46">
         <v>31436</v>
       </c>
-      <c r="AB110" s="42">
+      <c r="AB110" s="46">
         <v>32902</v>
       </c>
-      <c r="AC110" s="5">
+      <c r="AC110" s="46">
         <v>36116</v>
       </c>
-      <c r="AD110" s="5">
+      <c r="AD110" s="46">
         <v>35836</v>
       </c>
-      <c r="AE110" s="5">
+      <c r="AE110" s="46">
         <v>37088</v>
       </c>
-      <c r="AF110" s="5"/>
-      <c r="AG110" s="5"/>
+      <c r="AF110" s="46">
+        <v>38574</v>
+      </c>
+      <c r="AG110" s="46">
+        <v>39407</v>
+      </c>
       <c r="AH110" s="5"/>
-    </row>
-    <row r="111" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AI110" s="5"/>
+      <c r="AJ110" s="5"/>
+      <c r="AK110" s="5"/>
+      <c r="AL110" s="5"/>
+    </row>
+    <row r="111" spans="2:62" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B111" s="10" t="s">
         <v>68</v>
       </c>
@@ -10607,11 +11353,19 @@
       <c r="AE111" s="5">
         <v>5330</v>
       </c>
-      <c r="AF111" s="5"/>
-      <c r="AG111" s="5"/>
+      <c r="AF111" s="5">
+        <v>5633</v>
+      </c>
+      <c r="AG111" s="5">
+        <v>5783</v>
+      </c>
       <c r="AH111" s="5"/>
-    </row>
-    <row r="112" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AI111" s="5"/>
+      <c r="AJ111" s="5"/>
+      <c r="AK111" s="5"/>
+      <c r="AL111" s="5"/>
+    </row>
+    <row r="112" spans="2:62" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B112" s="10" t="s">
         <v>69</v>
       </c>
@@ -10664,11 +11418,19 @@
       <c r="AE112" s="5">
         <v>951</v>
       </c>
-      <c r="AF112" s="5"/>
-      <c r="AG112" s="5"/>
+      <c r="AF112" s="5">
+        <v>1235</v>
+      </c>
+      <c r="AG112" s="5">
+        <v>1315</v>
+      </c>
       <c r="AH112" s="5"/>
-    </row>
-    <row r="113" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AI112" s="5"/>
+      <c r="AJ112" s="5"/>
+      <c r="AK112" s="5"/>
+      <c r="AL112" s="5"/>
+    </row>
+    <row r="113" spans="2:62" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B113" s="10" t="s">
         <v>70</v>
       </c>
@@ -10725,11 +11487,19 @@
       <c r="AE113" s="5">
         <v>392</v>
       </c>
-      <c r="AF113" s="5"/>
-      <c r="AG113" s="5"/>
+      <c r="AF113" s="5">
+        <v>396</v>
+      </c>
+      <c r="AG113" s="5">
+        <v>388</v>
+      </c>
       <c r="AH113" s="5"/>
-    </row>
-    <row r="114" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AI113" s="5"/>
+      <c r="AJ113" s="5"/>
+      <c r="AK113" s="5"/>
+      <c r="AL113" s="5"/>
+    </row>
+    <row r="114" spans="2:62" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B114" s="10" t="s">
         <v>71</v>
       </c>
@@ -10788,11 +11558,21 @@
         <f>4942+6687</f>
         <v>11629</v>
       </c>
-      <c r="AF114" s="5"/>
-      <c r="AG114" s="5"/>
+      <c r="AF114" s="5">
+        <f>6721+4857</f>
+        <v>11578</v>
+      </c>
+      <c r="AG114" s="5">
+        <f>6637+5860</f>
+        <v>12497</v>
+      </c>
       <c r="AH114" s="5"/>
-    </row>
-    <row r="115" spans="2:58" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AI114" s="5"/>
+      <c r="AJ114" s="5"/>
+      <c r="AK114" s="5"/>
+      <c r="AL114" s="5"/>
+    </row>
+    <row r="115" spans="2:62" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B115" s="10" t="s">
         <v>72</v>
       </c>
@@ -10817,65 +11597,75 @@
         <v>62131</v>
       </c>
       <c r="T115" s="5">
-        <f t="shared" ref="T115:AE115" si="192">SUM(T104:T114)</f>
+        <f t="shared" ref="T115:AG115" si="204">SUM(T104:T114)</f>
         <v>68513</v>
       </c>
       <c r="U115" s="5">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>74426</v>
       </c>
       <c r="V115" s="5">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="W115" s="5">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>86833</v>
       </c>
       <c r="X115" s="5">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>25105</v>
       </c>
       <c r="Y115" s="5">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>26958</v>
       </c>
       <c r="Z115" s="5">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>106618</v>
       </c>
       <c r="AA115" s="5">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>109723</v>
       </c>
       <c r="AB115" s="5">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>113251</v>
       </c>
       <c r="AC115" s="5">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>120277</v>
       </c>
       <c r="AD115" s="5">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>122070</v>
       </c>
       <c r="AE115" s="5">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>125111</v>
       </c>
-      <c r="AF115" s="5"/>
-      <c r="AG115" s="5"/>
+      <c r="AF115" s="5">
+        <f t="shared" si="204"/>
+        <v>128567</v>
+      </c>
+      <c r="AG115" s="5">
+        <f t="shared" si="204"/>
+        <v>133735</v>
+      </c>
       <c r="AH115" s="5"/>
-    </row>
-    <row r="116" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="AI115" s="5"/>
+      <c r="AJ115" s="5"/>
+      <c r="AK115" s="5"/>
+      <c r="AL115" s="5"/>
+    </row>
+    <row r="116" spans="2:62" x14ac:dyDescent="0.25">
       <c r="S116" s="5"/>
       <c r="T116" s="5"/>
       <c r="U116" s="5"/>
       <c r="AA116" s="5"/>
       <c r="AB116" s="5"/>
     </row>
-    <row r="117" spans="2:58" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B117" s="9" t="s">
         <v>73</v>
       </c>
@@ -10909,8 +11699,14 @@
       <c r="AE117" s="5">
         <v>13471</v>
       </c>
-    </row>
-    <row r="118" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="AF117" s="5">
+        <v>13212</v>
+      </c>
+      <c r="AG117" s="5">
+        <v>12819</v>
+      </c>
+    </row>
+    <row r="118" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B118" s="9" t="s">
         <v>74</v>
       </c>
@@ -10944,8 +11740,14 @@
       <c r="AE118" s="5">
         <v>10802</v>
       </c>
-    </row>
-    <row r="119" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="AF118" s="5">
+        <v>11519</v>
+      </c>
+      <c r="AG118" s="5">
+        <v>12791</v>
+      </c>
+    </row>
+    <row r="119" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B119" s="9" t="s">
         <v>75</v>
       </c>
@@ -10989,8 +11791,16 @@
         <f>3243+3610</f>
         <v>6853</v>
       </c>
-    </row>
-    <row r="120" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="AF119" s="5">
+        <f>3237+3764</f>
+        <v>7001</v>
+      </c>
+      <c r="AG119" s="5">
+        <f>3756+3746</f>
+        <v>7502</v>
+      </c>
+    </row>
+    <row r="120" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B120" s="9" t="s">
         <v>76</v>
       </c>
@@ -11024,8 +11834,14 @@
       <c r="AE120" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="AF120" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG120" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B121" s="9" t="s">
         <v>4</v>
       </c>
@@ -11071,11 +11887,21 @@
         <f>2237+5292</f>
         <v>7529</v>
       </c>
-      <c r="AF121" s="5"/>
-      <c r="AG121" s="5"/>
+      <c r="AF121" s="5">
+        <f>2040+5180</f>
+        <v>7220</v>
+      </c>
+      <c r="AG121" s="5">
+        <f>5778+1924</f>
+        <v>7702</v>
+      </c>
       <c r="AH121" s="5"/>
-    </row>
-    <row r="122" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="AI121" s="5"/>
+      <c r="AJ121" s="5"/>
+      <c r="AK121" s="5"/>
+      <c r="AL121" s="5"/>
+    </row>
+    <row r="122" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B122" s="9" t="s">
         <v>77</v>
       </c>
@@ -11109,8 +11935,14 @@
       <c r="AE122" s="5">
         <v>11038</v>
       </c>
-    </row>
-    <row r="123" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="AF122" s="2">
+        <v>11543</v>
+      </c>
+      <c r="AG122" s="2">
+        <v>12205</v>
+      </c>
+    </row>
+    <row r="123" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B123" s="9" t="s">
         <v>78</v>
       </c>
@@ -11154,8 +11986,16 @@
         <f>74653+703+62</f>
         <v>75418</v>
       </c>
-    </row>
-    <row r="124" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="AF123" s="5">
+        <f>61+77314+697</f>
+        <v>78072</v>
+      </c>
+      <c r="AG123" s="5">
+        <f>59+79970+687</f>
+        <v>80716</v>
+      </c>
+    </row>
+    <row r="124" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B124" s="9" t="s">
         <v>79</v>
       </c>
@@ -11180,34 +12020,42 @@
         <v>86833</v>
       </c>
       <c r="Z124" s="5">
-        <f t="shared" ref="Z124:AE124" si="193">SUM(Z117:Z123)</f>
+        <f t="shared" ref="Z124:AG124" si="205">SUM(Z117:Z123)</f>
         <v>106618</v>
       </c>
       <c r="AA124" s="5">
-        <f t="shared" si="193"/>
+        <f t="shared" si="205"/>
         <v>109723</v>
       </c>
       <c r="AB124" s="5">
-        <f t="shared" si="193"/>
+        <f t="shared" si="205"/>
         <v>113251</v>
       </c>
       <c r="AC124" s="5">
-        <f t="shared" si="193"/>
+        <f t="shared" si="205"/>
         <v>120277</v>
       </c>
       <c r="AD124" s="5">
-        <f t="shared" si="193"/>
+        <f t="shared" si="205"/>
         <v>122070</v>
       </c>
       <c r="AE124" s="5">
-        <f t="shared" si="193"/>
+        <f t="shared" si="205"/>
         <v>125111</v>
       </c>
-    </row>
-    <row r="125" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="AF124" s="5">
+        <f t="shared" si="205"/>
+        <v>128567</v>
+      </c>
+      <c r="AG124" s="5">
+        <f t="shared" si="205"/>
+        <v>133735</v>
+      </c>
+    </row>
+    <row r="125" spans="2:62" x14ac:dyDescent="0.25">
       <c r="S125" s="5"/>
     </row>
-    <row r="126" spans="2:58" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B126" s="33" t="s">
         <v>154</v>
       </c>
@@ -11219,14 +12067,14 @@
       <c r="AB126" s="5">
         <v>3660</v>
       </c>
-      <c r="AS126" s="4">
+      <c r="AW126" s="4">
         <v>2913</v>
       </c>
-      <c r="AT126" s="4">
+      <c r="AX126" s="4">
         <v>3536</v>
       </c>
     </row>
-    <row r="127" spans="2:58" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B127" s="33" t="s">
         <v>159</v>
       </c>
@@ -11234,62 +12082,62 @@
       <c r="Z127" s="5"/>
       <c r="AA127" s="5"/>
       <c r="AB127" s="5"/>
-      <c r="AS127" s="4">
+      <c r="AW127" s="4">
         <v>1178</v>
       </c>
-      <c r="AT127" s="4">
+      <c r="AX127" s="4">
         <v>1201</v>
       </c>
-      <c r="AU127" s="4">
-        <f t="shared" ref="AU127:BA127" si="194">+AU37*AU132*8/1000</f>
+      <c r="AY127" s="4">
+        <f t="shared" ref="AY127:BE127" si="206">+AY37*AY132*8/1000</f>
         <v>1717.65696</v>
       </c>
-      <c r="AV127" s="4">
-        <f t="shared" si="194"/>
+      <c r="AZ127" s="4">
+        <f t="shared" si="206"/>
         <v>2951.0091519999996</v>
       </c>
-      <c r="AW127" s="4">
-        <f t="shared" si="194"/>
+      <c r="BA127" s="4">
+        <f t="shared" si="206"/>
         <v>4610.9517999999998</v>
       </c>
-      <c r="AX127" s="4">
-        <f t="shared" si="194"/>
+      <c r="BB127" s="4">
+        <f t="shared" si="206"/>
         <v>6639.7705919999999</v>
       </c>
-      <c r="AY127" s="4">
-        <f t="shared" si="194"/>
+      <c r="BC127" s="4">
+        <f t="shared" si="206"/>
         <v>9295.6788288000007</v>
       </c>
-      <c r="AZ127" s="4">
-        <f t="shared" si="194"/>
+      <c r="BD127" s="4">
+        <f t="shared" si="206"/>
         <v>12217.177889280001</v>
       </c>
-      <c r="BA127" s="4">
-        <f t="shared" si="194"/>
+      <c r="BE127" s="4">
+        <f t="shared" si="206"/>
         <v>15118.757637983999</v>
       </c>
-      <c r="BB127" s="4">
-        <f t="shared" ref="BB127:BF127" si="195">+BB37*BB132*8/1000</f>
+      <c r="BF127" s="4">
+        <f t="shared" ref="BF127:BJ127" si="207">+BF37*BF132*8/1000</f>
         <v>16315.659284324402</v>
       </c>
-      <c r="BC127" s="4">
-        <f t="shared" si="195"/>
+      <c r="BG127" s="4">
+        <f t="shared" si="207"/>
         <v>17594.454201203884</v>
       </c>
-      <c r="BD127" s="4">
-        <f t="shared" si="195"/>
+      <c r="BH127" s="4">
+        <f t="shared" si="207"/>
         <v>18960.339461560503</v>
       </c>
-      <c r="BE127" s="4">
-        <f t="shared" si="195"/>
+      <c r="BI127" s="4">
+        <f t="shared" si="207"/>
         <v>20418.827112449773</v>
       </c>
-      <c r="BF127" s="4">
-        <f t="shared" si="195"/>
+      <c r="BJ127" s="4">
+        <f t="shared" si="207"/>
         <v>21975.762679774063</v>
       </c>
     </row>
-    <row r="128" spans="2:58" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B128" s="33" t="s">
         <v>160</v>
       </c>
@@ -11297,23 +12145,23 @@
       <c r="Z128" s="5"/>
       <c r="AA128" s="5"/>
       <c r="AB128" s="5"/>
-      <c r="AS128" s="4">
+      <c r="AW128" s="4">
         <v>580</v>
       </c>
-      <c r="AT128" s="4">
+      <c r="AX128" s="4">
         <v>595</v>
       </c>
     </row>
-    <row r="129" spans="2:58" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B129" s="33"/>
       <c r="S129" s="5"/>
       <c r="Z129" s="5"/>
       <c r="AA129" s="5"/>
       <c r="AB129" s="5"/>
-      <c r="AS129" s="4"/>
-      <c r="AT129" s="4"/>
-    </row>
-    <row r="130" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="AW129" s="4"/>
+      <c r="AX129" s="4"/>
+    </row>
+    <row r="130" spans="2:62" ht="13" x14ac:dyDescent="0.3">
       <c r="B130" s="33" t="s">
         <v>161</v>
       </c>
@@ -11321,113 +12169,113 @@
       <c r="Z130" s="5"/>
       <c r="AA130" s="5"/>
       <c r="AB130" s="5"/>
-      <c r="AS130" s="4"/>
-      <c r="AT130" s="6">
-        <f>+AT127/8</f>
+      <c r="AW130" s="4"/>
+      <c r="AX130" s="6">
+        <f>+AX127/8</f>
         <v>150.125</v>
       </c>
-      <c r="AU130" s="4">
-        <f>+AU127/8</f>
+      <c r="AY130" s="4">
+        <f>+AY127/8</f>
         <v>214.70712</v>
       </c>
-      <c r="AV130" s="4">
-        <f t="shared" ref="AV130:BA130" si="196">+AV127/8</f>
+      <c r="AZ130" s="4">
+        <f t="shared" ref="AZ130:BE130" si="208">+AZ127/8</f>
         <v>368.87614399999995</v>
       </c>
-      <c r="AW130" s="4">
-        <f t="shared" si="196"/>
+      <c r="BA130" s="4">
+        <f t="shared" si="208"/>
         <v>576.36897499999998</v>
       </c>
-      <c r="AX130" s="4">
-        <f t="shared" si="196"/>
+      <c r="BB130" s="4">
+        <f t="shared" si="208"/>
         <v>829.97132399999998</v>
       </c>
-      <c r="AY130" s="4">
-        <f t="shared" si="196"/>
+      <c r="BC130" s="4">
+        <f t="shared" si="208"/>
         <v>1161.9598536000001</v>
       </c>
-      <c r="AZ130" s="4">
-        <f t="shared" si="196"/>
+      <c r="BD130" s="4">
+        <f t="shared" si="208"/>
         <v>1527.1472361600001</v>
       </c>
-      <c r="BA130" s="4">
-        <f t="shared" si="196"/>
+      <c r="BE130" s="4">
+        <f t="shared" si="208"/>
         <v>1889.8447047479999</v>
       </c>
-      <c r="BB130" s="4">
-        <f t="shared" ref="BB130:BF130" si="197">+BB127/8</f>
+      <c r="BF130" s="4">
+        <f t="shared" ref="BF130:BJ130" si="209">+BF127/8</f>
         <v>2039.4574105405502</v>
       </c>
-      <c r="BC130" s="4">
-        <f t="shared" si="197"/>
+      <c r="BG130" s="4">
+        <f t="shared" si="209"/>
         <v>2199.3067751504855</v>
       </c>
-      <c r="BD130" s="4">
-        <f t="shared" si="197"/>
+      <c r="BH130" s="4">
+        <f t="shared" si="209"/>
         <v>2370.0424326950629</v>
       </c>
-      <c r="BE130" s="4">
-        <f t="shared" si="197"/>
+      <c r="BI130" s="4">
+        <f t="shared" si="209"/>
         <v>2552.3533890562217</v>
       </c>
-      <c r="BF130" s="4">
-        <f t="shared" si="197"/>
+      <c r="BJ130" s="4">
+        <f t="shared" si="209"/>
         <v>2746.9703349717579</v>
       </c>
     </row>
-    <row r="131" spans="2:58" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B131" s="33" t="s">
         <v>162</v>
       </c>
       <c r="S131" s="5"/>
-      <c r="AT131" s="26">
-        <f>+AT126/AS126-1</f>
+      <c r="AX131" s="26">
+        <f>+AX126/AW126-1</f>
         <v>0.21386886371438374</v>
       </c>
     </row>
-    <row r="132" spans="2:58" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B132" s="33" t="s">
         <v>163</v>
       </c>
       <c r="S132" s="5"/>
-      <c r="AT132" s="26">
-        <f>+AT130*1000/AT37</f>
+      <c r="AX132" s="26">
+        <f>+AX130*1000/AX37</f>
         <v>8.3007064654555152E-2</v>
       </c>
-      <c r="AU132" s="26">
+      <c r="AY132" s="26">
         <v>0.12</v>
       </c>
-      <c r="AV132" s="26">
+      <c r="AZ132" s="26">
         <v>0.16</v>
       </c>
-      <c r="AW132" s="26">
+      <c r="BA132" s="26">
         <v>0.2</v>
       </c>
-      <c r="AX132" s="26">
+      <c r="BB132" s="26">
         <v>0.24</v>
       </c>
-      <c r="AY132" s="26">
+      <c r="BC132" s="26">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AZ132" s="26">
+      <c r="BD132" s="26">
         <v>0.32</v>
       </c>
-      <c r="BA132" s="26">
+      <c r="BE132" s="26">
         <v>0.36</v>
       </c>
-      <c r="BB132" s="26">
+      <c r="BF132" s="26">
         <v>0.37</v>
       </c>
-      <c r="BC132" s="26">
+      <c r="BG132" s="26">
         <v>0.38</v>
       </c>
-      <c r="BD132" s="26">
+      <c r="BH132" s="26">
         <v>0.39</v>
       </c>
-      <c r="BE132" s="26">
+      <c r="BI132" s="26">
         <v>0.4</v>
       </c>
-      <c r="BF132" s="26">
+      <c r="BJ132" s="26">
         <v>0.41</v>
       </c>
     </row>
@@ -11450,20 +12298,20 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="28"/>
-    <col min="3" max="3" width="11.7109375" style="28" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="28"/>
+    <col min="2" max="2" width="9.1796875" style="28"/>
+    <col min="3" max="3" width="11.7265625" style="28" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="28" t="s">
         <v>98</v>
       </c>
@@ -11474,7 +12322,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" s="28" t="s">
         <v>100</v>
       </c>
@@ -11482,7 +12330,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="28" t="s">
         <v>101</v>
       </c>
@@ -11496,7 +12344,7 @@
         <v>950000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="28" t="s">
         <v>102</v>
       </c>
@@ -11510,7 +12358,7 @@
         <v>375000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="28" t="s">
         <v>104</v>
       </c>
@@ -11521,7 +12369,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" s="28" t="s">
         <v>105</v>
       </c>
@@ -11532,7 +12380,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="28" t="s">
         <v>106</v>
       </c>
@@ -11543,7 +12391,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" s="28" t="s">
         <v>108</v>
       </c>
@@ -11551,7 +12399,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" s="28" t="s">
         <v>109</v>
       </c>
@@ -11559,12 +12407,12 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="33" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="33" t="s">
         <v>157</v>
       </c>
@@ -11585,13 +12433,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="33"/>
+    <col min="2" max="16384" width="9.1796875" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>8</v>
       </c>
